--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -451,20 +451,14 @@
         <v>4.551000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>4.551500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.57</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>4.556500000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.57</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -581,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -620,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -659,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -698,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -733,15 +699,11 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -776,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -815,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -893,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -932,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -971,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1088,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1283,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1322,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1361,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1400,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1439,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1478,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1595,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1634,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1712,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1751,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1790,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1829,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1868,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1907,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1946,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2020,15 +1854,11 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2063,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2098,15 +1924,11 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2180,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2215,15 +2029,11 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2258,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2293,16 +2099,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2365,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2400,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2435,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -5302,102 +5106,90 @@
         <v>4.512499999999998</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15112</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.507499999999997</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E137" t="n">
         <v>4.47</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="F137" t="n">
+        <v>492187.777</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4.508499999999997</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F136" t="n">
-        <v>15112</v>
-      </c>
-      <c r="G136" t="n">
-        <v>4.507499999999997</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F137" t="n">
-        <v>492187.777</v>
-      </c>
-      <c r="G137" t="n">
-        <v>4.508499999999997</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5217,12 @@
         <v>4.508999999999998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5505,14 +5295,12 @@
         <v>4.508499999999998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5546,14 +5334,12 @@
         <v>4.507499999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5587,14 +5373,12 @@
         <v>4.500499999999998</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>4.41</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5628,14 +5412,12 @@
         <v>4.493499999999998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>4.41</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5669,14 +5451,12 @@
         <v>4.486999999999998</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5710,14 +5490,12 @@
         <v>4.482999999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5751,14 +5529,12 @@
         <v>4.478999999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5792,14 +5568,12 @@
         <v>4.475499999999998</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5833,14 +5607,12 @@
         <v>4.469499999999998</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5874,14 +5646,12 @@
         <v>4.464499999999998</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>4.45</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5915,14 +5685,12 @@
         <v>4.464499999999998</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5956,14 +5724,12 @@
         <v>4.464499999999998</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>4.46</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5997,14 +5763,12 @@
         <v>4.465999999999998</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6038,14 +5802,12 @@
         <v>4.466499999999998</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6079,14 +5841,12 @@
         <v>4.464999999999998</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6120,14 +5880,12 @@
         <v>4.463499999999998</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6161,14 +5919,12 @@
         <v>4.460499999999998</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6202,14 +5958,12 @@
         <v>4.456499999999997</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6243,14 +5997,12 @@
         <v>4.452999999999998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6284,14 +6036,12 @@
         <v>4.451499999999998</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6325,14 +6075,12 @@
         <v>4.455999999999998</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6366,14 +6114,12 @@
         <v>4.457499999999998</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6407,14 +6153,12 @@
         <v>4.462499999999998</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6448,14 +6192,12 @@
         <v>4.468499999999998</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6489,14 +6231,12 @@
         <v>4.475499999999998</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6530,14 +6270,12 @@
         <v>4.478999999999998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D2" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E2" t="n">
-        <v>4.49</v>
+        <v>4.45</v>
       </c>
       <c r="F2" t="n">
-        <v>368974.6914</v>
+        <v>1389422.4122</v>
       </c>
       <c r="G2" t="n">
-        <v>4.551000000000001</v>
+        <v>4.465833333333338</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="D3" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E3" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="F3" t="n">
-        <v>100914.4763</v>
+        <v>368974.6914</v>
       </c>
       <c r="G3" t="n">
-        <v>4.551500000000002</v>
+        <v>4.470166666666671</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>4.57</v>
       </c>
       <c r="C4" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="D4" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="E4" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F4" t="n">
-        <v>371506.0088</v>
+        <v>100914.4763</v>
       </c>
       <c r="G4" t="n">
-        <v>4.556500000000002</v>
+        <v>4.473666666666672</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.64</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.69</v>
-      </c>
       <c r="D5" t="n">
-        <v>4.77</v>
+        <v>4.64</v>
       </c>
       <c r="E5" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F5" t="n">
-        <v>546045.3628999999</v>
+        <v>371506.0088</v>
       </c>
       <c r="G5" t="n">
-        <v>4.549000000000001</v>
+        <v>4.478833333333339</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="C6" t="n">
-        <v>4.74</v>
+        <v>4.69</v>
       </c>
       <c r="D6" t="n">
-        <v>4.74</v>
+        <v>4.77</v>
       </c>
       <c r="E6" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F6" t="n">
-        <v>634048.368</v>
+        <v>546045.3628999999</v>
       </c>
       <c r="G6" t="n">
-        <v>4.539000000000001</v>
+        <v>4.484833333333339</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C7" t="n">
-        <v>4.69</v>
+        <v>4.74</v>
       </c>
       <c r="D7" t="n">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F7" t="n">
-        <v>839895.6296</v>
+        <v>634048.368</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5465</v>
+        <v>4.490666666666672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="C8" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="D8" t="n">
-        <v>4.65</v>
+        <v>4.72</v>
       </c>
       <c r="E8" t="n">
         <v>4.56</v>
       </c>
       <c r="F8" t="n">
-        <v>1407913.387</v>
+        <v>839895.6296</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5505</v>
+        <v>4.496666666666672</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C9" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D9" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E9" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F9" t="n">
-        <v>414988.1921</v>
+        <v>1407913.387</v>
       </c>
       <c r="G9" t="n">
-        <v>4.555000000000001</v>
+        <v>4.500833333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C10" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="D10" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="E10" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F10" t="n">
-        <v>205479.9797</v>
+        <v>414988.1921</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5495</v>
+        <v>4.506000000000006</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>4.56</v>
       </c>
       <c r="C11" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="D11" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="E11" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="F11" t="n">
-        <v>1267805.1304</v>
+        <v>205479.9797</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5525</v>
+        <v>4.508666666666673</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>4.56</v>
       </c>
       <c r="C12" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D12" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="E12" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="F12" t="n">
-        <v>57736.2763</v>
+        <v>1267805.1304</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5465</v>
+        <v>4.51183333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="C13" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D13" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="E13" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="F13" t="n">
-        <v>882826.4365</v>
+        <v>57736.2763</v>
       </c>
       <c r="G13" t="n">
-        <v>4.549</v>
+        <v>4.515500000000007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="C14" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="D14" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="E14" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F14" t="n">
-        <v>403955.1347</v>
+        <v>882826.4365</v>
       </c>
       <c r="G14" t="n">
-        <v>4.5505</v>
+        <v>4.519666666666674</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C15" t="n">
         <v>4.62</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.58</v>
-      </c>
       <c r="D15" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="E15" t="n">
         <v>4.52</v>
       </c>
       <c r="F15" t="n">
-        <v>1659555.2119</v>
+        <v>403955.1347</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5575</v>
+        <v>4.523333333333341</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,32 +923,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C16" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D16" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="E16" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F16" t="n">
-        <v>263386.3369</v>
+        <v>1659555.2119</v>
       </c>
       <c r="G16" t="n">
-        <v>4.563000000000001</v>
+        <v>4.527500000000007</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.62</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +964,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C17" t="n">
         <v>4.59</v>
       </c>
-      <c r="C17" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D17" t="n">
-        <v>4.66</v>
+        <v>4.59</v>
       </c>
       <c r="E17" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="F17" t="n">
-        <v>904468.9892</v>
+        <v>263386.3369</v>
       </c>
       <c r="G17" t="n">
-        <v>4.570500000000001</v>
+        <v>4.53183333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +989,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1003,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C18" t="n">
-        <v>4.66</v>
+        <v>4.65</v>
       </c>
       <c r="D18" t="n">
         <v>4.66</v>
       </c>
       <c r="E18" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="F18" t="n">
-        <v>431140.4056</v>
+        <v>904468.9892</v>
       </c>
       <c r="G18" t="n">
-        <v>4.571000000000001</v>
+        <v>4.537166666666674</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1028,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1042,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C19" t="n">
         <v>4.66</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D19" t="n">
-        <v>4.69</v>
+        <v>4.66</v>
       </c>
       <c r="E19" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="F19" t="n">
-        <v>1253534.6788</v>
+        <v>431140.4056</v>
       </c>
       <c r="G19" t="n">
-        <v>4.575500000000001</v>
+        <v>4.542666666666674</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1067,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="C20" t="n">
         <v>4.65</v>
@@ -1072,13 +1090,13 @@
         <v>4.69</v>
       </c>
       <c r="E20" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F20" t="n">
-        <v>249288.1173</v>
+        <v>1253534.6788</v>
       </c>
       <c r="G20" t="n">
-        <v>4.584500000000001</v>
+        <v>4.548166666666674</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1106,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1107,13 +1129,13 @@
         <v>4.69</v>
       </c>
       <c r="E21" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="F21" t="n">
-        <v>186131.8191</v>
+        <v>249288.1173</v>
       </c>
       <c r="G21" t="n">
-        <v>4.592000000000001</v>
+        <v>4.553666666666674</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1145,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1159,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="C22" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7</v>
+        <v>4.69</v>
       </c>
       <c r="E22" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="F22" t="n">
-        <v>120163.4103</v>
+        <v>186131.8191</v>
       </c>
       <c r="G22" t="n">
-        <v>4.600000000000001</v>
+        <v>4.558166666666674</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1184,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1198,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C23" t="n">
         <v>4.6</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.69</v>
-      </c>
       <c r="D23" t="n">
-        <v>4.69</v>
+        <v>4.7</v>
       </c>
       <c r="E23" t="n">
         <v>4.6</v>
       </c>
       <c r="F23" t="n">
-        <v>79709.91590000001</v>
+        <v>120163.4103</v>
       </c>
       <c r="G23" t="n">
-        <v>4.601500000000001</v>
+        <v>4.562166666666673</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1223,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1237,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C24" t="n">
         <v>4.69</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.64</v>
       </c>
       <c r="D24" t="n">
         <v>4.69</v>
       </c>
       <c r="E24" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F24" t="n">
-        <v>95218.35679999999</v>
+        <v>79709.91590000001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.607500000000002</v>
+        <v>4.567666666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1262,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1276,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.7</v>
+        <v>4.69</v>
       </c>
       <c r="C25" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D25" t="n">
         <v>4.69</v>
       </c>
-      <c r="D25" t="n">
-        <v>4.7</v>
-      </c>
       <c r="E25" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="F25" t="n">
-        <v>52239.7338</v>
+        <v>95218.35679999999</v>
       </c>
       <c r="G25" t="n">
-        <v>4.610500000000002</v>
+        <v>4.57183333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1301,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1315,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C26" t="n">
         <v>4.69</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.76</v>
-      </c>
       <c r="D26" t="n">
-        <v>4.76</v>
+        <v>4.7</v>
       </c>
       <c r="E26" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F26" t="n">
-        <v>184469.6359</v>
+        <v>52239.7338</v>
       </c>
       <c r="G26" t="n">
-        <v>4.615500000000002</v>
+        <v>4.576666666666673</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1340,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1354,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="C27" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="D27" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="E27" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="F27" t="n">
-        <v>151827.645</v>
+        <v>184469.6359</v>
       </c>
       <c r="G27" t="n">
-        <v>4.617000000000002</v>
+        <v>4.582500000000007</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1379,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1393,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="C28" t="n">
-        <v>4.58</v>
+        <v>4.72</v>
       </c>
       <c r="D28" t="n">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="E28" t="n">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="F28" t="n">
-        <v>856436.6633</v>
+        <v>151827.645</v>
       </c>
       <c r="G28" t="n">
-        <v>4.621500000000002</v>
+        <v>4.587666666666673</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1418,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1432,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.6</v>
+        <v>4.67</v>
       </c>
       <c r="C29" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>4.67</v>
       </c>
       <c r="E29" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F29" t="n">
-        <v>250000</v>
+        <v>856436.6633</v>
       </c>
       <c r="G29" t="n">
-        <v>4.623000000000002</v>
+        <v>4.590500000000006</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1457,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1416,19 +1474,19 @@
         <v>4.6</v>
       </c>
       <c r="C30" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D30" t="n">
-        <v>4.66</v>
+        <v>4.6</v>
       </c>
       <c r="E30" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F30" t="n">
-        <v>328044.2178</v>
+        <v>250000</v>
       </c>
       <c r="G30" t="n">
-        <v>4.625000000000002</v>
+        <v>4.594833333333339</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1496,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1510,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C31" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="D31" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="E31" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="F31" t="n">
-        <v>175653.084</v>
+        <v>328044.2178</v>
       </c>
       <c r="G31" t="n">
-        <v>4.629000000000001</v>
+        <v>4.597500000000006</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1535,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1549,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="C32" t="n">
         <v>4.63</v>
       </c>
       <c r="D32" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="E32" t="n">
         <v>4.63</v>
       </c>
       <c r="F32" t="n">
-        <v>347634.5673</v>
+        <v>175653.084</v>
       </c>
       <c r="G32" t="n">
-        <v>4.636000000000001</v>
+        <v>4.599833333333339</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1574,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1588,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="C33" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D33" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="E33" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F33" t="n">
-        <v>341131.9189</v>
+        <v>347634.5673</v>
       </c>
       <c r="G33" t="n">
-        <v>4.640000000000001</v>
+        <v>4.602166666666673</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1613,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1627,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="C34" t="n">
         <v>4.64</v>
       </c>
       <c r="D34" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="E34" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="F34" t="n">
-        <v>277635.7978</v>
+        <v>341131.9189</v>
       </c>
       <c r="G34" t="n">
-        <v>4.649000000000002</v>
+        <v>4.605500000000005</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1652,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1666,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E35" t="n">
         <v>4.63</v>
       </c>
-      <c r="C35" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.62</v>
-      </c>
       <c r="F35" t="n">
-        <v>160000</v>
+        <v>277635.7978</v>
       </c>
       <c r="G35" t="n">
-        <v>4.649500000000002</v>
+        <v>4.606833333333339</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1691,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,57 +1705,59 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C36" t="n">
         <v>4.62</v>
       </c>
-      <c r="C36" t="n">
-        <v>4.6</v>
-      </c>
       <c r="D36" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E36" t="n">
         <v>4.62</v>
       </c>
-      <c r="E36" t="n">
-        <v>4.6</v>
-      </c>
       <c r="F36" t="n">
-        <v>1424634.6726</v>
+        <v>160000</v>
       </c>
       <c r="G36" t="n">
-        <v>4.652500000000002</v>
+        <v>4.607333333333339</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C37" t="n">
         <v>4.6</v>
       </c>
       <c r="D37" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E37" t="n">
         <v>4.6</v>
       </c>
       <c r="F37" t="n">
-        <v>169523.4968</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G37" t="n">
-        <v>4.653</v>
+        <v>4.607666666666673</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1777,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="C38" t="n">
         <v>4.6</v>
       </c>
       <c r="D38" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="E38" t="n">
         <v>4.6</v>
       </c>
       <c r="F38" t="n">
-        <v>131395.0867</v>
+        <v>169523.4968</v>
       </c>
       <c r="G38" t="n">
-        <v>4.652500000000001</v>
+        <v>4.608500000000006</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,28 +1812,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C39" t="n">
         <v>4.6</v>
       </c>
-      <c r="C39" t="n">
-        <v>4.64</v>
-      </c>
       <c r="D39" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="E39" t="n">
         <v>4.6</v>
       </c>
       <c r="F39" t="n">
-        <v>187047.1216</v>
+        <v>131395.0867</v>
       </c>
       <c r="G39" t="n">
-        <v>4.649500000000001</v>
+        <v>4.609166666666673</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,7 +1847,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="C40" t="n">
         <v>4.64</v>
@@ -1772,19 +1856,19 @@
         <v>4.64</v>
       </c>
       <c r="E40" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="F40" t="n">
-        <v>323444.1924</v>
+        <v>187047.1216</v>
       </c>
       <c r="G40" t="n">
-        <v>4.6475</v>
+        <v>4.61033333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,28 +1882,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C41" t="n">
         <v>4.64</v>
       </c>
-      <c r="C41" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D41" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E41" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="F41" t="n">
-        <v>279631.2988</v>
+        <v>323444.1924</v>
       </c>
       <c r="G41" t="n">
-        <v>4.647</v>
+        <v>4.614000000000006</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,28 +1917,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C42" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D42" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E42" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F42" t="n">
-        <v>19689.3105</v>
+        <v>279631.2988</v>
       </c>
       <c r="G42" t="n">
-        <v>4.641999999999999</v>
+        <v>4.615000000000006</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1952,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C43" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="D43" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="E43" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F43" t="n">
-        <v>183612.7364</v>
+        <v>19689.3105</v>
       </c>
       <c r="G43" t="n">
-        <v>4.6435</v>
+        <v>4.615666666666673</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1987,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C44" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D44" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E44" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F44" t="n">
-        <v>67215.3492</v>
+        <v>183612.7364</v>
       </c>
       <c r="G44" t="n">
-        <v>4.641</v>
+        <v>4.61583333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1950,10 +2034,10 @@
         <v>4.64</v>
       </c>
       <c r="F45" t="n">
-        <v>102599.5214</v>
+        <v>67215.3492</v>
       </c>
       <c r="G45" t="n">
-        <v>4.638</v>
+        <v>4.61333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +2057,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C46" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D46" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E46" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F46" t="n">
-        <v>137681.2608</v>
+        <v>102599.5214</v>
       </c>
       <c r="G46" t="n">
-        <v>4.6335</v>
+        <v>4.611333333333339</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,16 +2104,16 @@
         <v>4.6</v>
       </c>
       <c r="F47" t="n">
-        <v>85149.2148</v>
+        <v>137681.2608</v>
       </c>
       <c r="G47" t="n">
-        <v>4.632</v>
+        <v>4.608666666666673</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2043,22 +2127,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="C48" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="D48" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E48" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="F48" t="n">
-        <v>493142.2461</v>
+        <v>85149.2148</v>
       </c>
       <c r="G48" t="n">
-        <v>4.626499999999999</v>
+        <v>4.607500000000006</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2162,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="C49" t="n">
-        <v>4.65</v>
+        <v>4.51</v>
       </c>
       <c r="D49" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="E49" t="n">
-        <v>4.65</v>
+        <v>4.51</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>493142.2461</v>
       </c>
       <c r="G49" t="n">
-        <v>4.629</v>
+        <v>4.60783333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2197,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C50" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D50" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E50" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="F50" t="n">
-        <v>107758.6206</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>4.631</v>
+        <v>4.607500000000005</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2232,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="C51" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="D51" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="E51" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="F51" t="n">
-        <v>179339.616</v>
+        <v>107758.6206</v>
       </c>
       <c r="G51" t="n">
-        <v>4.626</v>
+        <v>4.606666666666672</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2270,19 @@
         <v>4.54</v>
       </c>
       <c r="C52" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D52" t="n">
         <v>4.54</v>
       </c>
       <c r="E52" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="F52" t="n">
-        <v>902338.1677</v>
+        <v>179339.616</v>
       </c>
       <c r="G52" t="n">
-        <v>4.618</v>
+        <v>4.608166666666673</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2302,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C53" t="n">
         <v>4.52</v>
       </c>
-      <c r="C53" t="n">
-        <v>4.5</v>
-      </c>
       <c r="D53" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E53" t="n">
         <v>4.52</v>
       </c>
-      <c r="E53" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F53" t="n">
-        <v>84900</v>
+        <v>902338.1677</v>
       </c>
       <c r="G53" t="n">
-        <v>4.608500000000001</v>
+        <v>4.607166666666672</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2337,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C54" t="n">
         <v>4.5</v>
@@ -2265,10 +2349,10 @@
         <v>4.5</v>
       </c>
       <c r="F54" t="n">
-        <v>775487.0324</v>
+        <v>84900</v>
       </c>
       <c r="G54" t="n">
-        <v>4.5985</v>
+        <v>4.606000000000006</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2372,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C55" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D55" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="E55" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F55" t="n">
-        <v>340299.6269</v>
+        <v>775487.0324</v>
       </c>
       <c r="G55" t="n">
-        <v>4.596500000000001</v>
+        <v>4.606333333333339</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,10 +2407,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="C56" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D56" t="n">
         <v>4.59</v>
@@ -2335,10 +2419,10 @@
         <v>4.49</v>
       </c>
       <c r="F56" t="n">
-        <v>455144.9756</v>
+        <v>340299.6269</v>
       </c>
       <c r="G56" t="n">
-        <v>4.5905</v>
+        <v>4.606500000000006</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2442,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C57" t="n">
         <v>4.59</v>
@@ -2367,13 +2451,13 @@
         <v>4.59</v>
       </c>
       <c r="E57" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="F57" t="n">
-        <v>11226.3834</v>
+        <v>455144.9756</v>
       </c>
       <c r="G57" t="n">
-        <v>4.590000000000002</v>
+        <v>4.608500000000005</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2477,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="C58" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D58" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="E58" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F58" t="n">
-        <v>408947.1966</v>
+        <v>11226.3834</v>
       </c>
       <c r="G58" t="n">
-        <v>4.586000000000001</v>
+        <v>4.610000000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2512,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C59" t="n">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="D59" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E59" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="F59" t="n">
-        <v>260403.7329</v>
+        <v>408947.1966</v>
       </c>
       <c r="G59" t="n">
-        <v>4.580500000000002</v>
+        <v>4.610333333333338</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2550,19 @@
         <v>4.49</v>
       </c>
       <c r="C60" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="D60" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="E60" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="F60" t="n">
-        <v>96995.1744</v>
+        <v>260403.7329</v>
       </c>
       <c r="G60" t="n">
-        <v>4.574500000000001</v>
+        <v>4.610333333333338</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="C61" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D61" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="E61" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="F61" t="n">
-        <v>810010</v>
+        <v>96995.1744</v>
       </c>
       <c r="G61" t="n">
-        <v>4.570500000000001</v>
+        <v>4.609000000000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2617,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C62" t="n">
         <v>4.59</v>
       </c>
-      <c r="C62" t="n">
-        <v>4.6</v>
-      </c>
       <c r="D62" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E62" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F62" t="n">
-        <v>168211.186</v>
+        <v>810010</v>
       </c>
       <c r="G62" t="n">
-        <v>4.570000000000002</v>
+        <v>4.609500000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2652,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C63" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D63" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E63" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="F63" t="n">
-        <v>31505.6277</v>
+        <v>168211.186</v>
       </c>
       <c r="G63" t="n">
-        <v>4.569500000000002</v>
+        <v>4.609833333333338</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2699,10 @@
         <v>4.62</v>
       </c>
       <c r="F64" t="n">
-        <v>96458</v>
+        <v>31505.6277</v>
       </c>
       <c r="G64" t="n">
-        <v>4.568500000000002</v>
+        <v>4.611166666666671</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2734,10 @@
         <v>4.62</v>
       </c>
       <c r="F65" t="n">
-        <v>9297.8441</v>
+        <v>96458</v>
       </c>
       <c r="G65" t="n">
-        <v>4.567500000000003</v>
+        <v>4.610833333333337</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2757,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C66" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="D66" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E66" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="F66" t="n">
-        <v>20162.5677</v>
+        <v>9297.8441</v>
       </c>
       <c r="G66" t="n">
-        <v>4.565500000000003</v>
+        <v>4.609666666666671</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2792,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="C67" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="D67" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="E67" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="F67" t="n">
-        <v>910278.3734</v>
+        <v>20162.5677</v>
       </c>
       <c r="G67" t="n">
-        <v>4.562500000000004</v>
+        <v>4.606666666666671</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2827,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="C68" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D68" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E68" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F68" t="n">
-        <v>85743.1868</v>
+        <v>910278.3734</v>
       </c>
       <c r="G68" t="n">
-        <v>4.564500000000003</v>
+        <v>4.603333333333338</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2862,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C69" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D69" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="E69" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F69" t="n">
-        <v>74889.37089999999</v>
+        <v>85743.1868</v>
       </c>
       <c r="G69" t="n">
-        <v>4.561500000000003</v>
+        <v>4.603666666666672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2897,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C70" t="n">
         <v>4.59</v>
@@ -2822,13 +2906,13 @@
         <v>4.59</v>
       </c>
       <c r="E70" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F70" t="n">
-        <v>387000</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G70" t="n">
-        <v>4.558000000000003</v>
+        <v>4.602833333333338</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2932,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C71" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D71" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E71" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F71" t="n">
-        <v>261747.6657</v>
+        <v>387000</v>
       </c>
       <c r="G71" t="n">
-        <v>4.560000000000003</v>
+        <v>4.603333333333338</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2967,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="C72" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="D72" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="E72" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F72" t="n">
-        <v>351693.2559</v>
+        <v>261747.6657</v>
       </c>
       <c r="G72" t="n">
-        <v>4.564000000000003</v>
+        <v>4.604333333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3002,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C73" t="n">
         <v>4.68</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.61</v>
       </c>
       <c r="D73" t="n">
         <v>4.68</v>
       </c>
       <c r="E73" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="F73" t="n">
-        <v>905165.6731</v>
+        <v>351693.2559</v>
       </c>
       <c r="G73" t="n">
-        <v>4.572000000000004</v>
+        <v>4.606333333333338</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3037,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="C74" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D74" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="E74" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F74" t="n">
-        <v>192315.478</v>
+        <v>905165.6731</v>
       </c>
       <c r="G74" t="n">
-        <v>4.578000000000004</v>
+        <v>4.606833333333339</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3084,10 @@
         <v>4.62</v>
       </c>
       <c r="F75" t="n">
-        <v>257572.7195</v>
+        <v>192315.478</v>
       </c>
       <c r="G75" t="n">
-        <v>4.579500000000004</v>
+        <v>4.606833333333339</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3110,19 @@
         <v>4.62</v>
       </c>
       <c r="C76" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="D76" t="n">
         <v>4.62</v>
       </c>
       <c r="E76" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="F76" t="n">
-        <v>250197.4084</v>
+        <v>257572.7195</v>
       </c>
       <c r="G76" t="n">
-        <v>4.585500000000004</v>
+        <v>4.607500000000005</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3142,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="C77" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D77" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="E77" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F77" t="n">
-        <v>110</v>
+        <v>250197.4084</v>
       </c>
       <c r="G77" t="n">
-        <v>4.588000000000004</v>
+        <v>4.607333333333339</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3180,19 @@
         <v>4.64</v>
       </c>
       <c r="C78" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D78" t="n">
         <v>4.64</v>
       </c>
       <c r="E78" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F78" t="n">
-        <v>1050651.5086</v>
+        <v>110</v>
       </c>
       <c r="G78" t="n">
-        <v>4.593500000000004</v>
+        <v>4.607166666666672</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3212,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C79" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E79" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F79" t="n">
-        <v>139133.5951</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G79" t="n">
-        <v>4.600000000000004</v>
+        <v>4.606166666666672</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3247,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="C80" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D80" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E80" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="F80" t="n">
-        <v>868143.6902</v>
+        <v>139133.5951</v>
       </c>
       <c r="G80" t="n">
-        <v>4.610000000000005</v>
+        <v>4.605666666666673</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="C81" t="n">
         <v>4.59</v>
       </c>
       <c r="D81" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="E81" t="n">
         <v>4.59</v>
       </c>
       <c r="F81" t="n">
-        <v>46979.0248</v>
+        <v>868143.6902</v>
       </c>
       <c r="G81" t="n">
-        <v>4.614000000000004</v>
+        <v>4.604666666666673</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3317,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C82" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D82" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E82" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F82" t="n">
-        <v>890485.2751</v>
+        <v>46979.0248</v>
       </c>
       <c r="G82" t="n">
-        <v>4.613500000000004</v>
+        <v>4.603666666666673</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3355,19 @@
         <v>4.58</v>
       </c>
       <c r="C83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D83" t="n">
         <v>4.58</v>
       </c>
       <c r="E83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F83" t="n">
-        <v>50952.0807</v>
+        <v>890485.2751</v>
       </c>
       <c r="G83" t="n">
-        <v>4.611500000000004</v>
+        <v>4.603166666666672</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3387,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C84" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D84" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E84" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>50952.0807</v>
       </c>
       <c r="G84" t="n">
-        <v>4.612500000000003</v>
+        <v>4.601333333333339</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3425,19 @@
         <v>4.64</v>
       </c>
       <c r="C85" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="D85" t="n">
         <v>4.64</v>
       </c>
       <c r="E85" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="F85" t="n">
-        <v>263620.571</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>4.613500000000004</v>
+        <v>4.601333333333339</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3457,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.67</v>
+        <v>4.64</v>
       </c>
       <c r="C86" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="D86" t="n">
-        <v>4.67</v>
+        <v>4.64</v>
       </c>
       <c r="E86" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>263620.571</v>
       </c>
       <c r="G86" t="n">
-        <v>4.619000000000003</v>
+        <v>4.599666666666672</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3492,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="C87" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="D87" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="E87" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="F87" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>4.626000000000003</v>
+        <v>4.598166666666672</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3527,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="C88" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="D88" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="E88" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="F88" t="n">
-        <v>1229.727</v>
+        <v>99</v>
       </c>
       <c r="G88" t="n">
-        <v>4.626500000000003</v>
+        <v>4.597500000000005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3565,19 @@
         <v>4.61</v>
       </c>
       <c r="C89" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D89" t="n">
-        <v>4.66</v>
+        <v>4.61</v>
       </c>
       <c r="E89" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F89" t="n">
-        <v>310373.1333</v>
+        <v>1229.727</v>
       </c>
       <c r="G89" t="n">
-        <v>4.627500000000003</v>
+        <v>4.598000000000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3597,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C90" t="n">
         <v>4.6</v>
       </c>
-      <c r="C90" t="n">
-        <v>4.59</v>
-      </c>
       <c r="D90" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E90" t="n">
         <v>4.6</v>
       </c>
-      <c r="E90" t="n">
-        <v>4.59</v>
-      </c>
       <c r="F90" t="n">
-        <v>320394.033</v>
+        <v>310373.1333</v>
       </c>
       <c r="G90" t="n">
-        <v>4.629000000000002</v>
+        <v>4.598166666666673</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3632,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="C91" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D91" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="E91" t="n">
         <v>4.59</v>
       </c>
       <c r="F91" t="n">
-        <v>392420.6399</v>
+        <v>320394.033</v>
       </c>
       <c r="G91" t="n">
-        <v>4.632500000000002</v>
+        <v>4.597833333333339</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3667,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="C92" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D92" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="E92" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="F92" t="n">
-        <v>198118.6147</v>
+        <v>392420.6399</v>
       </c>
       <c r="G92" t="n">
-        <v>4.635000000000002</v>
+        <v>4.597500000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3702,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C93" t="n">
         <v>4.62</v>
       </c>
-      <c r="C93" t="n">
-        <v>4.59</v>
-      </c>
       <c r="D93" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E93" t="n">
         <v>4.62</v>
       </c>
-      <c r="E93" t="n">
-        <v>4.59</v>
-      </c>
       <c r="F93" t="n">
-        <v>513021.6013</v>
+        <v>198118.6147</v>
       </c>
       <c r="G93" t="n">
-        <v>4.632000000000002</v>
+        <v>4.597333333333339</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3737,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C94" t="n">
         <v>4.59</v>
       </c>
-      <c r="C94" t="n">
-        <v>4.66</v>
-      </c>
       <c r="D94" t="n">
-        <v>4.66</v>
+        <v>4.62</v>
       </c>
       <c r="E94" t="n">
         <v>4.59</v>
       </c>
       <c r="F94" t="n">
-        <v>153502.9847</v>
+        <v>513021.6013</v>
       </c>
       <c r="G94" t="n">
-        <v>4.630500000000002</v>
+        <v>4.596500000000006</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3772,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C95" t="n">
         <v>4.66</v>
       </c>
-      <c r="C95" t="n">
-        <v>4.67</v>
-      </c>
       <c r="D95" t="n">
-        <v>4.67</v>
+        <v>4.66</v>
       </c>
       <c r="E95" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F95" t="n">
-        <v>171659.4766</v>
+        <v>153502.9847</v>
       </c>
       <c r="G95" t="n">
-        <v>4.632500000000002</v>
+        <v>4.59683333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3807,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="C96" t="n">
-        <v>4.66</v>
+        <v>4.67</v>
       </c>
       <c r="D96" t="n">
         <v>4.67</v>
       </c>
       <c r="E96" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F96" t="n">
-        <v>1530918.8352</v>
+        <v>171659.4766</v>
       </c>
       <c r="G96" t="n">
-        <v>4.631500000000001</v>
+        <v>4.597666666666673</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3842,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C97" t="n">
         <v>4.66</v>
       </c>
-      <c r="C97" t="n">
-        <v>4.56</v>
-      </c>
       <c r="D97" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="E97" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="F97" t="n">
-        <v>2073312.46600876</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G97" t="n">
-        <v>4.632500000000001</v>
+        <v>4.598666666666674</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3877,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.77</v>
+        <v>4.66</v>
       </c>
       <c r="C98" t="n">
-        <v>4.71</v>
+        <v>4.56</v>
       </c>
       <c r="D98" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="E98" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="F98" t="n">
-        <v>566490.2601</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G98" t="n">
-        <v>4.639000000000001</v>
+        <v>4.598000000000007</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3912,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.61</v>
+        <v>4.77</v>
       </c>
       <c r="C99" t="n">
-        <v>4.62</v>
+        <v>4.71</v>
       </c>
       <c r="D99" t="n">
-        <v>4.69</v>
+        <v>4.77</v>
       </c>
       <c r="E99" t="n">
         <v>4.61</v>
       </c>
       <c r="F99" t="n">
-        <v>102504.9494</v>
+        <v>566490.2601</v>
       </c>
       <c r="G99" t="n">
-        <v>4.638500000000001</v>
+        <v>4.599833333333339</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,10 +3947,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="C100" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="D100" t="n">
         <v>4.69</v>
@@ -3875,16 +3959,16 @@
         <v>4.61</v>
       </c>
       <c r="F100" t="n">
-        <v>78898.2552</v>
+        <v>102504.9494</v>
       </c>
       <c r="G100" t="n">
-        <v>4.6355</v>
+        <v>4.599500000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3907,13 +3991,13 @@
         <v>4.69</v>
       </c>
       <c r="E101" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="F101" t="n">
-        <v>698624.2373</v>
+        <v>78898.2552</v>
       </c>
       <c r="G101" t="n">
-        <v>4.635</v>
+        <v>4.60033333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,10 +4017,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C102" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="D102" t="n">
         <v>4.69</v>
@@ -3945,10 +4029,10 @@
         <v>4.63</v>
       </c>
       <c r="F102" t="n">
-        <v>311512.138</v>
+        <v>698624.2373</v>
       </c>
       <c r="G102" t="n">
-        <v>4.638</v>
+        <v>4.601000000000007</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4052,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="C103" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="D103" t="n">
         <v>4.69</v>
       </c>
       <c r="E103" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="F103" t="n">
-        <v>47643.6589</v>
+        <v>311512.138</v>
       </c>
       <c r="G103" t="n">
-        <v>4.643</v>
+        <v>4.601500000000006</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4087,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="C104" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="D104" t="n">
         <v>4.69</v>
       </c>
       <c r="E104" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="F104" t="n">
-        <v>13</v>
+        <v>47643.6589</v>
       </c>
       <c r="G104" t="n">
-        <v>4.6455</v>
+        <v>4.600666666666673</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4122,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="C105" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="D105" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="E105" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="F105" t="n">
-        <v>148567.9265</v>
+        <v>13</v>
       </c>
       <c r="G105" t="n">
-        <v>4.645</v>
+        <v>4.601500000000007</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4160,19 @@
         <v>4.63</v>
       </c>
       <c r="C106" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="D106" t="n">
-        <v>4.69</v>
+        <v>4.63</v>
       </c>
       <c r="E106" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="F106" t="n">
-        <v>516318.2797</v>
+        <v>148567.9265</v>
       </c>
       <c r="G106" t="n">
-        <v>4.642999999999999</v>
+        <v>4.601333333333341</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4192,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C107" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D107" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E107" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F107" t="n">
-        <v>307283.8301</v>
+        <v>516318.2797</v>
       </c>
       <c r="G107" t="n">
-        <v>4.639999999999999</v>
+        <v>4.601500000000007</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4227,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C108" t="n">
         <v>4.6</v>
       </c>
       <c r="D108" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E108" t="n">
         <v>4.6</v>
       </c>
       <c r="F108" t="n">
-        <v>46927.8951</v>
+        <v>307283.8301</v>
       </c>
       <c r="G108" t="n">
-        <v>4.640999999999999</v>
+        <v>4.601500000000007</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4262,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.68</v>
+        <v>4.63</v>
       </c>
       <c r="C109" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="D109" t="n">
-        <v>4.68</v>
+        <v>4.63</v>
       </c>
       <c r="E109" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="F109" t="n">
-        <v>12</v>
+        <v>46927.8951</v>
       </c>
       <c r="G109" t="n">
-        <v>4.644499999999999</v>
+        <v>4.603000000000008</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4297,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="C110" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="D110" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="E110" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>4.646999999999999</v>
+        <v>4.603500000000008</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4332,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C111" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D111" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E111" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="F111" t="n">
-        <v>69265.1439</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>4.644499999999999</v>
+        <v>4.603666666666674</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4367,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C112" t="n">
         <v>4.59</v>
       </c>
-      <c r="C112" t="n">
-        <v>4.55</v>
-      </c>
       <c r="D112" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E112" t="n">
         <v>4.59</v>
       </c>
-      <c r="E112" t="n">
-        <v>4.55</v>
-      </c>
       <c r="F112" t="n">
-        <v>720000.8847000001</v>
+        <v>69265.1439</v>
       </c>
       <c r="G112" t="n">
-        <v>4.640499999999999</v>
+        <v>4.604500000000007</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4402,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C113" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="D113" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E113" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>720000.8847000001</v>
       </c>
       <c r="G113" t="n">
-        <v>4.641499999999999</v>
+        <v>4.605000000000008</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4437,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C114" t="n">
         <v>4.61</v>
       </c>
-      <c r="C114" t="n">
-        <v>4.55</v>
-      </c>
       <c r="D114" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E114" t="n">
         <v>4.61</v>
       </c>
-      <c r="E114" t="n">
-        <v>4.55</v>
-      </c>
       <c r="F114" t="n">
-        <v>257748.5422</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>4.642499999999998</v>
+        <v>4.606833333333341</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4472,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="C115" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D115" t="n">
         <v>4.61</v>
       </c>
-      <c r="D115" t="n">
-        <v>4.62</v>
-      </c>
       <c r="E115" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F115" t="n">
-        <v>15102</v>
+        <v>257748.5422</v>
       </c>
       <c r="G115" t="n">
-        <v>4.640499999999999</v>
+        <v>4.607666666666675</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4507,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="C116" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="D116" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="E116" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="F116" t="n">
-        <v>242413.5138</v>
+        <v>15102</v>
       </c>
       <c r="G116" t="n">
-        <v>4.639999999999999</v>
+        <v>4.609666666666675</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4542,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C117" t="n">
         <v>4.49</v>
       </c>
-      <c r="C117" t="n">
-        <v>4.46</v>
-      </c>
       <c r="D117" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E117" t="n">
         <v>4.49</v>
       </c>
-      <c r="E117" t="n">
-        <v>4.46</v>
-      </c>
       <c r="F117" t="n">
-        <v>273417.1912</v>
+        <v>242413.5138</v>
       </c>
       <c r="G117" t="n">
-        <v>4.631499999999999</v>
+        <v>4.608000000000009</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4580,19 @@
         <v>4.49</v>
       </c>
       <c r="C118" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="D118" t="n">
         <v>4.49</v>
       </c>
       <c r="E118" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="F118" t="n">
-        <v>31473.4845</v>
+        <v>273417.1912</v>
       </c>
       <c r="G118" t="n">
-        <v>4.617499999999999</v>
+        <v>4.605833333333342</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4615,19 @@
         <v>4.49</v>
       </c>
       <c r="C119" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D119" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="E119" t="n">
         <v>4.49</v>
       </c>
       <c r="F119" t="n">
-        <v>5038.5738</v>
+        <v>31473.4845</v>
       </c>
       <c r="G119" t="n">
-        <v>4.611499999999999</v>
+        <v>4.605500000000009</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4650,19 @@
         <v>4.49</v>
       </c>
       <c r="C120" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D120" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="E120" t="n">
         <v>4.49</v>
       </c>
       <c r="F120" t="n">
-        <v>450089.1954</v>
+        <v>5038.5738</v>
       </c>
       <c r="G120" t="n">
-        <v>4.604499999999999</v>
+        <v>4.605833333333343</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4694,10 @@
         <v>4.49</v>
       </c>
       <c r="F121" t="n">
-        <v>8502.590099999999</v>
+        <v>450089.1954</v>
       </c>
       <c r="G121" t="n">
-        <v>4.597499999999998</v>
+        <v>4.605833333333343</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4717,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="C122" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="D122" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="E122" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="F122" t="n">
-        <v>596809.9054</v>
+        <v>8502.590099999999</v>
       </c>
       <c r="G122" t="n">
-        <v>4.592999999999998</v>
+        <v>4.604166666666677</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4674,16 +4758,16 @@
         <v>4.55</v>
       </c>
       <c r="D123" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="E123" t="n">
         <v>4.55</v>
       </c>
       <c r="F123" t="n">
-        <v>17558.6492</v>
+        <v>596809.9054</v>
       </c>
       <c r="G123" t="n">
-        <v>4.586499999999998</v>
+        <v>4.603333333333343</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4799,10 @@
         <v>4.55</v>
       </c>
       <c r="F124" t="n">
-        <v>25342.7292</v>
+        <v>17558.6492</v>
       </c>
       <c r="G124" t="n">
-        <v>4.579499999999998</v>
+        <v>4.602166666666677</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4834,10 @@
         <v>4.55</v>
       </c>
       <c r="F125" t="n">
-        <v>216000.4204</v>
+        <v>25342.7292</v>
       </c>
       <c r="G125" t="n">
-        <v>4.575499999999998</v>
+        <v>4.601000000000011</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4869,10 @@
         <v>4.55</v>
       </c>
       <c r="F126" t="n">
-        <v>20300.6894</v>
+        <v>216000.4204</v>
       </c>
       <c r="G126" t="n">
-        <v>4.571499999999999</v>
+        <v>4.599833333333344</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4892,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C127" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D127" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E127" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="F127" t="n">
-        <v>29855.7268</v>
+        <v>20300.6894</v>
       </c>
       <c r="G127" t="n">
-        <v>4.567499999999998</v>
+        <v>4.599666666666677</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4930,19 @@
         <v>4.54</v>
       </c>
       <c r="C128" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D128" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E128" t="n">
         <v>4.54</v>
       </c>
       <c r="F128" t="n">
-        <v>1289193.1886</v>
+        <v>29855.7268</v>
       </c>
       <c r="G128" t="n">
-        <v>4.562999999999999</v>
+        <v>4.600500000000011</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4962,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C129" t="n">
         <v>4.55</v>
@@ -4887,13 +4971,13 @@
         <v>4.55</v>
       </c>
       <c r="E129" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F129" t="n">
-        <v>70619.02340000001</v>
+        <v>1289193.1886</v>
       </c>
       <c r="G129" t="n">
-        <v>4.556499999999998</v>
+        <v>4.599666666666677</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4997,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="C130" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="D130" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="E130" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="F130" t="n">
-        <v>464094.8782</v>
+        <v>70619.02340000001</v>
       </c>
       <c r="G130" t="n">
-        <v>4.547499999999998</v>
+        <v>4.599000000000012</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5032,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="C131" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="D131" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="E131" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="F131" t="n">
-        <v>58932.6431</v>
+        <v>464094.8782</v>
       </c>
       <c r="G131" t="n">
-        <v>4.540499999999998</v>
+        <v>4.596333333333345</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5067,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="C132" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="D132" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="E132" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="F132" t="n">
-        <v>6108.3885</v>
+        <v>58932.6431</v>
       </c>
       <c r="G132" t="n">
-        <v>4.537499999999998</v>
+        <v>4.594333333333345</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5102,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="C133" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="D133" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="E133" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="F133" t="n">
-        <v>257974.1378</v>
+        <v>6108.3885</v>
       </c>
       <c r="G133" t="n">
-        <v>4.526999999999997</v>
+        <v>4.591833333333344</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5137,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="C134" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="D134" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="E134" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>257974.1378</v>
       </c>
       <c r="G134" t="n">
-        <v>4.519999999999998</v>
+        <v>4.588666666666678</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5175,19 @@
         <v>4.47</v>
       </c>
       <c r="C135" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D135" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="E135" t="n">
         <v>4.47</v>
       </c>
       <c r="F135" t="n">
-        <v>481928.357</v>
+        <v>20</v>
       </c>
       <c r="G135" t="n">
-        <v>4.512499999999998</v>
+        <v>4.586166666666679</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5207,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D136" t="n">
         <v>4.49</v>
       </c>
-      <c r="C136" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.5</v>
-      </c>
       <c r="E136" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="F136" t="n">
-        <v>15112</v>
+        <v>481928.357</v>
       </c>
       <c r="G136" t="n">
-        <v>4.507499999999997</v>
+        <v>4.583833333333345</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,38 +5242,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="C137" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="D137" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="E137" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F137" t="n">
-        <v>492187.777</v>
+        <v>15112</v>
       </c>
       <c r="G137" t="n">
-        <v>4.508499999999997</v>
+        <v>4.582500000000012</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5199,22 +5277,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C138" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D138" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="E138" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="F138" t="n">
-        <v>492158.0842</v>
+        <v>492187.777</v>
       </c>
       <c r="G138" t="n">
-        <v>4.508999999999998</v>
+        <v>4.581166666666679</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5224,11 +5302,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5238,22 +5312,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C139" t="n">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="D139" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E139" t="n">
-        <v>4.48</v>
+        <v>4.42</v>
       </c>
       <c r="F139" t="n">
-        <v>216872.8691</v>
+        <v>492158.0842</v>
       </c>
       <c r="G139" t="n">
-        <v>4.510999999999997</v>
+        <v>4.578166666666679</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,11 +5337,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5277,22 +5347,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.44</v>
+        <v>4.53</v>
       </c>
       <c r="C140" t="n">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="D140" t="n">
-        <v>4.44</v>
+        <v>4.53</v>
       </c>
       <c r="E140" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="F140" t="n">
-        <v>268051.4885</v>
+        <v>216872.8691</v>
       </c>
       <c r="G140" t="n">
-        <v>4.508499999999998</v>
+        <v>4.576000000000012</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5302,11 +5372,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5382,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C141" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="D141" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="E141" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="F141" t="n">
-        <v>994676.0965</v>
+        <v>268051.4885</v>
       </c>
       <c r="G141" t="n">
-        <v>4.507499999999999</v>
+        <v>4.573333333333347</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5341,11 +5407,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5417,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.41</v>
+        <v>4.47</v>
       </c>
       <c r="C142" t="n">
         <v>4.47</v>
@@ -5364,13 +5426,13 @@
         <v>4.47</v>
       </c>
       <c r="E142" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="F142" t="n">
-        <v>1157557.5942</v>
+        <v>994676.0965</v>
       </c>
       <c r="G142" t="n">
-        <v>4.500499999999998</v>
+        <v>4.571333333333347</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,11 +5442,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5403,13 +5461,13 @@
         <v>4.47</v>
       </c>
       <c r="E143" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="F143" t="n">
-        <v>6103.1176</v>
+        <v>1157557.5942</v>
       </c>
       <c r="G143" t="n">
-        <v>4.493499999999998</v>
+        <v>4.569666666666681</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,11 +5477,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5433,22 +5487,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C144" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="D144" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="E144" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F144" t="n">
-        <v>154673.5313</v>
+        <v>6103.1176</v>
       </c>
       <c r="G144" t="n">
-        <v>4.486999999999998</v>
+        <v>4.567833333333349</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5458,11 +5512,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5472,22 +5522,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="C145" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="D145" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="E145" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>154673.5313</v>
       </c>
       <c r="G145" t="n">
-        <v>4.482999999999999</v>
+        <v>4.564166666666682</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5497,11 +5547,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5523,10 +5569,10 @@
         <v>4.47</v>
       </c>
       <c r="F146" t="n">
-        <v>55380</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>4.478999999999998</v>
+        <v>4.562166666666683</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5536,11 +5582,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5562,10 +5604,10 @@
         <v>4.47</v>
       </c>
       <c r="F147" t="n">
-        <v>60546.8045</v>
+        <v>55380</v>
       </c>
       <c r="G147" t="n">
-        <v>4.475499999999998</v>
+        <v>4.55883333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5575,11 +5617,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5589,7 +5627,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="C148" t="n">
         <v>4.47</v>
@@ -5598,13 +5636,13 @@
         <v>4.47</v>
       </c>
       <c r="E148" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="F148" t="n">
-        <v>315919.5261</v>
+        <v>60546.8045</v>
       </c>
       <c r="G148" t="n">
-        <v>4.469499999999998</v>
+        <v>4.55533333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5614,11 +5652,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5628,7 +5662,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="C149" t="n">
         <v>4.47</v>
@@ -5637,13 +5671,13 @@
         <v>4.47</v>
       </c>
       <c r="E149" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F149" t="n">
-        <v>208512.3932</v>
+        <v>315919.5261</v>
       </c>
       <c r="G149" t="n">
-        <v>4.464499999999998</v>
+        <v>4.553000000000017</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5653,11 +5687,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5667,22 +5697,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C150" t="n">
         <v>4.47</v>
       </c>
-      <c r="C150" t="n">
-        <v>4.58</v>
-      </c>
       <c r="D150" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="E150" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F150" t="n">
-        <v>291688.1849</v>
+        <v>208512.3932</v>
       </c>
       <c r="G150" t="n">
-        <v>4.464499999999998</v>
+        <v>4.55083333333335</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5692,11 +5722,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5706,22 +5732,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="C151" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="D151" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="E151" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="F151" t="n">
-        <v>10320.0668</v>
+        <v>291688.1849</v>
       </c>
       <c r="G151" t="n">
-        <v>4.464499999999998</v>
+        <v>4.550666666666684</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5731,11 +5757,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5745,22 +5767,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="C152" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="D152" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="E152" t="n">
         <v>4.46</v>
       </c>
       <c r="F152" t="n">
-        <v>90020</v>
+        <v>10320.0668</v>
       </c>
       <c r="G152" t="n">
-        <v>4.465999999999998</v>
+        <v>4.548166666666684</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5770,11 +5792,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5784,22 +5802,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="C153" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="D153" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="E153" t="n">
-        <v>4.44</v>
+        <v>4.46</v>
       </c>
       <c r="F153" t="n">
-        <v>80010</v>
+        <v>90020</v>
       </c>
       <c r="G153" t="n">
-        <v>4.466499999999998</v>
+        <v>4.547166666666683</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5809,11 +5827,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5826,19 +5840,19 @@
         <v>4.44</v>
       </c>
       <c r="C154" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="D154" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E154" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F154" t="n">
-        <v>100020</v>
+        <v>80010</v>
       </c>
       <c r="G154" t="n">
-        <v>4.464999999999998</v>
+        <v>4.546166666666683</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5848,11 +5862,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5865,19 +5875,19 @@
         <v>4.44</v>
       </c>
       <c r="C155" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D155" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="E155" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F155" t="n">
-        <v>86435.61259999999</v>
+        <v>100020</v>
       </c>
       <c r="G155" t="n">
-        <v>4.463499999999998</v>
+        <v>4.544166666666683</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5887,11 +5897,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5901,22 +5907,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="C156" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D156" t="n">
         <v>4.53</v>
       </c>
       <c r="E156" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F156" t="n">
-        <v>100010</v>
+        <v>86435.61259999999</v>
       </c>
       <c r="G156" t="n">
-        <v>4.460499999999998</v>
+        <v>4.541666666666683</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5926,11 +5932,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>4.43</v>
       </c>
       <c r="C157" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="D157" t="n">
         <v>4.53</v>
@@ -5952,10 +5954,10 @@
         <v>4.43</v>
       </c>
       <c r="F157" t="n">
-        <v>268828.4271</v>
+        <v>100010</v>
       </c>
       <c r="G157" t="n">
-        <v>4.456499999999997</v>
+        <v>4.539500000000015</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5965,11 +5967,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5982,19 +5980,19 @@
         <v>4.43</v>
       </c>
       <c r="C158" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="D158" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E158" t="n">
         <v>4.43</v>
       </c>
       <c r="F158" t="n">
-        <v>125722</v>
+        <v>268828.4271</v>
       </c>
       <c r="G158" t="n">
-        <v>4.452999999999998</v>
+        <v>4.538666666666682</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6004,11 +6002,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6018,7 +6012,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="C159" t="n">
         <v>4.5</v>
@@ -6027,13 +6021,13 @@
         <v>4.5</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="F159" t="n">
-        <v>60870</v>
+        <v>125722</v>
       </c>
       <c r="G159" t="n">
-        <v>4.451499999999998</v>
+        <v>4.535166666666682</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6043,11 +6037,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6057,22 +6047,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>60870</v>
       </c>
       <c r="G160" t="n">
-        <v>4.455999999999998</v>
+        <v>4.533166666666682</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6082,11 +6072,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6096,22 +6082,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C161" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D161" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E161" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F161" t="n">
-        <v>14651</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>4.457499999999998</v>
+        <v>4.530500000000015</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6121,11 +6107,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6135,22 +6117,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C162" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D162" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E162" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F162" t="n">
-        <v>51857.2996</v>
+        <v>14651</v>
       </c>
       <c r="G162" t="n">
-        <v>4.462499999999998</v>
+        <v>4.527333333333348</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6160,11 +6142,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6174,22 +6152,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C163" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D163" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E163" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F163" t="n">
-        <v>34893</v>
+        <v>51857.2996</v>
       </c>
       <c r="G163" t="n">
-        <v>4.468499999999998</v>
+        <v>4.525333333333348</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6199,11 +6177,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6213,22 +6187,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C164" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="D164" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="E164" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="F164" t="n">
-        <v>52893.6403</v>
+        <v>34893</v>
       </c>
       <c r="G164" t="n">
-        <v>4.475499999999998</v>
+        <v>4.524166666666681</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6238,11 +6212,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6252,22 +6222,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="C165" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="D165" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="E165" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="F165" t="n">
-        <v>80921.10129999999</v>
+        <v>52893.6403</v>
       </c>
       <c r="G165" t="n">
-        <v>4.478999999999998</v>
+        <v>4.522000000000014</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6277,11 +6247,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6291,22 +6257,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C166" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D166" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E166" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F166" t="n">
-        <v>9723.546200000001</v>
+        <v>80921.10129999999</v>
       </c>
       <c r="G166" t="n">
-        <v>4.480499999999998</v>
+        <v>4.520500000000014</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6316,12 +6282,43 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9723.546200000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4.518666666666681</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="C2" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="D2" t="n">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="E2" t="n">
-        <v>4.45</v>
+        <v>4.49</v>
       </c>
       <c r="F2" t="n">
-        <v>1389422.4122</v>
+        <v>5731.1024</v>
       </c>
       <c r="G2" t="n">
-        <v>4.550000000000002</v>
+        <v>-2352527.5741</v>
       </c>
       <c r="H2" t="n">
-        <v>4.465833333333338</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="C3" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="D3" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="E3" t="n">
-        <v>4.49</v>
+        <v>4.44</v>
       </c>
       <c r="F3" t="n">
-        <v>368974.6914</v>
+        <v>215444.7546</v>
       </c>
       <c r="G3" t="n">
-        <v>4.544000000000001</v>
+        <v>-2567972.3287</v>
       </c>
       <c r="H3" t="n">
-        <v>4.470166666666671</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="C4" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="D4" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E4" t="n">
-        <v>4.54</v>
+        <v>4.42</v>
       </c>
       <c r="F4" t="n">
-        <v>100914.4763</v>
+        <v>929020.5853</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547333333333336</v>
+        <v>-1638951.743400001</v>
       </c>
       <c r="H4" t="n">
-        <v>4.473666666666672</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C5" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D5" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E5" t="n">
-        <v>4.56</v>
+        <v>4.42</v>
       </c>
       <c r="F5" t="n">
-        <v>371506.0088</v>
+        <v>191126.291</v>
       </c>
       <c r="G5" t="n">
-        <v>4.545333333333335</v>
+        <v>-1447825.452400001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.478833333333339</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C6" t="n">
-        <v>4.69</v>
+        <v>4.58</v>
       </c>
       <c r="D6" t="n">
-        <v>4.77</v>
+        <v>4.58</v>
       </c>
       <c r="E6" t="n">
         <v>4.58</v>
       </c>
       <c r="F6" t="n">
-        <v>546045.3628999999</v>
+        <v>95931.87772925</v>
       </c>
       <c r="G6" t="n">
-        <v>4.545333333333335</v>
+        <v>-1543757.33012925</v>
       </c>
       <c r="H6" t="n">
-        <v>4.484833333333339</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C7" t="n">
-        <v>4.74</v>
+        <v>4.55</v>
       </c>
       <c r="D7" t="n">
-        <v>4.74</v>
+        <v>4.58</v>
       </c>
       <c r="E7" t="n">
-        <v>4.59</v>
+        <v>4.41</v>
       </c>
       <c r="F7" t="n">
-        <v>634048.368</v>
+        <v>983678.10043668</v>
       </c>
       <c r="G7" t="n">
-        <v>4.564666666666668</v>
+        <v>-2527435.43056593</v>
       </c>
       <c r="H7" t="n">
-        <v>4.490666666666672</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="C8" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="D8" t="n">
-        <v>4.72</v>
+        <v>4.56</v>
       </c>
       <c r="E8" t="n">
         <v>4.56</v>
       </c>
       <c r="F8" t="n">
-        <v>839895.6296</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>4.572000000000002</v>
+        <v>-2527424.43056593</v>
       </c>
       <c r="H8" t="n">
-        <v>4.496666666666672</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D9" t="n">
         <v>4.58</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.65</v>
-      </c>
       <c r="E9" t="n">
-        <v>4.56</v>
+        <v>4.43</v>
       </c>
       <c r="F9" t="n">
-        <v>1407913.387</v>
+        <v>148963.4649</v>
       </c>
       <c r="G9" t="n">
-        <v>4.572666666666668</v>
+        <v>-2378460.96566593</v>
       </c>
       <c r="H9" t="n">
-        <v>4.500833333333339</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D10" t="n">
         <v>4.57</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.64</v>
-      </c>
       <c r="E10" t="n">
-        <v>4.57</v>
+        <v>4.42</v>
       </c>
       <c r="F10" t="n">
-        <v>414988.1921</v>
+        <v>474005.7992</v>
       </c>
       <c r="G10" t="n">
-        <v>4.583333333333335</v>
+        <v>-2852466.76486593</v>
       </c>
       <c r="H10" t="n">
-        <v>4.506000000000006</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="C11" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D11" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E11" t="n">
-        <v>4.56</v>
+        <v>4.41</v>
       </c>
       <c r="F11" t="n">
-        <v>205479.9797</v>
+        <v>575809.0198</v>
       </c>
       <c r="G11" t="n">
-        <v>4.588666666666668</v>
+        <v>-2276657.74506593</v>
       </c>
       <c r="H11" t="n">
-        <v>4.508666666666673</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C12" t="n">
         <v>4.56</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.52</v>
-      </c>
       <c r="D12" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="E12" t="n">
-        <v>4.51</v>
+        <v>4.41</v>
       </c>
       <c r="F12" t="n">
-        <v>1267805.1304</v>
+        <v>342074.3305</v>
       </c>
       <c r="G12" t="n">
-        <v>4.592000000000001</v>
+        <v>-2618732.07556593</v>
       </c>
       <c r="H12" t="n">
-        <v>4.51183333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -859,33 +821,30 @@
         <v>4.56</v>
       </c>
       <c r="C13" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="D13" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="E13" t="n">
         <v>4.56</v>
       </c>
       <c r="F13" t="n">
-        <v>57736.2763</v>
+        <v>593725.49332456</v>
       </c>
       <c r="G13" t="n">
-        <v>4.596000000000002</v>
+        <v>-2025006.58224137</v>
       </c>
       <c r="H13" t="n">
-        <v>4.515500000000007</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C14" t="n">
-        <v>4.58</v>
+        <v>4.79</v>
       </c>
       <c r="D14" t="n">
-        <v>4.63</v>
+        <v>4.8</v>
       </c>
       <c r="E14" t="n">
-        <v>4.51</v>
+        <v>4.47</v>
       </c>
       <c r="F14" t="n">
-        <v>882826.4365</v>
+        <v>1326190.00846563</v>
       </c>
       <c r="G14" t="n">
-        <v>4.602000000000002</v>
+        <v>-698816.5737757403</v>
       </c>
       <c r="H14" t="n">
-        <v>4.519666666666674</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.52</v>
+        <v>4.79</v>
       </c>
       <c r="C15" t="n">
-        <v>4.62</v>
+        <v>4.76</v>
       </c>
       <c r="D15" t="n">
-        <v>4.62</v>
+        <v>4.8</v>
       </c>
       <c r="E15" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="F15" t="n">
-        <v>403955.1347</v>
+        <v>954273.47426937</v>
       </c>
       <c r="G15" t="n">
-        <v>4.604666666666669</v>
+        <v>-1653090.04804511</v>
       </c>
       <c r="H15" t="n">
-        <v>4.523333333333341</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.62</v>
+        <v>4.79</v>
       </c>
       <c r="C16" t="n">
-        <v>4.58</v>
+        <v>4.76</v>
       </c>
       <c r="D16" t="n">
-        <v>4.65</v>
+        <v>4.79</v>
       </c>
       <c r="E16" t="n">
-        <v>4.52</v>
+        <v>4.36</v>
       </c>
       <c r="F16" t="n">
-        <v>1659555.2119</v>
+        <v>1133775.55648535</v>
       </c>
       <c r="G16" t="n">
-        <v>4.605333333333336</v>
+        <v>-1653090.04804511</v>
       </c>
       <c r="H16" t="n">
-        <v>4.527500000000007</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="C17" t="n">
-        <v>4.59</v>
+        <v>4.67</v>
       </c>
       <c r="D17" t="n">
-        <v>4.59</v>
+        <v>4.7</v>
       </c>
       <c r="E17" t="n">
-        <v>4.56</v>
+        <v>4.4</v>
       </c>
       <c r="F17" t="n">
-        <v>263386.3369</v>
+        <v>466786.52457687</v>
       </c>
       <c r="G17" t="n">
-        <v>4.607333333333336</v>
+        <v>-2119876.572621981</v>
       </c>
       <c r="H17" t="n">
-        <v>4.53183333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="D18" t="n">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="F18" t="n">
-        <v>904468.9892</v>
+        <v>15116.2457</v>
       </c>
       <c r="G18" t="n">
-        <v>4.612000000000004</v>
+        <v>-2134992.818321981</v>
       </c>
       <c r="H18" t="n">
-        <v>4.537166666666674</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.62</v>
+        <v>4.48</v>
       </c>
       <c r="C19" t="n">
-        <v>4.66</v>
+        <v>4.67</v>
       </c>
       <c r="D19" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="E19" t="n">
-        <v>4.62</v>
+        <v>4.4</v>
       </c>
       <c r="F19" t="n">
-        <v>431140.4056</v>
+        <v>2331369.0903</v>
       </c>
       <c r="G19" t="n">
-        <v>4.620000000000003</v>
+        <v>196376.2719780193</v>
       </c>
       <c r="H19" t="n">
-        <v>4.542666666666674</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.66</v>
+        <v>4.67</v>
       </c>
       <c r="C20" t="n">
-        <v>4.65</v>
+        <v>4.69</v>
       </c>
       <c r="D20" t="n">
-        <v>4.69</v>
+        <v>4.7</v>
       </c>
       <c r="E20" t="n">
-        <v>4.57</v>
+        <v>4.67</v>
       </c>
       <c r="F20" t="n">
-        <v>1253534.6788</v>
+        <v>209045.91968</v>
       </c>
       <c r="G20" t="n">
-        <v>4.620666666666669</v>
+        <v>405422.1916580193</v>
       </c>
       <c r="H20" t="n">
-        <v>4.548166666666674</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="D21" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="E21" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="F21" t="n">
-        <v>249288.1173</v>
+        <v>1118051.4848</v>
       </c>
       <c r="G21" t="n">
-        <v>4.618000000000004</v>
+        <v>-712629.2931419807</v>
       </c>
       <c r="H21" t="n">
-        <v>4.553666666666674</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="C22" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D22" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="E22" t="n">
-        <v>4.65</v>
+        <v>4.46</v>
       </c>
       <c r="F22" t="n">
-        <v>186131.8191</v>
+        <v>3058916.5944</v>
       </c>
       <c r="G22" t="n">
-        <v>4.612000000000005</v>
+        <v>2346287.301258019</v>
       </c>
       <c r="H22" t="n">
-        <v>4.558166666666674</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.7</v>
+        <v>4.58</v>
       </c>
       <c r="C23" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="D23" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>4.48</v>
       </c>
       <c r="F23" t="n">
-        <v>120163.4103</v>
+        <v>1832959.9473</v>
       </c>
       <c r="G23" t="n">
-        <v>4.606000000000004</v>
+        <v>513327.3539580191</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562166666666673</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="C24" t="n">
-        <v>4.69</v>
+        <v>4.48</v>
       </c>
       <c r="D24" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="E24" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="F24" t="n">
-        <v>79709.91590000001</v>
+        <v>468778.8666</v>
       </c>
       <c r="G24" t="n">
-        <v>4.613333333333338</v>
+        <v>44548.48735801905</v>
       </c>
       <c r="H24" t="n">
-        <v>4.567666666666673</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.69</v>
+        <v>4.48</v>
       </c>
       <c r="C25" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="D25" t="n">
-        <v>4.69</v>
+        <v>4.48</v>
       </c>
       <c r="E25" t="n">
-        <v>4.62</v>
+        <v>4.48</v>
       </c>
       <c r="F25" t="n">
-        <v>95218.35679999999</v>
+        <v>6691.0675</v>
       </c>
       <c r="G25" t="n">
-        <v>4.613333333333338</v>
+        <v>44548.48735801905</v>
       </c>
       <c r="H25" t="n">
-        <v>4.57183333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="C26" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D26" t="n">
-        <v>4.7</v>
+        <v>4.47</v>
       </c>
       <c r="E26" t="n">
-        <v>4.61</v>
+        <v>4.44</v>
       </c>
       <c r="F26" t="n">
-        <v>52239.7338</v>
+        <v>832141.6939</v>
       </c>
       <c r="G26" t="n">
-        <v>4.622000000000003</v>
+        <v>-787593.2065419808</v>
       </c>
       <c r="H26" t="n">
-        <v>4.576666666666673</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.69</v>
+        <v>4.44</v>
       </c>
       <c r="C27" t="n">
-        <v>4.76</v>
+        <v>4.5</v>
       </c>
       <c r="D27" t="n">
-        <v>4.76</v>
+        <v>4.5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="F27" t="n">
-        <v>184469.6359</v>
+        <v>319193.2589</v>
       </c>
       <c r="G27" t="n">
-        <v>4.638000000000004</v>
+        <v>-468399.9476419808</v>
       </c>
       <c r="H27" t="n">
-        <v>4.582500000000007</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="C28" t="n">
-        <v>4.72</v>
+        <v>4.49</v>
       </c>
       <c r="D28" t="n">
-        <v>4.72</v>
+        <v>4.61</v>
       </c>
       <c r="E28" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="F28" t="n">
-        <v>151827.645</v>
+        <v>3830.387</v>
       </c>
       <c r="G28" t="n">
-        <v>4.648666666666671</v>
+        <v>-472230.3346419808</v>
       </c>
       <c r="H28" t="n">
-        <v>4.587666666666673</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.67</v>
+        <v>4.57</v>
       </c>
       <c r="C29" t="n">
         <v>4.58</v>
       </c>
       <c r="D29" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="E29" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="F29" t="n">
-        <v>856436.6633</v>
+        <v>1272468.1175</v>
       </c>
       <c r="G29" t="n">
-        <v>4.648666666666671</v>
+        <v>800237.7828580191</v>
       </c>
       <c r="H29" t="n">
-        <v>4.590500000000006</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="C30" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D30" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="E30" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="F30" t="n">
-        <v>250000</v>
+        <v>261812.4139</v>
       </c>
       <c r="G30" t="n">
-        <v>4.646666666666671</v>
+        <v>538425.3689580191</v>
       </c>
       <c r="H30" t="n">
-        <v>4.594833333333339</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="D31" t="n">
-        <v>4.66</v>
+        <v>4.57</v>
       </c>
       <c r="E31" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="F31" t="n">
-        <v>328044.2178</v>
+        <v>1389422.4122</v>
       </c>
       <c r="G31" t="n">
-        <v>4.648666666666671</v>
+        <v>-850997.0432419808</v>
       </c>
       <c r="H31" t="n">
-        <v>4.597500000000006</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="C32" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D32" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E32" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="F32" t="n">
-        <v>175653.084</v>
+        <v>368974.6914</v>
       </c>
       <c r="G32" t="n">
-        <v>4.651333333333337</v>
+        <v>-482022.3518419808</v>
       </c>
       <c r="H32" t="n">
-        <v>4.599833333333339</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.7</v>
+        <v>4.57</v>
       </c>
       <c r="C33" t="n">
-        <v>4.63</v>
+        <v>4.54</v>
       </c>
       <c r="D33" t="n">
-        <v>4.7</v>
+        <v>4.57</v>
       </c>
       <c r="E33" t="n">
-        <v>4.63</v>
+        <v>4.54</v>
       </c>
       <c r="F33" t="n">
-        <v>347634.5673</v>
+        <v>100914.4763</v>
       </c>
       <c r="G33" t="n">
-        <v>4.650000000000003</v>
+        <v>-582936.8281419808</v>
       </c>
       <c r="H33" t="n">
-        <v>4.602166666666673</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.71</v>
+        <v>4.57</v>
       </c>
       <c r="C34" t="n">
         <v>4.64</v>
       </c>
       <c r="D34" t="n">
-        <v>4.71</v>
+        <v>4.64</v>
       </c>
       <c r="E34" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="F34" t="n">
-        <v>341131.9189</v>
+        <v>371506.0088</v>
       </c>
       <c r="G34" t="n">
-        <v>4.64866666666667</v>
+        <v>-211430.8193419808</v>
       </c>
       <c r="H34" t="n">
-        <v>4.605500000000005</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="C35" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="D35" t="n">
-        <v>4.7</v>
+        <v>4.77</v>
       </c>
       <c r="E35" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F35" t="n">
-        <v>277635.7978</v>
+        <v>546045.3628999999</v>
       </c>
       <c r="G35" t="n">
-        <v>4.648000000000002</v>
+        <v>334614.5435580192</v>
       </c>
       <c r="H35" t="n">
-        <v>4.606833333333339</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="C36" t="n">
-        <v>4.62</v>
+        <v>4.74</v>
       </c>
       <c r="D36" t="n">
-        <v>4.63</v>
+        <v>4.74</v>
       </c>
       <c r="E36" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="F36" t="n">
-        <v>160000</v>
+        <v>634048.368</v>
       </c>
       <c r="G36" t="n">
-        <v>4.646000000000003</v>
+        <v>968662.9115580192</v>
       </c>
       <c r="H36" t="n">
-        <v>4.607333333333339</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="C37" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="D37" t="n">
-        <v>4.62</v>
+        <v>4.72</v>
       </c>
       <c r="E37" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="F37" t="n">
-        <v>1424634.6726</v>
+        <v>839895.6296</v>
       </c>
       <c r="G37" t="n">
-        <v>4.642666666666669</v>
+        <v>128767.2819580192</v>
       </c>
       <c r="H37" t="n">
-        <v>4.607666666666673</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C38" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D38" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E38" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="F38" t="n">
-        <v>169523.4968</v>
+        <v>1407913.387</v>
       </c>
       <c r="G38" t="n">
-        <v>4.642666666666669</v>
+        <v>-1279146.105041981</v>
       </c>
       <c r="H38" t="n">
-        <v>4.608500000000006</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="C39" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D39" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="E39" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="F39" t="n">
-        <v>131395.0867</v>
+        <v>414988.1921</v>
       </c>
       <c r="G39" t="n">
-        <v>4.636666666666668</v>
+        <v>-864157.9129419808</v>
       </c>
       <c r="H39" t="n">
-        <v>4.609166666666673</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="C40" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="D40" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="E40" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="F40" t="n">
-        <v>187047.1216</v>
+        <v>205479.9797</v>
       </c>
       <c r="G40" t="n">
-        <v>4.636666666666668</v>
+        <v>-1069637.892641981</v>
       </c>
       <c r="H40" t="n">
-        <v>4.61033333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="C41" t="n">
-        <v>4.64</v>
+        <v>4.52</v>
       </c>
       <c r="D41" t="n">
         <v>4.64</v>
       </c>
       <c r="E41" t="n">
-        <v>4.61</v>
+        <v>4.51</v>
       </c>
       <c r="F41" t="n">
-        <v>323444.1924</v>
+        <v>1267805.1304</v>
       </c>
       <c r="G41" t="n">
-        <v>4.633333333333336</v>
+        <v>-2337443.02304198</v>
       </c>
       <c r="H41" t="n">
-        <v>4.614000000000006</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="C42" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="D42" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="E42" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="F42" t="n">
-        <v>279631.2988</v>
+        <v>57736.2763</v>
       </c>
       <c r="G42" t="n">
-        <v>4.626000000000002</v>
+        <v>-2279706.74674198</v>
       </c>
       <c r="H42" t="n">
-        <v>4.615000000000006</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="C43" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D43" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="E43" t="n">
-        <v>4.6</v>
+        <v>4.51</v>
       </c>
       <c r="F43" t="n">
-        <v>19689.3105</v>
+        <v>882826.4365</v>
       </c>
       <c r="G43" t="n">
-        <v>4.618000000000001</v>
+        <v>-1396880.31024198</v>
       </c>
       <c r="H43" t="n">
-        <v>4.615666666666673</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.63</v>
+        <v>4.52</v>
       </c>
       <c r="C44" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="D44" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="E44" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="F44" t="n">
-        <v>183612.7364</v>
+        <v>403955.1347</v>
       </c>
       <c r="G44" t="n">
-        <v>4.622666666666669</v>
+        <v>-992925.1755419804</v>
       </c>
       <c r="H44" t="n">
-        <v>4.61583333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="C45" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D45" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E45" t="n">
-        <v>4.64</v>
+        <v>4.52</v>
       </c>
       <c r="F45" t="n">
-        <v>67215.3492</v>
+        <v>1659555.2119</v>
       </c>
       <c r="G45" t="n">
-        <v>4.626000000000002</v>
+        <v>-2652480.387441981</v>
       </c>
       <c r="H45" t="n">
-        <v>4.61333333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="C46" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D46" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E46" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="F46" t="n">
-        <v>102599.5214</v>
+        <v>263386.3369</v>
       </c>
       <c r="G46" t="n">
-        <v>4.628000000000002</v>
+        <v>-2389094.050541981</v>
       </c>
       <c r="H46" t="n">
-        <v>4.611333333333339</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C47" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D47" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="E47" t="n">
-        <v>4.6</v>
+        <v>4.52</v>
       </c>
       <c r="F47" t="n">
-        <v>137681.2608</v>
+        <v>904468.9892</v>
       </c>
       <c r="G47" t="n">
-        <v>4.626000000000002</v>
+        <v>-1484625.061341981</v>
       </c>
       <c r="H47" t="n">
-        <v>4.608666666666673</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C48" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="D48" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="E48" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F48" t="n">
-        <v>85149.2148</v>
+        <v>431140.4056</v>
       </c>
       <c r="G48" t="n">
-        <v>4.624000000000001</v>
+        <v>-1053484.655741981</v>
       </c>
       <c r="H48" t="n">
-        <v>4.607500000000006</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.56</v>
+        <v>4.66</v>
       </c>
       <c r="C49" t="n">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="D49" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E49" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="F49" t="n">
-        <v>493142.2461</v>
+        <v>1253534.6788</v>
       </c>
       <c r="G49" t="n">
-        <v>4.615333333333336</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H49" t="n">
-        <v>4.60783333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,30 +2119,27 @@
         <v>4.65</v>
       </c>
       <c r="D50" t="n">
-        <v>4.65</v>
+        <v>4.69</v>
       </c>
       <c r="E50" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>249288.1173</v>
       </c>
       <c r="G50" t="n">
-        <v>4.616000000000002</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H50" t="n">
-        <v>4.607500000000005</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C51" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D51" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="E51" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="F51" t="n">
-        <v>107758.6206</v>
+        <v>186131.8191</v>
       </c>
       <c r="G51" t="n">
-        <v>4.617333333333336</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H51" t="n">
-        <v>4.606666666666672</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.54</v>
+        <v>4.7</v>
       </c>
       <c r="C52" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="D52" t="n">
-        <v>4.54</v>
+        <v>4.7</v>
       </c>
       <c r="E52" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="F52" t="n">
-        <v>179339.616</v>
+        <v>120163.4103</v>
       </c>
       <c r="G52" t="n">
-        <v>4.613333333333336</v>
+        <v>-2427182.744841981</v>
       </c>
       <c r="H52" t="n">
-        <v>4.608166666666673</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="C53" t="n">
-        <v>4.52</v>
+        <v>4.69</v>
       </c>
       <c r="D53" t="n">
-        <v>4.54</v>
+        <v>4.69</v>
       </c>
       <c r="E53" t="n">
-        <v>4.52</v>
+        <v>4.6</v>
       </c>
       <c r="F53" t="n">
-        <v>902338.1677</v>
+        <v>79709.91590000001</v>
       </c>
       <c r="G53" t="n">
-        <v>4.608000000000003</v>
+        <v>-2347472.828941981</v>
       </c>
       <c r="H53" t="n">
-        <v>4.607166666666672</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.52</v>
+        <v>4.69</v>
       </c>
       <c r="C54" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="D54" t="n">
-        <v>4.52</v>
+        <v>4.69</v>
       </c>
       <c r="E54" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="F54" t="n">
-        <v>84900</v>
+        <v>95218.35679999999</v>
       </c>
       <c r="G54" t="n">
-        <v>4.601333333333337</v>
+        <v>-2442691.185741981</v>
       </c>
       <c r="H54" t="n">
-        <v>4.606000000000006</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C55" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="D55" t="n">
-        <v>4.52</v>
+        <v>4.7</v>
       </c>
       <c r="E55" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="F55" t="n">
-        <v>775487.0324</v>
+        <v>52239.7338</v>
       </c>
       <c r="G55" t="n">
-        <v>4.592000000000003</v>
+        <v>-2390451.451941981</v>
       </c>
       <c r="H55" t="n">
-        <v>4.606333333333339</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="C56" t="n">
-        <v>4.49</v>
+        <v>4.76</v>
       </c>
       <c r="D56" t="n">
-        <v>4.59</v>
+        <v>4.76</v>
       </c>
       <c r="E56" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="F56" t="n">
-        <v>340299.6269</v>
+        <v>184469.6359</v>
       </c>
       <c r="G56" t="n">
-        <v>4.582000000000003</v>
+        <v>-2205981.816041981</v>
       </c>
       <c r="H56" t="n">
-        <v>4.606500000000006</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="C57" t="n">
-        <v>4.59</v>
+        <v>4.72</v>
       </c>
       <c r="D57" t="n">
-        <v>4.59</v>
+        <v>4.72</v>
       </c>
       <c r="E57" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="F57" t="n">
-        <v>455144.9756</v>
+        <v>151827.645</v>
       </c>
       <c r="G57" t="n">
-        <v>4.578000000000003</v>
+        <v>-2357809.461041981</v>
       </c>
       <c r="H57" t="n">
-        <v>4.608500000000005</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.59</v>
+        <v>4.67</v>
       </c>
       <c r="C58" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D58" t="n">
-        <v>4.59</v>
+        <v>4.67</v>
       </c>
       <c r="E58" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F58" t="n">
-        <v>11226.3834</v>
+        <v>856436.6633</v>
       </c>
       <c r="G58" t="n">
-        <v>4.577333333333337</v>
+        <v>-3214246.124341981</v>
       </c>
       <c r="H58" t="n">
-        <v>4.610000000000004</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="C59" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D59" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="E59" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F59" t="n">
-        <v>408947.1966</v>
+        <v>250000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.568000000000003</v>
+        <v>-2964246.124341981</v>
       </c>
       <c r="H59" t="n">
-        <v>4.610333333333338</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="C60" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="D60" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="E60" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="F60" t="n">
-        <v>260403.7329</v>
+        <v>328044.2178</v>
       </c>
       <c r="G60" t="n">
-        <v>4.564000000000004</v>
+        <v>-2636201.906541982</v>
       </c>
       <c r="H60" t="n">
-        <v>4.610333333333338</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="C61" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="D61" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="E61" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="F61" t="n">
-        <v>96995.1744</v>
+        <v>175653.084</v>
       </c>
       <c r="G61" t="n">
-        <v>4.554000000000003</v>
+        <v>-2460548.822541982</v>
       </c>
       <c r="H61" t="n">
-        <v>4.609000000000004</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.56</v>
+        <v>4.7</v>
       </c>
       <c r="C62" t="n">
-        <v>4.59</v>
+        <v>4.63</v>
       </c>
       <c r="D62" t="n">
-        <v>4.59</v>
+        <v>4.7</v>
       </c>
       <c r="E62" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="F62" t="n">
-        <v>810010</v>
+        <v>347634.5673</v>
       </c>
       <c r="G62" t="n">
-        <v>4.553333333333337</v>
+        <v>-2460548.822541982</v>
       </c>
       <c r="H62" t="n">
-        <v>4.609500000000003</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.59</v>
+        <v>4.71</v>
       </c>
       <c r="C63" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D63" t="n">
-        <v>4.6</v>
+        <v>4.71</v>
       </c>
       <c r="E63" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="F63" t="n">
-        <v>168211.186</v>
+        <v>341131.9189</v>
       </c>
       <c r="G63" t="n">
-        <v>4.553333333333337</v>
+        <v>-2119416.903641982</v>
       </c>
       <c r="H63" t="n">
-        <v>4.609833333333338</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="C64" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D64" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="E64" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="F64" t="n">
-        <v>31505.6277</v>
+        <v>277635.7978</v>
       </c>
       <c r="G64" t="n">
-        <v>4.560666666666671</v>
+        <v>-2119416.903641982</v>
       </c>
       <c r="H64" t="n">
-        <v>4.611166666666671</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C65" t="n">
         <v>4.62</v>
       </c>
       <c r="D65" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="E65" t="n">
         <v>4.62</v>
       </c>
       <c r="F65" t="n">
-        <v>96458</v>
+        <v>160000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.55866666666667</v>
+        <v>-2279416.903641982</v>
       </c>
       <c r="H65" t="n">
-        <v>4.610833333333337</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,33 +2676,30 @@
         <v>4.62</v>
       </c>
       <c r="C66" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="n">
         <v>4.62</v>
       </c>
       <c r="E66" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F66" t="n">
-        <v>9297.8441</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G66" t="n">
-        <v>4.557333333333337</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H66" t="n">
-        <v>4.609666666666671</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="C67" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D67" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="E67" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F67" t="n">
-        <v>20162.5677</v>
+        <v>169523.4968</v>
       </c>
       <c r="G67" t="n">
-        <v>4.55866666666667</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H67" t="n">
-        <v>4.606666666666671</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.54</v>
+        <v>4.61</v>
       </c>
       <c r="C68" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="E68" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F68" t="n">
-        <v>910278.3734</v>
+        <v>131395.0867</v>
       </c>
       <c r="G68" t="n">
-        <v>4.55666666666667</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H68" t="n">
-        <v>4.603333333333338</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,33 +2781,30 @@
         <v>4.6</v>
       </c>
       <c r="C69" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D69" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E69" t="n">
         <v>4.6</v>
       </c>
       <c r="F69" t="n">
-        <v>85743.1868</v>
+        <v>187047.1216</v>
       </c>
       <c r="G69" t="n">
-        <v>4.563333333333336</v>
+        <v>-3517004.454641982</v>
       </c>
       <c r="H69" t="n">
-        <v>4.603666666666672</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C70" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="D70" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="E70" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="F70" t="n">
-        <v>74889.37089999999</v>
+        <v>323444.1924</v>
       </c>
       <c r="G70" t="n">
-        <v>4.569333333333336</v>
+        <v>-3517004.454641982</v>
       </c>
       <c r="H70" t="n">
-        <v>4.602833333333338</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C71" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D71" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="E71" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="F71" t="n">
-        <v>387000</v>
+        <v>279631.2988</v>
       </c>
       <c r="G71" t="n">
-        <v>4.576000000000004</v>
+        <v>-3237373.155841982</v>
       </c>
       <c r="H71" t="n">
-        <v>4.603333333333338</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="C72" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D72" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="E72" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F72" t="n">
-        <v>261747.6657</v>
+        <v>19689.3105</v>
       </c>
       <c r="G72" t="n">
-        <v>4.575333333333337</v>
+        <v>-3257062.466341982</v>
       </c>
       <c r="H72" t="n">
-        <v>4.604333333333338</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C73" t="n">
-        <v>4.68</v>
+        <v>4.65</v>
       </c>
       <c r="D73" t="n">
-        <v>4.68</v>
+        <v>4.65</v>
       </c>
       <c r="E73" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F73" t="n">
-        <v>351693.2559</v>
+        <v>183612.7364</v>
       </c>
       <c r="G73" t="n">
-        <v>4.581333333333337</v>
+        <v>-3073449.729941982</v>
       </c>
       <c r="H73" t="n">
-        <v>4.606333333333338</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="C74" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="D74" t="n">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="E74" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="F74" t="n">
-        <v>905165.6731</v>
+        <v>67215.3492</v>
       </c>
       <c r="G74" t="n">
-        <v>4.588000000000004</v>
+        <v>-3140665.079141982</v>
       </c>
       <c r="H74" t="n">
-        <v>4.606833333333339</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C75" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D75" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E75" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="F75" t="n">
-        <v>192315.478</v>
+        <v>102599.5214</v>
       </c>
       <c r="G75" t="n">
-        <v>4.59066666666667</v>
+        <v>-3140665.079141982</v>
       </c>
       <c r="H75" t="n">
-        <v>4.606833333333339</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="C76" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D76" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E76" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F76" t="n">
-        <v>257572.7195</v>
+        <v>137681.2608</v>
       </c>
       <c r="G76" t="n">
-        <v>4.599333333333337</v>
+        <v>-3278346.339941982</v>
       </c>
       <c r="H76" t="n">
-        <v>4.607500000000005</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="C77" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D77" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E77" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F77" t="n">
-        <v>250197.4084</v>
+        <v>85149.2148</v>
       </c>
       <c r="G77" t="n">
-        <v>4.598666666666671</v>
+        <v>-3278346.339941982</v>
       </c>
       <c r="H77" t="n">
-        <v>4.607333333333339</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="C78" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="D78" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="E78" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="F78" t="n">
-        <v>110</v>
+        <v>493142.2461</v>
       </c>
       <c r="G78" t="n">
-        <v>4.601333333333338</v>
+        <v>-3771488.586041982</v>
       </c>
       <c r="H78" t="n">
-        <v>4.607166666666672</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C79" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D79" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E79" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="F79" t="n">
-        <v>1050651.5086</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>4.600000000000004</v>
+        <v>-3771388.586041982</v>
       </c>
       <c r="H79" t="n">
-        <v>4.606166666666672</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C80" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D80" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E80" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="F80" t="n">
-        <v>139133.5951</v>
+        <v>107758.6206</v>
       </c>
       <c r="G80" t="n">
-        <v>4.600000000000004</v>
+        <v>-3879147.206641982</v>
       </c>
       <c r="H80" t="n">
-        <v>4.605666666666673</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.69</v>
+        <v>4.54</v>
       </c>
       <c r="C81" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="D81" t="n">
-        <v>4.69</v>
+        <v>4.54</v>
       </c>
       <c r="E81" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="F81" t="n">
-        <v>868143.6902</v>
+        <v>179339.616</v>
       </c>
       <c r="G81" t="n">
-        <v>4.598000000000003</v>
+        <v>-4058486.822641982</v>
       </c>
       <c r="H81" t="n">
-        <v>4.604666666666673</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="C82" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="D82" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="E82" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="F82" t="n">
-        <v>46979.0248</v>
+        <v>902338.1677</v>
       </c>
       <c r="G82" t="n">
-        <v>4.600000000000004</v>
+        <v>-4960824.990341982</v>
       </c>
       <c r="H82" t="n">
-        <v>4.603666666666673</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="C83" t="n">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="D83" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="E83" t="n">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="F83" t="n">
-        <v>890485.2751</v>
+        <v>84900</v>
       </c>
       <c r="G83" t="n">
-        <v>4.605333333333337</v>
+        <v>-5045724.990341982</v>
       </c>
       <c r="H83" t="n">
-        <v>4.603166666666672</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C84" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="D84" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="E84" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="F84" t="n">
-        <v>50952.0807</v>
+        <v>775487.0324</v>
       </c>
       <c r="G84" t="n">
-        <v>4.604000000000004</v>
+        <v>-5045724.990341982</v>
       </c>
       <c r="H84" t="n">
-        <v>4.601333333333339</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C85" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="D85" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E85" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>340299.6269</v>
       </c>
       <c r="G85" t="n">
-        <v>4.607333333333337</v>
+        <v>-5386024.617241981</v>
       </c>
       <c r="H85" t="n">
-        <v>4.601333333333339</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="C86" t="n">
         <v>4.59</v>
       </c>
       <c r="D86" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E86" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="F86" t="n">
-        <v>263620.571</v>
+        <v>455144.9756</v>
       </c>
       <c r="G86" t="n">
-        <v>4.607333333333337</v>
+        <v>-4930879.641641982</v>
       </c>
       <c r="H86" t="n">
-        <v>4.599666666666672</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="C87" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="D87" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="E87" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>11226.3834</v>
       </c>
       <c r="G87" t="n">
-        <v>4.613333333333338</v>
+        <v>-4930879.641641982</v>
       </c>
       <c r="H87" t="n">
-        <v>4.598166666666672</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.68</v>
+        <v>4.53</v>
       </c>
       <c r="C88" t="n">
-        <v>4.68</v>
+        <v>4.51</v>
       </c>
       <c r="D88" t="n">
-        <v>4.68</v>
+        <v>4.53</v>
       </c>
       <c r="E88" t="n">
-        <v>4.68</v>
+        <v>4.51</v>
       </c>
       <c r="F88" t="n">
-        <v>99</v>
+        <v>408947.1966</v>
       </c>
       <c r="G88" t="n">
-        <v>4.613333333333336</v>
+        <v>-5339826.838241982</v>
       </c>
       <c r="H88" t="n">
-        <v>4.597500000000005</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.61</v>
+        <v>4.49</v>
       </c>
       <c r="C89" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="D89" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="E89" t="n">
-        <v>4.61</v>
+        <v>4.48</v>
       </c>
       <c r="F89" t="n">
-        <v>1229.727</v>
+        <v>260403.7329</v>
       </c>
       <c r="G89" t="n">
-        <v>4.613333333333336</v>
+        <v>-5079423.105341982</v>
       </c>
       <c r="H89" t="n">
-        <v>4.598000000000005</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.61</v>
+        <v>4.49</v>
       </c>
       <c r="C90" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D90" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="E90" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F90" t="n">
-        <v>310373.1333</v>
+        <v>96995.1744</v>
       </c>
       <c r="G90" t="n">
-        <v>4.612000000000003</v>
+        <v>-5176418.279741982</v>
       </c>
       <c r="H90" t="n">
-        <v>4.598166666666673</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="C91" t="n">
         <v>4.59</v>
       </c>
       <c r="D91" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E91" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F91" t="n">
-        <v>320394.033</v>
+        <v>810010</v>
       </c>
       <c r="G91" t="n">
-        <v>4.610000000000002</v>
+        <v>-4366408.279741982</v>
       </c>
       <c r="H91" t="n">
-        <v>4.597833333333339</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="C92" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="D92" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="E92" t="n">
         <v>4.59</v>
       </c>
       <c r="F92" t="n">
-        <v>392420.6399</v>
+        <v>168211.186</v>
       </c>
       <c r="G92" t="n">
-        <v>4.612000000000003</v>
+        <v>-4198197.093741982</v>
       </c>
       <c r="H92" t="n">
-        <v>4.597500000000006</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="C93" t="n">
         <v>4.62</v>
       </c>
       <c r="D93" t="n">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="E93" t="n">
         <v>4.62</v>
       </c>
       <c r="F93" t="n">
-        <v>198118.6147</v>
+        <v>31505.6277</v>
       </c>
       <c r="G93" t="n">
-        <v>4.61066666666667</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H93" t="n">
-        <v>4.597333333333339</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3937,33 +3656,30 @@
         <v>4.62</v>
       </c>
       <c r="C94" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D94" t="n">
         <v>4.62</v>
       </c>
       <c r="E94" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="F94" t="n">
-        <v>513021.6013</v>
+        <v>96458</v>
       </c>
       <c r="G94" t="n">
-        <v>4.610000000000003</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H94" t="n">
-        <v>4.596500000000006</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="C95" t="n">
-        <v>4.66</v>
+        <v>4.62</v>
       </c>
       <c r="D95" t="n">
-        <v>4.66</v>
+        <v>4.62</v>
       </c>
       <c r="E95" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="F95" t="n">
-        <v>153502.9847</v>
+        <v>9297.8441</v>
       </c>
       <c r="G95" t="n">
-        <v>4.612666666666669</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H95" t="n">
-        <v>4.59683333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.66</v>
+        <v>4.56</v>
       </c>
       <c r="C96" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="D96" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="E96" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F96" t="n">
-        <v>171659.4766</v>
+        <v>20162.5677</v>
       </c>
       <c r="G96" t="n">
-        <v>4.618000000000003</v>
+        <v>-4186854.033741982</v>
       </c>
       <c r="H96" t="n">
-        <v>4.597666666666673</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="C97" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="D97" t="n">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="E97" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F97" t="n">
-        <v>1530918.8352</v>
+        <v>910278.3734</v>
       </c>
       <c r="G97" t="n">
-        <v>4.622666666666669</v>
+        <v>-5097132.407141983</v>
       </c>
       <c r="H97" t="n">
-        <v>4.598666666666674</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.66</v>
+        <v>4.6</v>
       </c>
       <c r="C98" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="n">
-        <v>4.79</v>
+        <v>4.6</v>
       </c>
       <c r="E98" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2073312.46600876</v>
+        <v>85743.1868</v>
       </c>
       <c r="G98" t="n">
-        <v>4.622000000000003</v>
+        <v>-5011389.220341982</v>
       </c>
       <c r="H98" t="n">
-        <v>4.598000000000007</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.77</v>
+        <v>4.59</v>
       </c>
       <c r="C99" t="n">
-        <v>4.71</v>
+        <v>4.59</v>
       </c>
       <c r="D99" t="n">
-        <v>4.77</v>
+        <v>4.59</v>
       </c>
       <c r="E99" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="F99" t="n">
-        <v>566490.2601</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G99" t="n">
-        <v>4.630666666666669</v>
+        <v>-5086278.591241983</v>
       </c>
       <c r="H99" t="n">
-        <v>4.599833333333339</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="C100" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="D100" t="n">
-        <v>4.69</v>
+        <v>4.59</v>
       </c>
       <c r="E100" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F100" t="n">
-        <v>102504.9494</v>
+        <v>387000</v>
       </c>
       <c r="G100" t="n">
-        <v>4.629333333333336</v>
+        <v>-5086278.591241983</v>
       </c>
       <c r="H100" t="n">
-        <v>4.599500000000006</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C101" t="n">
-        <v>4.69</v>
+        <v>4.58</v>
       </c>
       <c r="D101" t="n">
-        <v>4.69</v>
+        <v>4.58</v>
       </c>
       <c r="E101" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="F101" t="n">
-        <v>78898.2552</v>
+        <v>261747.6657</v>
       </c>
       <c r="G101" t="n">
-        <v>4.636000000000002</v>
+        <v>-5348026.256941983</v>
       </c>
       <c r="H101" t="n">
-        <v>4.60033333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C102" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="D102" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="E102" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="F102" t="n">
-        <v>698624.2373</v>
+        <v>351693.2559</v>
       </c>
       <c r="G102" t="n">
-        <v>4.637333333333335</v>
+        <v>-4996333.001041982</v>
       </c>
       <c r="H102" t="n">
-        <v>4.601000000000007</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="C103" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="D103" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="E103" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="F103" t="n">
-        <v>311512.138</v>
+        <v>905165.6731</v>
       </c>
       <c r="G103" t="n">
-        <v>4.634000000000001</v>
+        <v>-5901498.674141983</v>
       </c>
       <c r="H103" t="n">
-        <v>4.601500000000006</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="C104" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D104" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E104" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F104" t="n">
-        <v>47643.6589</v>
+        <v>192315.478</v>
       </c>
       <c r="G104" t="n">
-        <v>4.633333333333335</v>
+        <v>-5709183.196141982</v>
       </c>
       <c r="H104" t="n">
-        <v>4.600666666666673</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="C105" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="D105" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E105" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="F105" t="n">
-        <v>13</v>
+        <v>257572.7195</v>
       </c>
       <c r="G105" t="n">
-        <v>4.639333333333335</v>
+        <v>-5709183.196141982</v>
       </c>
       <c r="H105" t="n">
-        <v>4.601500000000007</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C106" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D106" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E106" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F106" t="n">
-        <v>148567.9265</v>
+        <v>250197.4084</v>
       </c>
       <c r="G106" t="n">
-        <v>4.642</v>
+        <v>-5959380.604541983</v>
       </c>
       <c r="H106" t="n">
-        <v>4.601333333333341</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C107" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="D107" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="E107" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="F107" t="n">
-        <v>516318.2797</v>
+        <v>110</v>
       </c>
       <c r="G107" t="n">
-        <v>4.642</v>
+        <v>-5959270.604541983</v>
       </c>
       <c r="H107" t="n">
-        <v>4.601500000000007</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C108" t="n">
         <v>4.6</v>
       </c>
       <c r="D108" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E108" t="n">
         <v>4.6</v>
       </c>
       <c r="F108" t="n">
-        <v>307283.8301</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G108" t="n">
-        <v>4.640666666666666</v>
+        <v>-7009922.113141983</v>
       </c>
       <c r="H108" t="n">
-        <v>4.601500000000007</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C109" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D109" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E109" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F109" t="n">
-        <v>46927.8951</v>
+        <v>139133.5951</v>
       </c>
       <c r="G109" t="n">
-        <v>4.641333333333333</v>
+        <v>-6870788.518041983</v>
       </c>
       <c r="H109" t="n">
-        <v>4.603000000000008</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="C110" t="n">
-        <v>4.68</v>
+        <v>4.59</v>
       </c>
       <c r="D110" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="E110" t="n">
-        <v>4.68</v>
+        <v>4.59</v>
       </c>
       <c r="F110" t="n">
-        <v>12</v>
+        <v>868143.6902</v>
       </c>
       <c r="G110" t="n">
-        <v>4.642666666666666</v>
+        <v>-7738932.208241983</v>
       </c>
       <c r="H110" t="n">
-        <v>4.603500000000008</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="C111" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D111" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E111" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>46979.0248</v>
       </c>
       <c r="G111" t="n">
-        <v>4.641333333333333</v>
+        <v>-7738932.208241983</v>
       </c>
       <c r="H111" t="n">
-        <v>4.603666666666674</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D112" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F112" t="n">
-        <v>69265.1439</v>
+        <v>890485.2751</v>
       </c>
       <c r="G112" t="n">
-        <v>4.636666666666667</v>
+        <v>-8629417.483341983</v>
       </c>
       <c r="H112" t="n">
-        <v>4.604500000000007</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C113" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="D113" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E113" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F113" t="n">
-        <v>720000.8847000001</v>
+        <v>50952.0807</v>
       </c>
       <c r="G113" t="n">
-        <v>4.635999999999999</v>
+        <v>-8578465.402641982</v>
       </c>
       <c r="H113" t="n">
-        <v>4.605000000000008</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,33 +4356,30 @@
         <v>4.64</v>
       </c>
       <c r="C114" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="D114" t="n">
         <v>4.64</v>
       </c>
       <c r="E114" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>4.629333333333333</v>
+        <v>-8578455.402641982</v>
       </c>
       <c r="H114" t="n">
-        <v>4.606833333333341</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="C115" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="D115" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="E115" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F115" t="n">
-        <v>257748.5422</v>
+        <v>263620.571</v>
       </c>
       <c r="G115" t="n">
-        <v>4.624666666666666</v>
+        <v>-8842075.973641982</v>
       </c>
       <c r="H115" t="n">
-        <v>4.607666666666675</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="C116" t="n">
-        <v>4.61</v>
+        <v>4.67</v>
       </c>
       <c r="D116" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="E116" t="n">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="F116" t="n">
-        <v>15102</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>4.619333333333333</v>
+        <v>-8842065.973641982</v>
       </c>
       <c r="H116" t="n">
-        <v>4.609666666666675</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.59</v>
+        <v>4.68</v>
       </c>
       <c r="C117" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="D117" t="n">
-        <v>4.59</v>
+        <v>4.68</v>
       </c>
       <c r="E117" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="F117" t="n">
-        <v>242413.5138</v>
+        <v>99</v>
       </c>
       <c r="G117" t="n">
-        <v>4.605999999999999</v>
+        <v>-8841966.973641982</v>
       </c>
       <c r="H117" t="n">
-        <v>4.608000000000009</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="C118" t="n">
-        <v>4.46</v>
+        <v>4.61</v>
       </c>
       <c r="D118" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="E118" t="n">
-        <v>4.46</v>
+        <v>4.61</v>
       </c>
       <c r="F118" t="n">
-        <v>273417.1912</v>
+        <v>1229.727</v>
       </c>
       <c r="G118" t="n">
-        <v>4.594666666666666</v>
+        <v>-8843196.700641982</v>
       </c>
       <c r="H118" t="n">
-        <v>4.605833333333342</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="C119" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D119" t="n">
-        <v>4.49</v>
+        <v>4.66</v>
       </c>
       <c r="E119" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F119" t="n">
-        <v>31473.4845</v>
+        <v>310373.1333</v>
       </c>
       <c r="G119" t="n">
-        <v>4.587333333333333</v>
+        <v>-9153569.833941983</v>
       </c>
       <c r="H119" t="n">
-        <v>4.605500000000009</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="C120" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D120" t="n">
         <v>4.6</v>
       </c>
       <c r="E120" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="F120" t="n">
-        <v>5038.5738</v>
+        <v>320394.033</v>
       </c>
       <c r="G120" t="n">
-        <v>4.581333333333332</v>
+        <v>-9473963.866941983</v>
       </c>
       <c r="H120" t="n">
-        <v>4.605833333333343</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="C121" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="D121" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="E121" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="F121" t="n">
-        <v>450089.1954</v>
+        <v>392420.6399</v>
       </c>
       <c r="G121" t="n">
-        <v>4.571999999999999</v>
+        <v>-9081543.227041982</v>
       </c>
       <c r="H121" t="n">
-        <v>4.605833333333343</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.49</v>
+        <v>4.67</v>
       </c>
       <c r="C122" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="D122" t="n">
-        <v>4.49</v>
+        <v>4.67</v>
       </c>
       <c r="E122" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="F122" t="n">
-        <v>8502.590099999999</v>
+        <v>198118.6147</v>
       </c>
       <c r="G122" t="n">
-        <v>4.563999999999998</v>
+        <v>-8883424.612341981</v>
       </c>
       <c r="H122" t="n">
-        <v>4.604166666666677</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.55</v>
+        <v>4.62</v>
       </c>
       <c r="C123" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="D123" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E123" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F123" t="n">
-        <v>596809.9054</v>
+        <v>513021.6013</v>
       </c>
       <c r="G123" t="n">
-        <v>4.560666666666665</v>
+        <v>-9396446.213641981</v>
       </c>
       <c r="H123" t="n">
-        <v>4.603333333333343</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="C124" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="D124" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="E124" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F124" t="n">
-        <v>17558.6492</v>
+        <v>153502.9847</v>
       </c>
       <c r="G124" t="n">
-        <v>4.557333333333332</v>
+        <v>-9242943.228941981</v>
       </c>
       <c r="H124" t="n">
-        <v>4.602166666666677</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="C125" t="n">
-        <v>4.55</v>
+        <v>4.67</v>
       </c>
       <c r="D125" t="n">
-        <v>4.55</v>
+        <v>4.67</v>
       </c>
       <c r="E125" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F125" t="n">
-        <v>25342.7292</v>
+        <v>171659.4766</v>
       </c>
       <c r="G125" t="n">
-        <v>4.548666666666666</v>
+        <v>-9071283.75234198</v>
       </c>
       <c r="H125" t="n">
-        <v>4.601000000000011</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="C126" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55</v>
+        <v>4.67</v>
       </c>
       <c r="E126" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="F126" t="n">
-        <v>216000.4204</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G126" t="n">
-        <v>4.541999999999999</v>
+        <v>-10602202.58754198</v>
       </c>
       <c r="H126" t="n">
-        <v>4.599833333333344</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="C127" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D127" t="n">
-        <v>4.55</v>
+        <v>4.79</v>
       </c>
       <c r="E127" t="n">
         <v>4.55</v>
       </c>
       <c r="F127" t="n">
-        <v>20300.6894</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G127" t="n">
-        <v>4.539333333333332</v>
+        <v>-12675515.05355074</v>
       </c>
       <c r="H127" t="n">
-        <v>4.599666666666677</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.54</v>
+        <v>4.77</v>
       </c>
       <c r="C128" t="n">
-        <v>4.54</v>
+        <v>4.71</v>
       </c>
       <c r="D128" t="n">
-        <v>4.54</v>
+        <v>4.77</v>
       </c>
       <c r="E128" t="n">
-        <v>4.54</v>
+        <v>4.61</v>
       </c>
       <c r="F128" t="n">
-        <v>29855.7268</v>
+        <v>566490.2601</v>
       </c>
       <c r="G128" t="n">
-        <v>4.538666666666666</v>
+        <v>-12109024.79345074</v>
       </c>
       <c r="H128" t="n">
-        <v>4.600500000000011</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.54</v>
+        <v>4.61</v>
       </c>
       <c r="C129" t="n">
-        <v>4.55</v>
+        <v>4.62</v>
       </c>
       <c r="D129" t="n">
-        <v>4.55</v>
+        <v>4.69</v>
       </c>
       <c r="E129" t="n">
-        <v>4.54</v>
+        <v>4.61</v>
       </c>
       <c r="F129" t="n">
-        <v>1289193.1886</v>
+        <v>102504.9494</v>
       </c>
       <c r="G129" t="n">
-        <v>4.534666666666666</v>
+        <v>-12211529.74285074</v>
       </c>
       <c r="H129" t="n">
-        <v>4.599666666666677</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.55</v>
+        <v>4.63</v>
       </c>
       <c r="C130" t="n">
-        <v>4.55</v>
+        <v>4.69</v>
       </c>
       <c r="D130" t="n">
-        <v>4.55</v>
+        <v>4.69</v>
       </c>
       <c r="E130" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="F130" t="n">
-        <v>70619.02340000001</v>
+        <v>78898.2552</v>
       </c>
       <c r="G130" t="n">
-        <v>4.534666666666666</v>
+        <v>-12132631.48765074</v>
       </c>
       <c r="H130" t="n">
-        <v>4.599000000000012</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="C131" t="n">
-        <v>4.43</v>
+        <v>4.69</v>
       </c>
       <c r="D131" t="n">
-        <v>4.47</v>
+        <v>4.69</v>
       </c>
       <c r="E131" t="n">
-        <v>4.43</v>
+        <v>4.63</v>
       </c>
       <c r="F131" t="n">
-        <v>464094.8782</v>
+        <v>698624.2373</v>
       </c>
       <c r="G131" t="n">
-        <v>4.522666666666666</v>
+        <v>-12132631.48765074</v>
       </c>
       <c r="H131" t="n">
-        <v>4.596333333333345</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.46</v>
+        <v>4.64</v>
       </c>
       <c r="C132" t="n">
-        <v>4.46</v>
+        <v>4.63</v>
       </c>
       <c r="D132" t="n">
-        <v>4.46</v>
+        <v>4.69</v>
       </c>
       <c r="E132" t="n">
-        <v>4.46</v>
+        <v>4.63</v>
       </c>
       <c r="F132" t="n">
-        <v>58932.6431</v>
+        <v>311512.138</v>
       </c>
       <c r="G132" t="n">
-        <v>4.520666666666666</v>
+        <v>-12444143.62565074</v>
       </c>
       <c r="H132" t="n">
-        <v>4.594333333333345</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.53</v>
+        <v>4.68</v>
       </c>
       <c r="C133" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="D133" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E133" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="F133" t="n">
-        <v>6108.3885</v>
+        <v>47643.6589</v>
       </c>
       <c r="G133" t="n">
-        <v>4.525333333333333</v>
+        <v>-12491787.28455074</v>
       </c>
       <c r="H133" t="n">
-        <v>4.591833333333344</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.43</v>
+        <v>4.69</v>
       </c>
       <c r="C134" t="n">
-        <v>4.42</v>
+        <v>4.69</v>
       </c>
       <c r="D134" t="n">
-        <v>4.43</v>
+        <v>4.69</v>
       </c>
       <c r="E134" t="n">
-        <v>4.42</v>
+        <v>4.69</v>
       </c>
       <c r="F134" t="n">
-        <v>257974.1378</v>
+        <v>13</v>
       </c>
       <c r="G134" t="n">
-        <v>4.520666666666667</v>
+        <v>-12491774.28455074</v>
       </c>
       <c r="H134" t="n">
-        <v>4.588666666666678</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="C135" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="D135" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="E135" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>148567.9265</v>
       </c>
       <c r="G135" t="n">
-        <v>4.512</v>
+        <v>-12640342.21105074</v>
       </c>
       <c r="H135" t="n">
-        <v>4.586166666666679</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
       <c r="C136" t="n">
-        <v>4.48</v>
+        <v>4.61</v>
       </c>
       <c r="D136" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="E136" t="n">
-        <v>4.47</v>
+        <v>4.61</v>
       </c>
       <c r="F136" t="n">
-        <v>481928.357</v>
+        <v>516318.2797</v>
       </c>
       <c r="G136" t="n">
-        <v>4.511333333333335</v>
+        <v>-13156660.49075074</v>
       </c>
       <c r="H136" t="n">
-        <v>4.583833333333345</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="C137" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D137" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="E137" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F137" t="n">
-        <v>15112</v>
+        <v>307283.8301</v>
       </c>
       <c r="G137" t="n">
-        <v>4.512000000000001</v>
+        <v>-13463944.32085074</v>
       </c>
       <c r="H137" t="n">
-        <v>4.582500000000012</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="C138" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D138" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="E138" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="F138" t="n">
-        <v>492187.777</v>
+        <v>46927.8951</v>
       </c>
       <c r="G138" t="n">
-        <v>4.512666666666669</v>
+        <v>-13463944.32085074</v>
       </c>
       <c r="H138" t="n">
-        <v>4.581166666666679</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="C139" t="n">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="D139" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="E139" t="n">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="F139" t="n">
-        <v>492158.0842</v>
+        <v>12</v>
       </c>
       <c r="G139" t="n">
-        <v>4.504000000000002</v>
+        <v>-13463932.32085074</v>
       </c>
       <c r="H139" t="n">
-        <v>4.578166666666679</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.53</v>
+        <v>4.65</v>
       </c>
       <c r="C140" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="D140" t="n">
-        <v>4.53</v>
+        <v>4.65</v>
       </c>
       <c r="E140" t="n">
-        <v>4.48</v>
+        <v>4.65</v>
       </c>
       <c r="F140" t="n">
-        <v>216872.8691</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>4.500000000000002</v>
+        <v>-13463942.32085074</v>
       </c>
       <c r="H140" t="n">
-        <v>4.576000000000012</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="C141" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="D141" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="E141" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="F141" t="n">
-        <v>268051.4885</v>
+        <v>69265.1439</v>
       </c>
       <c r="G141" t="n">
-        <v>4.492000000000003</v>
+        <v>-13533207.46475074</v>
       </c>
       <c r="H141" t="n">
-        <v>4.573333333333347</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,36 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="C142" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="D142" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="E142" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="F142" t="n">
-        <v>994676.0965</v>
+        <v>720000.8847000001</v>
       </c>
       <c r="G142" t="n">
-        <v>4.486666666666669</v>
+        <v>-14253208.34945074</v>
       </c>
       <c r="H142" t="n">
-        <v>4.571333333333347</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,36 +5368,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.41</v>
+        <v>4.64</v>
       </c>
       <c r="C143" t="n">
-        <v>4.47</v>
+        <v>4.61</v>
       </c>
       <c r="D143" t="n">
-        <v>4.47</v>
+        <v>4.64</v>
       </c>
       <c r="E143" t="n">
-        <v>4.4</v>
+        <v>4.61</v>
       </c>
       <c r="F143" t="n">
-        <v>1157557.5942</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>4.482000000000002</v>
+        <v>-14253188.34945074</v>
       </c>
       <c r="H143" t="n">
-        <v>4.569666666666681</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,36 +5403,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="C144" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="D144" t="n">
-        <v>4.47</v>
+        <v>4.61</v>
       </c>
       <c r="E144" t="n">
-        <v>4.41</v>
+        <v>4.55</v>
       </c>
       <c r="F144" t="n">
-        <v>6103.1176</v>
+        <v>257748.5422</v>
       </c>
       <c r="G144" t="n">
-        <v>4.476666666666669</v>
+        <v>-14510936.89165074</v>
       </c>
       <c r="H144" t="n">
-        <v>4.567833333333349</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,36 +5438,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.42</v>
+        <v>4.62</v>
       </c>
       <c r="C145" t="n">
-        <v>4.42</v>
+        <v>4.61</v>
       </c>
       <c r="D145" t="n">
-        <v>4.42</v>
+        <v>4.62</v>
       </c>
       <c r="E145" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="F145" t="n">
-        <v>154673.5313</v>
+        <v>15102</v>
       </c>
       <c r="G145" t="n">
-        <v>4.468000000000003</v>
+        <v>-14495834.89165074</v>
       </c>
       <c r="H145" t="n">
-        <v>4.564166666666682</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,36 +5473,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="C146" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="D146" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="E146" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>242413.5138</v>
       </c>
       <c r="G146" t="n">
-        <v>4.470666666666669</v>
+        <v>-14738248.40545074</v>
       </c>
       <c r="H146" t="n">
-        <v>4.562166666666683</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,36 +5508,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="C147" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="D147" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="E147" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="F147" t="n">
-        <v>55380</v>
+        <v>273417.1912</v>
       </c>
       <c r="G147" t="n">
-        <v>4.471333333333336</v>
+        <v>-15011665.59665074</v>
       </c>
       <c r="H147" t="n">
-        <v>4.55883333333335</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,36 +5543,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="C148" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="D148" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="E148" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F148" t="n">
-        <v>60546.8045</v>
+        <v>31473.4845</v>
       </c>
       <c r="G148" t="n">
-        <v>4.467333333333335</v>
+        <v>-14980192.11215074</v>
       </c>
       <c r="H148" t="n">
-        <v>4.55533333333335</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,36 +5578,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="C149" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="D149" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="E149" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="F149" t="n">
-        <v>315919.5261</v>
+        <v>5038.5738</v>
       </c>
       <c r="G149" t="n">
-        <v>4.470666666666669</v>
+        <v>-14975153.53835074</v>
       </c>
       <c r="H149" t="n">
-        <v>4.553000000000017</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,36 +5613,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.45</v>
+        <v>4.49</v>
       </c>
       <c r="C150" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="D150" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="E150" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="F150" t="n">
-        <v>208512.3932</v>
+        <v>450089.1954</v>
       </c>
       <c r="G150" t="n">
-        <v>4.470666666666669</v>
+        <v>-15425242.73375074</v>
       </c>
       <c r="H150" t="n">
-        <v>4.55083333333335</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,36 +5648,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="C151" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D151" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="E151" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F151" t="n">
-        <v>291688.1849</v>
+        <v>8502.590099999999</v>
       </c>
       <c r="G151" t="n">
-        <v>4.477333333333335</v>
+        <v>-15425242.73375074</v>
       </c>
       <c r="H151" t="n">
-        <v>4.550666666666684</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +5683,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="C152" t="n">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="D152" t="n">
-        <v>4.46</v>
+        <v>4.6</v>
       </c>
       <c r="E152" t="n">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="F152" t="n">
-        <v>10320.0668</v>
+        <v>596809.9054</v>
       </c>
       <c r="G152" t="n">
-        <v>4.474666666666668</v>
+        <v>-14828432.82835074</v>
       </c>
       <c r="H152" t="n">
-        <v>4.548166666666684</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,36 +5718,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C153" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D153" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E153" t="n">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="F153" t="n">
-        <v>90020</v>
+        <v>17558.6492</v>
       </c>
       <c r="G153" t="n">
-        <v>4.474666666666668</v>
+        <v>-14828432.82835074</v>
       </c>
       <c r="H153" t="n">
-        <v>4.547166666666683</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,36 +5753,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="C154" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="D154" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E154" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="F154" t="n">
-        <v>80010</v>
+        <v>25342.7292</v>
       </c>
       <c r="G154" t="n">
-        <v>4.482000000000001</v>
+        <v>-14828432.82835074</v>
       </c>
       <c r="H154" t="n">
-        <v>4.546166666666683</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,36 +5788,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="C155" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D155" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E155" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="F155" t="n">
-        <v>100020</v>
+        <v>216000.4204</v>
       </c>
       <c r="G155" t="n">
-        <v>4.485333333333335</v>
+        <v>-14828432.82835074</v>
       </c>
       <c r="H155" t="n">
-        <v>4.544166666666683</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,36 +5823,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="C156" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="D156" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E156" t="n">
-        <v>4.44</v>
+        <v>4.55</v>
       </c>
       <c r="F156" t="n">
-        <v>86435.61259999999</v>
+        <v>20300.6894</v>
       </c>
       <c r="G156" t="n">
-        <v>4.491333333333335</v>
+        <v>-14828432.82835074</v>
       </c>
       <c r="H156" t="n">
-        <v>4.541666666666683</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,36 +5858,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="C157" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="D157" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="E157" t="n">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="F157" t="n">
-        <v>100010</v>
+        <v>29855.7268</v>
       </c>
       <c r="G157" t="n">
-        <v>4.495333333333336</v>
+        <v>-14858288.55515074</v>
       </c>
       <c r="H157" t="n">
-        <v>4.539500000000015</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,36 +5893,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="C158" t="n">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="D158" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E158" t="n">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="F158" t="n">
-        <v>268828.4271</v>
+        <v>1289193.1886</v>
       </c>
       <c r="G158" t="n">
-        <v>4.498000000000003</v>
+        <v>-13569095.36655074</v>
       </c>
       <c r="H158" t="n">
-        <v>4.538666666666682</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,36 +5928,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="D159" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="E159" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="F159" t="n">
-        <v>125722</v>
+        <v>70619.02340000001</v>
       </c>
       <c r="G159" t="n">
-        <v>4.500000000000003</v>
+        <v>-13569095.36655074</v>
       </c>
       <c r="H159" t="n">
-        <v>4.535166666666682</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,36 +5963,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="C160" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="D160" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="E160" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="F160" t="n">
-        <v>60870</v>
+        <v>464094.8782</v>
       </c>
       <c r="G160" t="n">
-        <v>4.505333333333336</v>
+        <v>-14033190.24475074</v>
       </c>
       <c r="H160" t="n">
-        <v>4.533166666666682</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,36 +6004,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="C161" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="D161" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="E161" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="F161" t="n">
-        <v>10</v>
+        <v>58932.6431</v>
       </c>
       <c r="G161" t="n">
-        <v>4.509333333333336</v>
+        <v>-13974257.60165074</v>
       </c>
       <c r="H161" t="n">
-        <v>4.530500000000015</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,36 +6045,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F162" t="n">
-        <v>14651</v>
+        <v>6108.3885</v>
       </c>
       <c r="G162" t="n">
-        <v>4.511333333333337</v>
+        <v>-13968149.21315074</v>
       </c>
       <c r="H162" t="n">
-        <v>4.527333333333348</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,36 +6086,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="C163" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="D163" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="E163" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="F163" t="n">
-        <v>51857.2996</v>
+        <v>257974.1378</v>
       </c>
       <c r="G163" t="n">
-        <v>4.514000000000004</v>
+        <v>-14226123.35095074</v>
       </c>
       <c r="H163" t="n">
-        <v>4.525333333333348</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,36 +6127,39 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="C164" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="D164" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="E164" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="F164" t="n">
-        <v>34893</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>4.518000000000003</v>
+        <v>-14226103.35095074</v>
       </c>
       <c r="H164" t="n">
-        <v>4.524166666666681</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,36 +6168,39 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.56</v>
+        <v>4.47</v>
       </c>
       <c r="C165" t="n">
-        <v>4.56</v>
+        <v>4.48</v>
       </c>
       <c r="D165" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="E165" t="n">
-        <v>4.56</v>
+        <v>4.47</v>
       </c>
       <c r="F165" t="n">
-        <v>52893.6403</v>
+        <v>481928.357</v>
       </c>
       <c r="G165" t="n">
-        <v>4.524000000000004</v>
+        <v>-13744174.99395074</v>
       </c>
       <c r="H165" t="n">
-        <v>4.522000000000014</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,36 +6209,39 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="C166" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="D166" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="E166" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="F166" t="n">
-        <v>80921.10129999999</v>
+        <v>15112</v>
       </c>
       <c r="G166" t="n">
-        <v>4.521333333333337</v>
+        <v>-13729062.99395074</v>
       </c>
       <c r="H166" t="n">
-        <v>4.520500000000014</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6708,36 +6250,39 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>492187.777</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-13236875.21695074</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
         <v>4.5</v>
       </c>
-      <c r="C167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9723.546200000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>4.524000000000004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>4.518666666666681</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,36 +6291,37 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C168" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="D168" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E168" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="F168" t="n">
-        <v>15081.9999</v>
+        <v>492158.0842</v>
       </c>
       <c r="G168" t="n">
-        <v>4.520666666666671</v>
+        <v>-13729033.30115074</v>
       </c>
       <c r="H168" t="n">
-        <v>4.517166666666681</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,36 +6330,37 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="C169" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="D169" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="E169" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="F169" t="n">
-        <v>24749.9999</v>
+        <v>216872.8691</v>
       </c>
       <c r="G169" t="n">
-        <v>4.519333333333338</v>
+        <v>-13512160.43205074</v>
       </c>
       <c r="H169" t="n">
-        <v>4.51566666666668</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6822,36 +6369,37 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.55</v>
+        <v>4.44</v>
       </c>
       <c r="C170" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="D170" t="n">
-        <v>4.55</v>
+        <v>4.44</v>
       </c>
       <c r="E170" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="F170" t="n">
-        <v>9946.604499999999</v>
+        <v>268051.4885</v>
       </c>
       <c r="G170" t="n">
-        <v>4.517333333333339</v>
+        <v>-13780211.92055074</v>
       </c>
       <c r="H170" t="n">
-        <v>4.512833333333346</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,36 +6408,37 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="C171" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="D171" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="E171" t="n">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>994676.0965</v>
       </c>
       <c r="G171" t="n">
-        <v>4.518000000000005</v>
+        <v>-12785535.82405074</v>
       </c>
       <c r="H171" t="n">
-        <v>4.510833333333347</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6898,36 +6447,39 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.51</v>
+        <v>4.41</v>
       </c>
       <c r="C172" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="D172" t="n">
-        <v>4.51</v>
+        <v>4.47</v>
       </c>
       <c r="E172" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F172" t="n">
-        <v>91314.4507</v>
+        <v>1157557.5942</v>
       </c>
       <c r="G172" t="n">
-        <v>4.516000000000005</v>
+        <v>-12785535.82405074</v>
       </c>
       <c r="H172" t="n">
-        <v>4.509333333333347</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,36 +6488,37 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.53</v>
+        <v>4.41</v>
       </c>
       <c r="C173" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="D173" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="E173" t="n">
-        <v>4.53</v>
+        <v>4.41</v>
       </c>
       <c r="F173" t="n">
-        <v>22075.0551</v>
+        <v>6103.1176</v>
       </c>
       <c r="G173" t="n">
-        <v>4.517333333333339</v>
+        <v>-12785535.82405074</v>
       </c>
       <c r="H173" t="n">
-        <v>4.509000000000013</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,40 +6527,39 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="C174" t="n">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="D174" t="n">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="E174" t="n">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="F174" t="n">
-        <v>56244.7866</v>
+        <v>154673.5313</v>
       </c>
       <c r="G174" t="n">
-        <v>4.519333333333338</v>
+        <v>-12940209.35535074</v>
       </c>
       <c r="H174" t="n">
-        <v>4.507666666666679</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="L174" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,44 +6568,37 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.51</v>
+        <v>4.47</v>
       </c>
       <c r="C175" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="D175" t="n">
-        <v>4.51</v>
+        <v>4.47</v>
       </c>
       <c r="E175" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="F175" t="n">
-        <v>289035.7276</v>
+        <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>4.519333333333338</v>
+        <v>-12940199.35535074</v>
       </c>
       <c r="H175" t="n">
-        <v>4.506833333333345</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="L175" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="M175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N175" t="n">
+      <c r="M175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,44 +6607,37 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="C176" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="D176" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="E176" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="F176" t="n">
-        <v>82671.2687</v>
+        <v>55380</v>
       </c>
       <c r="G176" t="n">
-        <v>4.517333333333339</v>
+        <v>-12940199.35535074</v>
       </c>
       <c r="H176" t="n">
-        <v>4.505000000000011</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L176" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="M176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N176" t="n">
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,44 +6646,1178 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="C177" t="n">
         <v>4.47</v>
       </c>
       <c r="D177" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="E177" t="n">
         <v>4.47</v>
       </c>
       <c r="F177" t="n">
-        <v>62573.7897</v>
+        <v>60546.8045</v>
       </c>
       <c r="G177" t="n">
-        <v>4.515333333333339</v>
+        <v>-12940199.35535074</v>
       </c>
       <c r="H177" t="n">
-        <v>4.504666666666679</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L177" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="M177" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N177" t="n">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F178" t="n">
+        <v>315919.5261</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F179" t="n">
+        <v>208512.3932</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F180" t="n">
+        <v>291688.1849</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-12648511.17045074</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10320.0668</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-12658831.23725074</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F182" t="n">
+        <v>90020</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-12568811.23725074</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F183" t="n">
+        <v>80010</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-12648821.23725074</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100020</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-12548801.23725074</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F185" t="n">
+        <v>86435.61259999999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-12635236.84985074</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-12535226.84985074</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F187" t="n">
+        <v>268828.4271</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-12804055.27695074</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F188" t="n">
+        <v>125722</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-12929777.27695074</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>60870</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-12929777.27695074</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-12929767.27695074</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14651</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-12944418.27695074</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F192" t="n">
+        <v>51857.2996</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-12892560.97735074</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F193" t="n">
+        <v>34893</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-12857667.97735074</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F194" t="n">
+        <v>52893.6403</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-12804774.33705074</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F195" t="n">
+        <v>80921.10129999999</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-12885695.43835074</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>9723.546200000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-12895418.98455074</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F197" t="n">
+        <v>15081.9999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F198" t="n">
+        <v>24749.9999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F199" t="n">
+        <v>9946.604499999999</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-12880326.98465074</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>91314.4507</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-12971641.43535074</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22075.0551</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-12949566.38025074</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F203" t="n">
+        <v>56244.7866</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-12949566.38025074</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>289035.7276</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-13238602.10785074</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>82671.2687</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-13238602.10785074</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F206" t="n">
+        <v>62573.7897</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-13301175.89755074</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="C2" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="D2" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="E2" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="F2" t="n">
-        <v>5731.1024</v>
+        <v>403955.1347</v>
       </c>
       <c r="G2" t="n">
-        <v>-2352527.5741</v>
+        <v>4.5505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="C3" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="D3" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="E3" t="n">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="F3" t="n">
-        <v>215444.7546</v>
+        <v>1659555.2119</v>
       </c>
       <c r="G3" t="n">
-        <v>-2567972.3287</v>
+        <v>4.5575</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="C4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E4" t="n">
         <v>4.56</v>
       </c>
-      <c r="D4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.42</v>
-      </c>
       <c r="F4" t="n">
-        <v>929020.5853</v>
+        <v>263386.3369</v>
       </c>
       <c r="G4" t="n">
-        <v>-1638951.743400001</v>
+        <v>4.563000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="C5" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D5" t="n">
-        <v>4.59</v>
+        <v>4.66</v>
       </c>
       <c r="E5" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="F5" t="n">
-        <v>191126.291</v>
+        <v>904468.9892</v>
       </c>
       <c r="G5" t="n">
-        <v>-1447825.452400001</v>
+        <v>4.570500000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="C6" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="D6" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="E6" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="F6" t="n">
-        <v>95931.87772925</v>
+        <v>431140.4056</v>
       </c>
       <c r="G6" t="n">
-        <v>-1543757.33012925</v>
+        <v>4.571000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="C7" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="D7" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="E7" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="F7" t="n">
-        <v>983678.10043668</v>
+        <v>1253534.6788</v>
       </c>
       <c r="G7" t="n">
-        <v>-2527435.43056593</v>
+        <v>4.575500000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="C8" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="D8" t="n">
-        <v>4.56</v>
+        <v>4.69</v>
       </c>
       <c r="E8" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>249288.1173</v>
       </c>
       <c r="G8" t="n">
-        <v>-2527424.43056593</v>
+        <v>4.584500000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="C9" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="D9" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="E9" t="n">
-        <v>4.43</v>
+        <v>4.65</v>
       </c>
       <c r="F9" t="n">
-        <v>148963.4649</v>
+        <v>186131.8191</v>
       </c>
       <c r="G9" t="n">
-        <v>-2378460.96566593</v>
+        <v>4.592000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="C10" t="n">
-        <v>4.42</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="n">
-        <v>4.57</v>
+        <v>4.7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.42</v>
+        <v>4.6</v>
       </c>
       <c r="F10" t="n">
-        <v>474005.7992</v>
+        <v>120163.4103</v>
       </c>
       <c r="G10" t="n">
-        <v>-2852466.76486593</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="C11" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="D11" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="E11" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F11" t="n">
-        <v>575809.0198</v>
+        <v>79709.91590000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-2276657.74506593</v>
+        <v>4.601500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.54</v>
+        <v>4.69</v>
       </c>
       <c r="C12" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="D12" t="n">
-        <v>4.56</v>
+        <v>4.69</v>
       </c>
       <c r="E12" t="n">
-        <v>4.41</v>
+        <v>4.62</v>
       </c>
       <c r="F12" t="n">
-        <v>342074.3305</v>
+        <v>95218.35679999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-2618732.07556593</v>
+        <v>4.607500000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.56</v>
+        <v>4.7</v>
       </c>
       <c r="C13" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="D13" t="n">
-        <v>4.64</v>
+        <v>4.7</v>
       </c>
       <c r="E13" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="F13" t="n">
-        <v>593725.49332456</v>
+        <v>52239.7338</v>
       </c>
       <c r="G13" t="n">
-        <v>-2025006.58224137</v>
+        <v>4.610500000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.47</v>
+        <v>4.69</v>
       </c>
       <c r="C14" t="n">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="D14" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="E14" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F14" t="n">
-        <v>1326190.00846563</v>
+        <v>184469.6359</v>
       </c>
       <c r="G14" t="n">
-        <v>-698816.5737757403</v>
+        <v>4.615500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.79</v>
+        <v>4.63</v>
       </c>
       <c r="C15" t="n">
-        <v>4.76</v>
+        <v>4.72</v>
       </c>
       <c r="D15" t="n">
-        <v>4.8</v>
+        <v>4.72</v>
       </c>
       <c r="E15" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="F15" t="n">
-        <v>954273.47426937</v>
+        <v>151827.645</v>
       </c>
       <c r="G15" t="n">
-        <v>-1653090.04804511</v>
+        <v>4.617000000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="C16" t="n">
-        <v>4.76</v>
+        <v>4.58</v>
       </c>
       <c r="D16" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="E16" t="n">
-        <v>4.36</v>
+        <v>4.57</v>
       </c>
       <c r="F16" t="n">
-        <v>1133775.55648535</v>
+        <v>856436.6633</v>
       </c>
       <c r="G16" t="n">
-        <v>-1653090.04804511</v>
+        <v>4.621500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="C17" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="D17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E17" t="n">
-        <v>4.4</v>
+        <v>4.59</v>
       </c>
       <c r="F17" t="n">
-        <v>466786.52457687</v>
+        <v>250000</v>
       </c>
       <c r="G17" t="n">
-        <v>-2119876.572621981</v>
+        <v>4.623000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C18" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="D18" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="E18" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>15116.2457</v>
+        <v>328044.2178</v>
       </c>
       <c r="G18" t="n">
-        <v>-2134992.818321981</v>
+        <v>4.625000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.48</v>
+        <v>4.64</v>
       </c>
       <c r="C19" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="D19" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="E19" t="n">
-        <v>4.4</v>
+        <v>4.63</v>
       </c>
       <c r="F19" t="n">
-        <v>2331369.0903</v>
+        <v>175653.084</v>
       </c>
       <c r="G19" t="n">
-        <v>196376.2719780193</v>
+        <v>4.629000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="C20" t="n">
-        <v>4.69</v>
+        <v>4.63</v>
       </c>
       <c r="D20" t="n">
         <v>4.7</v>
       </c>
       <c r="E20" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="F20" t="n">
-        <v>209045.91968</v>
+        <v>347634.5673</v>
       </c>
       <c r="G20" t="n">
-        <v>405422.1916580193</v>
+        <v>4.636000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
       <c r="C21" t="n">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="D21" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="E21" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="F21" t="n">
-        <v>1118051.4848</v>
+        <v>341131.9189</v>
       </c>
       <c r="G21" t="n">
-        <v>-712629.2931419807</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="C22" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D22" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="E22" t="n">
-        <v>4.46</v>
+        <v>4.63</v>
       </c>
       <c r="F22" t="n">
-        <v>3058916.5944</v>
+        <v>277635.7978</v>
       </c>
       <c r="G22" t="n">
-        <v>2346287.301258019</v>
+        <v>4.649000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.58</v>
+        <v>4.63</v>
       </c>
       <c r="C23" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="D23" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E23" t="n">
-        <v>4.48</v>
+        <v>4.62</v>
       </c>
       <c r="F23" t="n">
-        <v>1832959.9473</v>
+        <v>160000</v>
       </c>
       <c r="G23" t="n">
-        <v>513327.3539580191</v>
+        <v>4.649500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="C24" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="D24" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E24" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="F24" t="n">
-        <v>468778.8666</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G24" t="n">
-        <v>44548.48735801905</v>
+        <v>4.652500000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="C25" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="D25" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="E25" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="F25" t="n">
-        <v>6691.0675</v>
+        <v>169523.4968</v>
       </c>
       <c r="G25" t="n">
-        <v>44548.48735801905</v>
+        <v>4.653</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.45</v>
+        <v>4.61</v>
       </c>
       <c r="C26" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="D26" t="n">
-        <v>4.47</v>
+        <v>4.61</v>
       </c>
       <c r="E26" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="F26" t="n">
-        <v>832141.6939</v>
+        <v>131395.0867</v>
       </c>
       <c r="G26" t="n">
-        <v>-787593.2065419808</v>
+        <v>4.652500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="C27" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="D27" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="E27" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="F27" t="n">
-        <v>319193.2589</v>
+        <v>187047.1216</v>
       </c>
       <c r="G27" t="n">
-        <v>-468399.9476419808</v>
+        <v>4.649500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,19 +1377,19 @@
         <v>4.61</v>
       </c>
       <c r="C28" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="D28" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E28" t="n">
         <v>4.61</v>
       </c>
-      <c r="E28" t="n">
-        <v>4.49</v>
-      </c>
       <c r="F28" t="n">
-        <v>3830.387</v>
+        <v>323444.1924</v>
       </c>
       <c r="G28" t="n">
-        <v>-472230.3346419808</v>
+        <v>4.6475</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C29" t="n">
-        <v>4.58</v>
+        <v>4.65</v>
       </c>
       <c r="D29" t="n">
-        <v>4.58</v>
+        <v>4.65</v>
       </c>
       <c r="E29" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="F29" t="n">
-        <v>1272468.1175</v>
+        <v>279631.2988</v>
       </c>
       <c r="G29" t="n">
-        <v>800237.7828580191</v>
+        <v>4.647</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="C30" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E30" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="F30" t="n">
-        <v>261812.4139</v>
+        <v>19689.3105</v>
       </c>
       <c r="G30" t="n">
-        <v>538425.3689580191</v>
+        <v>4.641999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="C31" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="D31" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="E31" t="n">
-        <v>4.45</v>
+        <v>4.58</v>
       </c>
       <c r="F31" t="n">
-        <v>1389422.4122</v>
+        <v>183612.7364</v>
       </c>
       <c r="G31" t="n">
-        <v>-850997.0432419808</v>
+        <v>4.6435</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="C32" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D32" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E32" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="F32" t="n">
-        <v>368974.6914</v>
+        <v>67215.3492</v>
       </c>
       <c r="G32" t="n">
-        <v>-482022.3518419808</v>
+        <v>4.641</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C33" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="D33" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="E33" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="F33" t="n">
-        <v>100914.4763</v>
+        <v>102599.5214</v>
       </c>
       <c r="G33" t="n">
-        <v>-582936.8281419808</v>
+        <v>4.638</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="C34" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D34" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E34" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F34" t="n">
-        <v>371506.0088</v>
+        <v>137681.2608</v>
       </c>
       <c r="G34" t="n">
-        <v>-211430.8193419808</v>
+        <v>4.6335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C35" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="D35" t="n">
-        <v>4.77</v>
+        <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>546045.3628999999</v>
+        <v>85149.2148</v>
       </c>
       <c r="G35" t="n">
-        <v>334614.5435580192</v>
+        <v>4.632</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="C36" t="n">
-        <v>4.74</v>
+        <v>4.51</v>
       </c>
       <c r="D36" t="n">
-        <v>4.74</v>
+        <v>4.62</v>
       </c>
       <c r="E36" t="n">
-        <v>4.59</v>
+        <v>4.51</v>
       </c>
       <c r="F36" t="n">
-        <v>634048.368</v>
+        <v>493142.2461</v>
       </c>
       <c r="G36" t="n">
-        <v>968662.9115580192</v>
+        <v>4.626499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C37" t="n">
-        <v>4.69</v>
+        <v>4.65</v>
       </c>
       <c r="D37" t="n">
-        <v>4.72</v>
+        <v>4.65</v>
       </c>
       <c r="E37" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="F37" t="n">
-        <v>839895.6296</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>128767.2819580192</v>
+        <v>4.629</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C38" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D38" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E38" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="F38" t="n">
-        <v>1407913.387</v>
+        <v>107758.6206</v>
       </c>
       <c r="G38" t="n">
-        <v>-1279146.105041981</v>
+        <v>4.631</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="C39" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="D39" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="E39" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="F39" t="n">
-        <v>414988.1921</v>
+        <v>179339.616</v>
       </c>
       <c r="G39" t="n">
-        <v>-864157.9129419808</v>
+        <v>4.626</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C40" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D40" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="E40" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F40" t="n">
-        <v>205479.9797</v>
+        <v>902338.1677</v>
       </c>
       <c r="G40" t="n">
-        <v>-1069637.892641981</v>
+        <v>4.618</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D41" t="n">
         <v>4.52</v>
       </c>
-      <c r="D41" t="n">
-        <v>4.64</v>
-      </c>
       <c r="E41" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1267805.1304</v>
+        <v>84900</v>
       </c>
       <c r="G41" t="n">
-        <v>-2337443.02304198</v>
+        <v>4.608500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="C42" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="D42" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E42" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="F42" t="n">
-        <v>57736.2763</v>
+        <v>775487.0324</v>
       </c>
       <c r="G42" t="n">
-        <v>-2279706.74674198</v>
+        <v>4.5985</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="C43" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D43" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="E43" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="F43" t="n">
-        <v>882826.4365</v>
+        <v>340299.6269</v>
       </c>
       <c r="G43" t="n">
-        <v>-1396880.31024198</v>
+        <v>4.596500000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C44" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="D44" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E44" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="F44" t="n">
-        <v>403955.1347</v>
+        <v>455144.9756</v>
       </c>
       <c r="G44" t="n">
-        <v>-992925.1755419804</v>
+        <v>4.5905</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C45" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D45" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="E45" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F45" t="n">
-        <v>1659555.2119</v>
+        <v>11226.3834</v>
       </c>
       <c r="G45" t="n">
-        <v>-2652480.387441981</v>
+        <v>4.590000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C46" t="n">
-        <v>4.59</v>
+        <v>4.51</v>
       </c>
       <c r="D46" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="E46" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="F46" t="n">
-        <v>263386.3369</v>
+        <v>408947.1966</v>
       </c>
       <c r="G46" t="n">
-        <v>-2389094.050541981</v>
+        <v>4.586000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="C47" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D47" t="n">
-        <v>4.66</v>
+        <v>4.58</v>
       </c>
       <c r="E47" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F47" t="n">
-        <v>904468.9892</v>
+        <v>260403.7329</v>
       </c>
       <c r="G47" t="n">
-        <v>-1484625.061341981</v>
+        <v>4.580500000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C48" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="D48" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="E48" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F48" t="n">
-        <v>431140.4056</v>
+        <v>96995.1744</v>
       </c>
       <c r="G48" t="n">
-        <v>-1053484.655741981</v>
+        <v>4.574500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.66</v>
+        <v>4.56</v>
       </c>
       <c r="C49" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D49" t="n">
-        <v>4.69</v>
+        <v>4.59</v>
       </c>
       <c r="E49" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F49" t="n">
-        <v>1253534.6788</v>
+        <v>810010</v>
       </c>
       <c r="G49" t="n">
-        <v>-2307019.334541981</v>
+        <v>4.570500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="C50" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="D50" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="E50" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F50" t="n">
-        <v>249288.1173</v>
+        <v>168211.186</v>
       </c>
       <c r="G50" t="n">
-        <v>-2307019.334541981</v>
+        <v>4.570000000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="C51" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="D51" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E51" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="F51" t="n">
-        <v>186131.8191</v>
+        <v>31505.6277</v>
       </c>
       <c r="G51" t="n">
-        <v>-2307019.334541981</v>
+        <v>4.569500000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C52" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D52" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E52" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F52" t="n">
-        <v>120163.4103</v>
+        <v>96458</v>
       </c>
       <c r="G52" t="n">
-        <v>-2427182.744841981</v>
+        <v>4.568500000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C53" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="D53" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E53" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F53" t="n">
-        <v>79709.91590000001</v>
+        <v>9297.8441</v>
       </c>
       <c r="G53" t="n">
-        <v>-2347472.828941981</v>
+        <v>4.567500000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="C54" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="D54" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="E54" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="F54" t="n">
-        <v>95218.35679999999</v>
+        <v>20162.5677</v>
       </c>
       <c r="G54" t="n">
-        <v>-2442691.185741981</v>
+        <v>4.565500000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.7</v>
+        <v>4.54</v>
       </c>
       <c r="C55" t="n">
-        <v>4.69</v>
+        <v>4.49</v>
       </c>
       <c r="D55" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E55" t="n">
-        <v>4.61</v>
+        <v>4.49</v>
       </c>
       <c r="F55" t="n">
-        <v>52239.7338</v>
+        <v>910278.3734</v>
       </c>
       <c r="G55" t="n">
-        <v>-2390451.451941981</v>
+        <v>4.562500000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="C56" t="n">
-        <v>4.76</v>
+        <v>4.6</v>
       </c>
       <c r="D56" t="n">
-        <v>4.76</v>
+        <v>4.6</v>
       </c>
       <c r="E56" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F56" t="n">
-        <v>184469.6359</v>
+        <v>85743.1868</v>
       </c>
       <c r="G56" t="n">
-        <v>-2205981.816041981</v>
+        <v>4.564500000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="C57" t="n">
-        <v>4.72</v>
+        <v>4.59</v>
       </c>
       <c r="D57" t="n">
-        <v>4.72</v>
+        <v>4.59</v>
       </c>
       <c r="E57" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F57" t="n">
-        <v>151827.645</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-2357809.461041981</v>
+        <v>4.561500000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.67</v>
+        <v>4.57</v>
       </c>
       <c r="C58" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D58" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="E58" t="n">
         <v>4.57</v>
       </c>
       <c r="F58" t="n">
-        <v>856436.6633</v>
+        <v>387000</v>
       </c>
       <c r="G58" t="n">
-        <v>-3214246.124341981</v>
+        <v>4.558000000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D59" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E59" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F59" t="n">
-        <v>250000</v>
+        <v>261747.6657</v>
       </c>
       <c r="G59" t="n">
-        <v>-2964246.124341981</v>
+        <v>4.560000000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C60" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="D60" t="n">
-        <v>4.66</v>
+        <v>4.68</v>
       </c>
       <c r="E60" t="n">
         <v>4.6</v>
       </c>
       <c r="F60" t="n">
-        <v>328044.2178</v>
+        <v>351693.2559</v>
       </c>
       <c r="G60" t="n">
-        <v>-2636201.906541982</v>
+        <v>4.564000000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="C61" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="D61" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E61" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="F61" t="n">
-        <v>175653.084</v>
+        <v>905165.6731</v>
       </c>
       <c r="G61" t="n">
-        <v>-2460548.822541982</v>
+        <v>4.572000000000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C62" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="D62" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E62" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="F62" t="n">
-        <v>347634.5673</v>
+        <v>192315.478</v>
       </c>
       <c r="G62" t="n">
-        <v>-2460548.822541982</v>
+        <v>4.578000000000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.71</v>
+        <v>4.62</v>
       </c>
       <c r="C63" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="D63" t="n">
-        <v>4.71</v>
+        <v>4.62</v>
       </c>
       <c r="E63" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="F63" t="n">
-        <v>341131.9189</v>
+        <v>257572.7195</v>
       </c>
       <c r="G63" t="n">
-        <v>-2119416.903641982</v>
+        <v>4.579500000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C64" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D64" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E64" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F64" t="n">
-        <v>277635.7978</v>
+        <v>250197.4084</v>
       </c>
       <c r="G64" t="n">
-        <v>-2119416.903641982</v>
+        <v>4.585500000000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C65" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D65" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="E65" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="F65" t="n">
-        <v>160000</v>
+        <v>110</v>
       </c>
       <c r="G65" t="n">
-        <v>-2279416.903641982</v>
+        <v>4.588000000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C66" t="n">
         <v>4.6</v>
       </c>
       <c r="D66" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E66" t="n">
         <v>4.6</v>
       </c>
       <c r="F66" t="n">
-        <v>1424634.6726</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G66" t="n">
-        <v>-3704051.576241982</v>
+        <v>4.593500000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C67" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D67" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E67" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F67" t="n">
-        <v>169523.4968</v>
+        <v>139133.5951</v>
       </c>
       <c r="G67" t="n">
-        <v>-3704051.576241982</v>
+        <v>4.600000000000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.61</v>
+        <v>4.69</v>
       </c>
       <c r="C68" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D68" t="n">
-        <v>4.61</v>
+        <v>4.69</v>
       </c>
       <c r="E68" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F68" t="n">
-        <v>131395.0867</v>
+        <v>868143.6902</v>
       </c>
       <c r="G68" t="n">
-        <v>-3704051.576241982</v>
+        <v>4.610000000000005</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C69" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D69" t="n">
         <v>4.64</v>
       </c>
       <c r="E69" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F69" t="n">
-        <v>187047.1216</v>
+        <v>46979.0248</v>
       </c>
       <c r="G69" t="n">
-        <v>-3517004.454641982</v>
+        <v>4.614000000000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="C70" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="D70" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E70" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F70" t="n">
-        <v>323444.1924</v>
+        <v>890485.2751</v>
       </c>
       <c r="G70" t="n">
-        <v>-3517004.454641982</v>
+        <v>4.613500000000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D71" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E71" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F71" t="n">
-        <v>279631.2988</v>
+        <v>50952.0807</v>
       </c>
       <c r="G71" t="n">
-        <v>-3237373.155841982</v>
+        <v>4.611500000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C72" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D72" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E72" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F72" t="n">
-        <v>19689.3105</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-3257062.466341982</v>
+        <v>4.612500000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C73" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D73" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E73" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F73" t="n">
-        <v>183612.7364</v>
+        <v>263620.571</v>
       </c>
       <c r="G73" t="n">
-        <v>-3073449.729941982</v>
+        <v>4.613500000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="C74" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="D74" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="E74" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="F74" t="n">
-        <v>67215.3492</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>-3140665.079141982</v>
+        <v>4.619000000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="C75" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="D75" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E75" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="F75" t="n">
-        <v>102599.5214</v>
+        <v>99</v>
       </c>
       <c r="G75" t="n">
-        <v>-3140665.079141982</v>
+        <v>4.626000000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="C76" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D76" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="E76" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F76" t="n">
-        <v>137681.2608</v>
+        <v>1229.727</v>
       </c>
       <c r="G76" t="n">
-        <v>-3278346.339941982</v>
+        <v>4.626500000000003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="C77" t="n">
         <v>4.6</v>
       </c>
       <c r="D77" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="E77" t="n">
         <v>4.6</v>
       </c>
       <c r="F77" t="n">
-        <v>85149.2148</v>
+        <v>310373.1333</v>
       </c>
       <c r="G77" t="n">
-        <v>-3278346.339941982</v>
+        <v>4.627500000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="C78" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D78" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E78" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F78" t="n">
-        <v>493142.2461</v>
+        <v>320394.033</v>
       </c>
       <c r="G78" t="n">
-        <v>-3771488.586041982</v>
+        <v>4.629000000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,25 +3213,25 @@
         <v>4.65</v>
       </c>
       <c r="C79" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="D79" t="n">
         <v>4.65</v>
       </c>
       <c r="E79" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>392420.6399</v>
       </c>
       <c r="G79" t="n">
-        <v>-3771388.586041982</v>
+        <v>4.632500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="C80" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="D80" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="E80" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="F80" t="n">
-        <v>107758.6206</v>
+        <v>198118.6147</v>
       </c>
       <c r="G80" t="n">
-        <v>-3879147.206641982</v>
+        <v>4.635000000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="C81" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="D81" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="E81" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="F81" t="n">
-        <v>179339.616</v>
+        <v>513021.6013</v>
       </c>
       <c r="G81" t="n">
-        <v>-4058486.822641982</v>
+        <v>4.632000000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="C82" t="n">
-        <v>4.52</v>
+        <v>4.66</v>
       </c>
       <c r="D82" t="n">
-        <v>4.54</v>
+        <v>4.66</v>
       </c>
       <c r="E82" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F82" t="n">
-        <v>902338.1677</v>
+        <v>153502.9847</v>
       </c>
       <c r="G82" t="n">
-        <v>-4960824.990341982</v>
+        <v>4.630500000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.52</v>
+        <v>4.66</v>
       </c>
       <c r="C83" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="D83" t="n">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="E83" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="F83" t="n">
-        <v>84900</v>
+        <v>171659.4766</v>
       </c>
       <c r="G83" t="n">
-        <v>-5045724.990341982</v>
+        <v>4.632500000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C84" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="D84" t="n">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="E84" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F84" t="n">
-        <v>775487.0324</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G84" t="n">
-        <v>-5045724.990341982</v>
+        <v>4.631500000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.59</v>
+        <v>4.66</v>
       </c>
       <c r="C85" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="D85" t="n">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="E85" t="n">
-        <v>4.49</v>
+        <v>4.55</v>
       </c>
       <c r="F85" t="n">
-        <v>340299.6269</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G85" t="n">
-        <v>-5386024.617241981</v>
+        <v>4.632500000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.5</v>
+        <v>4.77</v>
       </c>
       <c r="C86" t="n">
-        <v>4.59</v>
+        <v>4.71</v>
       </c>
       <c r="D86" t="n">
-        <v>4.59</v>
+        <v>4.77</v>
       </c>
       <c r="E86" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="F86" t="n">
-        <v>455144.9756</v>
+        <v>566490.2601</v>
       </c>
       <c r="G86" t="n">
-        <v>-4930879.641641982</v>
+        <v>4.639000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C87" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D87" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="E87" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F87" t="n">
-        <v>11226.3834</v>
+        <v>102504.9494</v>
       </c>
       <c r="G87" t="n">
-        <v>-4930879.641641982</v>
+        <v>4.638500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="C88" t="n">
-        <v>4.51</v>
+        <v>4.69</v>
       </c>
       <c r="D88" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E88" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="F88" t="n">
-        <v>408947.1966</v>
+        <v>78898.2552</v>
       </c>
       <c r="G88" t="n">
-        <v>-5339826.838241982</v>
+        <v>4.6355</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3563,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="C89" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="D89" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="E89" t="n">
-        <v>4.48</v>
+        <v>4.63</v>
       </c>
       <c r="F89" t="n">
-        <v>260403.7329</v>
+        <v>698624.2373</v>
       </c>
       <c r="G89" t="n">
-        <v>-5079423.105341982</v>
+        <v>4.635</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="C90" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="D90" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="E90" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="F90" t="n">
-        <v>96995.1744</v>
+        <v>311512.138</v>
       </c>
       <c r="G90" t="n">
-        <v>-5176418.279741982</v>
+        <v>4.638</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.56</v>
+        <v>4.68</v>
       </c>
       <c r="C91" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D91" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="E91" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F91" t="n">
-        <v>810010</v>
+        <v>47643.6589</v>
       </c>
       <c r="G91" t="n">
-        <v>-4366408.279741982</v>
+        <v>4.643</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +3671,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="C92" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="D92" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="E92" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="F92" t="n">
-        <v>168211.186</v>
+        <v>13</v>
       </c>
       <c r="G92" t="n">
-        <v>-4198197.093741982</v>
+        <v>4.6455</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C93" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="D93" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="E93" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="F93" t="n">
-        <v>31505.6277</v>
+        <v>148567.9265</v>
       </c>
       <c r="G93" t="n">
-        <v>-4166691.466041982</v>
+        <v>4.645</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,34 +3743,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C94" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D94" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E94" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F94" t="n">
-        <v>96458</v>
+        <v>516318.2797</v>
       </c>
       <c r="G94" t="n">
-        <v>-4166691.466041982</v>
+        <v>4.642999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3691,25 +3789,25 @@
         <v>4.62</v>
       </c>
       <c r="C95" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="n">
         <v>4.62</v>
       </c>
       <c r="E95" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F95" t="n">
-        <v>9297.8441</v>
+        <v>307283.8301</v>
       </c>
       <c r="G95" t="n">
-        <v>-4166691.466041982</v>
+        <v>4.639999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,34 +3815,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="C96" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D96" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="E96" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F96" t="n">
-        <v>20162.5677</v>
+        <v>46927.8951</v>
       </c>
       <c r="G96" t="n">
-        <v>-4186854.033741982</v>
+        <v>4.640999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,34 +3851,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.54</v>
+        <v>4.68</v>
       </c>
       <c r="C97" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="D97" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="E97" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="F97" t="n">
-        <v>910278.3734</v>
+        <v>12</v>
       </c>
       <c r="G97" t="n">
-        <v>-5097132.407141983</v>
+        <v>4.644499999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,34 +3887,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C98" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D98" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E98" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="F98" t="n">
-        <v>85743.1868</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-5011389.220341982</v>
+        <v>4.646999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,34 +3923,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C99" t="n">
         <v>4.59</v>
       </c>
       <c r="D99" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E99" t="n">
         <v>4.59</v>
       </c>
-      <c r="E99" t="n">
-        <v>4.58</v>
-      </c>
       <c r="F99" t="n">
-        <v>74889.37089999999</v>
+        <v>69265.1439</v>
       </c>
       <c r="G99" t="n">
-        <v>-5086278.591241983</v>
+        <v>4.644499999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,34 +3959,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C100" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D100" t="n">
         <v>4.59</v>
       </c>
       <c r="E100" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F100" t="n">
-        <v>387000</v>
+        <v>720000.8847000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-5086278.591241983</v>
+        <v>4.640499999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3892,34 +3995,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C101" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="D101" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E101" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="F101" t="n">
-        <v>261747.6657</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>-5348026.256941983</v>
+        <v>4.641499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,34 +4031,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="C102" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="D102" t="n">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="E102" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F102" t="n">
-        <v>351693.2559</v>
+        <v>257748.5422</v>
       </c>
       <c r="G102" t="n">
-        <v>-4996333.001041982</v>
+        <v>4.642499999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3962,34 +4067,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="C103" t="n">
         <v>4.61</v>
       </c>
       <c r="D103" t="n">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="E103" t="n">
-        <v>4.61</v>
+        <v>4.52</v>
       </c>
       <c r="F103" t="n">
-        <v>905165.6731</v>
+        <v>15102</v>
       </c>
       <c r="G103" t="n">
-        <v>-5901498.674141983</v>
+        <v>4.640499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C104" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="D104" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E104" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F104" t="n">
-        <v>192315.478</v>
+        <v>242413.5138</v>
       </c>
       <c r="G104" t="n">
-        <v>-5709183.196141982</v>
+        <v>4.639999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C105" t="n">
-        <v>4.62</v>
+        <v>4.46</v>
       </c>
       <c r="D105" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E105" t="n">
-        <v>4.62</v>
+        <v>4.46</v>
       </c>
       <c r="F105" t="n">
-        <v>257572.7195</v>
+        <v>273417.1912</v>
       </c>
       <c r="G105" t="n">
-        <v>-5709183.196141982</v>
+        <v>4.631499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C106" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D106" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E106" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="F106" t="n">
-        <v>250197.4084</v>
+        <v>31473.4845</v>
       </c>
       <c r="G106" t="n">
-        <v>-5959380.604541983</v>
+        <v>4.617499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C107" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D107" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E107" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="F107" t="n">
-        <v>110</v>
+        <v>5038.5738</v>
       </c>
       <c r="G107" t="n">
-        <v>-5959270.604541983</v>
+        <v>4.611499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C108" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D108" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="E108" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F108" t="n">
-        <v>1050651.5086</v>
+        <v>450089.1954</v>
       </c>
       <c r="G108" t="n">
-        <v>-7009922.113141983</v>
+        <v>4.604499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C109" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="D109" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E109" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F109" t="n">
-        <v>139133.5951</v>
+        <v>8502.590099999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-6870788.518041983</v>
+        <v>4.597499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.69</v>
+        <v>4.55</v>
       </c>
       <c r="C110" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D110" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="E110" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F110" t="n">
-        <v>868143.6902</v>
+        <v>596809.9054</v>
       </c>
       <c r="G110" t="n">
-        <v>-7738932.208241983</v>
+        <v>4.592999999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="C111" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D111" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="E111" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F111" t="n">
-        <v>46979.0248</v>
+        <v>17558.6492</v>
       </c>
       <c r="G111" t="n">
-        <v>-7738932.208241983</v>
+        <v>4.586499999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="C112" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D112" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E112" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F112" t="n">
-        <v>890485.2751</v>
+        <v>25342.7292</v>
       </c>
       <c r="G112" t="n">
-        <v>-8629417.483341983</v>
+        <v>4.579499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="C113" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="D113" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E113" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="F113" t="n">
-        <v>50952.0807</v>
+        <v>216000.4204</v>
       </c>
       <c r="G113" t="n">
-        <v>-8578465.402641982</v>
+        <v>4.575499999999998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="C114" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="D114" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="E114" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>20300.6894</v>
       </c>
       <c r="G114" t="n">
-        <v>-8578455.402641982</v>
+        <v>4.571499999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="C115" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="D115" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="E115" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="F115" t="n">
-        <v>263620.571</v>
+        <v>29855.7268</v>
       </c>
       <c r="G115" t="n">
-        <v>-8842075.973641982</v>
+        <v>4.567499999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.67</v>
+        <v>4.54</v>
       </c>
       <c r="C116" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="D116" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="E116" t="n">
-        <v>4.67</v>
+        <v>4.54</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>1289193.1886</v>
       </c>
       <c r="G116" t="n">
-        <v>-8842065.973641982</v>
+        <v>4.562999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="C117" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="D117" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="E117" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="F117" t="n">
-        <v>99</v>
+        <v>70619.02340000001</v>
       </c>
       <c r="G117" t="n">
-        <v>-8841966.973641982</v>
+        <v>4.556499999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,34 +4607,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="C118" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="D118" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="E118" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="F118" t="n">
-        <v>1229.727</v>
+        <v>464094.8782</v>
       </c>
       <c r="G118" t="n">
-        <v>-8843196.700641982</v>
+        <v>4.547499999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4522,238 +4643,289 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.61</v>
+        <v>4.46</v>
       </c>
       <c r="C119" t="n">
-        <v>4.6</v>
+        <v>4.46</v>
       </c>
       <c r="D119" t="n">
-        <v>4.66</v>
+        <v>4.46</v>
       </c>
       <c r="E119" t="n">
-        <v>4.6</v>
+        <v>4.46</v>
       </c>
       <c r="F119" t="n">
-        <v>310373.1333</v>
+        <v>58932.6431</v>
       </c>
       <c r="G119" t="n">
-        <v>-9153569.833941983</v>
+        <v>4.540499999999998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4.43</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="C120" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="D120" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E120" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="F120" t="n">
-        <v>320394.033</v>
+        <v>6108.3885</v>
       </c>
       <c r="G120" t="n">
-        <v>-9473963.866941983</v>
+        <v>4.537499999999998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K120" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="C121" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="D121" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="E121" t="n">
-        <v>4.59</v>
+        <v>4.42</v>
       </c>
       <c r="F121" t="n">
-        <v>392420.6399</v>
+        <v>257974.1378</v>
       </c>
       <c r="G121" t="n">
-        <v>-9081543.227041982</v>
+        <v>4.526999999999997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.67</v>
+        <v>4.47</v>
       </c>
       <c r="C122" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67</v>
+        <v>4.47</v>
       </c>
       <c r="E122" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="F122" t="n">
-        <v>198118.6147</v>
+        <v>20</v>
       </c>
       <c r="G122" t="n">
-        <v>-8883424.612341981</v>
+        <v>4.519999999999998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="C123" t="n">
-        <v>4.59</v>
+        <v>4.48</v>
       </c>
       <c r="D123" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E123" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="F123" t="n">
-        <v>513021.6013</v>
+        <v>481928.357</v>
       </c>
       <c r="G123" t="n">
-        <v>-9396446.213641981</v>
+        <v>4.512499999999998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="C124" t="n">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="D124" t="n">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="E124" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="F124" t="n">
-        <v>153502.9847</v>
+        <v>15112</v>
       </c>
       <c r="G124" t="n">
-        <v>-9242943.228941981</v>
+        <v>4.507499999999997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K124" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.66</v>
+        <v>4.51</v>
       </c>
       <c r="C125" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="D125" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="E125" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="F125" t="n">
-        <v>171659.4766</v>
+        <v>492187.777</v>
       </c>
       <c r="G125" t="n">
-        <v>-9071283.75234198</v>
+        <v>4.508499999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +4934,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C126" t="n">
-        <v>4.66</v>
+        <v>4.42</v>
       </c>
       <c r="D126" t="n">
-        <v>4.67</v>
+        <v>4.5</v>
       </c>
       <c r="E126" t="n">
-        <v>4.6</v>
+        <v>4.42</v>
       </c>
       <c r="F126" t="n">
-        <v>1530918.8352</v>
+        <v>492158.0842</v>
       </c>
       <c r="G126" t="n">
-        <v>-10602202.58754198</v>
+        <v>4.508999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +4976,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.66</v>
+        <v>4.53</v>
       </c>
       <c r="C127" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="D127" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="E127" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="F127" t="n">
-        <v>2073312.46600876</v>
+        <v>216872.8691</v>
       </c>
       <c r="G127" t="n">
-        <v>-12675515.05355074</v>
+        <v>4.510999999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5018,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.77</v>
+        <v>4.44</v>
       </c>
       <c r="C128" t="n">
-        <v>4.71</v>
+        <v>4.43</v>
       </c>
       <c r="D128" t="n">
-        <v>4.77</v>
+        <v>4.44</v>
       </c>
       <c r="E128" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="F128" t="n">
-        <v>566490.2601</v>
+        <v>268051.4885</v>
       </c>
       <c r="G128" t="n">
-        <v>-12109024.79345074</v>
+        <v>4.508499999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,488 +5060,612 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="C129" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="D129" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E129" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F129" t="n">
-        <v>102504.9494</v>
+        <v>994676.0965</v>
       </c>
       <c r="G129" t="n">
-        <v>-12211529.74285074</v>
+        <v>4.507499999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="C130" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D130" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E130" t="n">
-        <v>4.61</v>
+        <v>4.4</v>
       </c>
       <c r="F130" t="n">
-        <v>78898.2552</v>
+        <v>1157557.5942</v>
       </c>
       <c r="G130" t="n">
-        <v>-12132631.48765074</v>
+        <v>4.500499999999998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="C131" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D131" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E131" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="F131" t="n">
-        <v>698624.2373</v>
+        <v>6103.1176</v>
       </c>
       <c r="G131" t="n">
-        <v>-12132631.48765074</v>
+        <v>4.493499999999998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.64</v>
+        <v>4.42</v>
       </c>
       <c r="C132" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="D132" t="n">
-        <v>4.69</v>
+        <v>4.42</v>
       </c>
       <c r="E132" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="F132" t="n">
-        <v>311512.138</v>
+        <v>154673.5313</v>
       </c>
       <c r="G132" t="n">
-        <v>-12444143.62565074</v>
+        <v>4.486999999999998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.68</v>
+        <v>4.47</v>
       </c>
       <c r="C133" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="D133" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E133" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="F133" t="n">
-        <v>47643.6589</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-12491787.28455074</v>
+        <v>4.482999999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="C134" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D134" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E134" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="F134" t="n">
-        <v>13</v>
+        <v>55380</v>
       </c>
       <c r="G134" t="n">
-        <v>-12491774.28455074</v>
+        <v>4.478999999999998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C135" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="D135" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="E135" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="F135" t="n">
-        <v>148567.9265</v>
+        <v>60546.8045</v>
       </c>
       <c r="G135" t="n">
-        <v>-12640342.21105074</v>
+        <v>4.475499999999998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K135" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="C136" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="D136" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E136" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F136" t="n">
-        <v>516318.2797</v>
+        <v>315919.5261</v>
       </c>
       <c r="G136" t="n">
-        <v>-13156660.49075074</v>
+        <v>4.469499999999998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.62</v>
+        <v>4.45</v>
       </c>
       <c r="C137" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="D137" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="E137" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="F137" t="n">
-        <v>307283.8301</v>
+        <v>208512.3932</v>
       </c>
       <c r="G137" t="n">
-        <v>-13463944.32085074</v>
+        <v>4.464499999999998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C138" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D138" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="E138" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="F138" t="n">
-        <v>46927.8951</v>
+        <v>291688.1849</v>
       </c>
       <c r="G138" t="n">
-        <v>-13463944.32085074</v>
+        <v>4.464499999999998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="C139" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="D139" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="E139" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="F139" t="n">
-        <v>12</v>
+        <v>10320.0668</v>
       </c>
       <c r="G139" t="n">
-        <v>-13463932.32085074</v>
+        <v>4.464499999999998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="K139" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="C140" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="D140" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="E140" t="n">
-        <v>4.65</v>
+        <v>4.46</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>90020</v>
       </c>
       <c r="G140" t="n">
-        <v>-13463942.32085074</v>
+        <v>4.465999999999998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="C141" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="D141" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E141" t="n">
-        <v>4.59</v>
+        <v>4.44</v>
       </c>
       <c r="F141" t="n">
-        <v>69265.1439</v>
+        <v>80010</v>
       </c>
       <c r="G141" t="n">
-        <v>-13533207.46475074</v>
+        <v>4.466499999999998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.59</v>
+        <v>4.44</v>
       </c>
       <c r="C142" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D142" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="E142" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="F142" t="n">
-        <v>720000.8847000001</v>
+        <v>100020</v>
       </c>
       <c r="G142" t="n">
-        <v>-14253208.34945074</v>
+        <v>4.464999999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,68 +5674,84 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="C143" t="n">
-        <v>4.61</v>
+        <v>4.52</v>
       </c>
       <c r="D143" t="n">
-        <v>4.64</v>
+        <v>4.53</v>
       </c>
       <c r="E143" t="n">
-        <v>4.61</v>
+        <v>4.44</v>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>86435.61259999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-14253188.34945074</v>
+        <v>4.463499999999998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="C144" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="D144" t="n">
-        <v>4.61</v>
+        <v>4.53</v>
       </c>
       <c r="E144" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="F144" t="n">
-        <v>257748.5422</v>
+        <v>100010</v>
       </c>
       <c r="G144" t="n">
-        <v>-14510936.89165074</v>
+        <v>4.460499999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,173 +5760,216 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.62</v>
+        <v>4.43</v>
       </c>
       <c r="C145" t="n">
-        <v>4.61</v>
+        <v>4.51</v>
       </c>
       <c r="D145" t="n">
-        <v>4.62</v>
+        <v>4.53</v>
       </c>
       <c r="E145" t="n">
-        <v>4.52</v>
+        <v>4.43</v>
       </c>
       <c r="F145" t="n">
-        <v>15102</v>
+        <v>268828.4271</v>
       </c>
       <c r="G145" t="n">
-        <v>-14495834.89165074</v>
+        <v>4.456499999999997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.59</v>
+        <v>4.43</v>
       </c>
       <c r="C146" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D146" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E146" t="n">
-        <v>4.49</v>
+        <v>4.43</v>
       </c>
       <c r="F146" t="n">
-        <v>242413.5138</v>
+        <v>125722</v>
       </c>
       <c r="G146" t="n">
-        <v>-14738248.40545074</v>
+        <v>4.452999999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C147" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="D147" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E147" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="F147" t="n">
-        <v>273417.1912</v>
+        <v>60870</v>
       </c>
       <c r="G147" t="n">
-        <v>-15011665.59665074</v>
+        <v>4.451499999999998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K147" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C148" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="D148" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="E148" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="F148" t="n">
-        <v>31473.4845</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>-14980192.11215074</v>
+        <v>4.455999999999998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K148" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C149" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D149" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E149" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F149" t="n">
-        <v>5038.5738</v>
+        <v>14651</v>
       </c>
       <c r="G149" t="n">
-        <v>-14975153.53835074</v>
+        <v>4.457499999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,33 +5978,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="C150" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="D150" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="E150" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="F150" t="n">
-        <v>450089.1954</v>
+        <v>51857.2996</v>
       </c>
       <c r="G150" t="n">
-        <v>-15425242.73375074</v>
+        <v>4.462499999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,68 +6020,84 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C151" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="D151" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="E151" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="F151" t="n">
-        <v>8502.590099999999</v>
+        <v>34893</v>
       </c>
       <c r="G151" t="n">
-        <v>-15425242.73375074</v>
+        <v>4.468499999999998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C152" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D152" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="E152" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F152" t="n">
-        <v>596809.9054</v>
+        <v>52893.6403</v>
       </c>
       <c r="G152" t="n">
-        <v>-14828432.82835074</v>
+        <v>4.475499999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,33 +6106,40 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C153" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D153" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E153" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F153" t="n">
-        <v>17558.6492</v>
+        <v>80921.10129999999</v>
       </c>
       <c r="G153" t="n">
-        <v>-14828432.82835074</v>
+        <v>4.478999999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,33 +6148,40 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="C154" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D154" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="E154" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F154" t="n">
-        <v>25342.7292</v>
+        <v>9723.546200000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-14828432.82835074</v>
+        <v>4.480499999999998</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,33 +6190,40 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C155" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D155" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E155" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="F155" t="n">
-        <v>216000.4204</v>
+        <v>15081.9999</v>
       </c>
       <c r="G155" t="n">
-        <v>-14828432.82835074</v>
+        <v>4.482499999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,33 +6232,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C156" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D156" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E156" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="F156" t="n">
-        <v>20300.6894</v>
+        <v>24749.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>-14828432.82835074</v>
+        <v>4.486999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,33 +6274,40 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C157" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="D157" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E157" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="F157" t="n">
-        <v>29855.7268</v>
+        <v>9946.604499999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-14858288.55515074</v>
+        <v>4.491999999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,33 +6316,40 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C158" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="D158" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E158" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="F158" t="n">
-        <v>1289193.1886</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>-13569095.36655074</v>
+        <v>4.494999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,33 +6358,40 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C159" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D159" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E159" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F159" t="n">
-        <v>70619.02340000001</v>
+        <v>91314.4507</v>
       </c>
       <c r="G159" t="n">
-        <v>-13569095.36655074</v>
+        <v>4.4975</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,74 +6400,82 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="C160" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F160" t="n">
+        <v>22075.0551</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.496</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
         <v>4.43</v>
       </c>
-      <c r="D160" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F160" t="n">
-        <v>464094.8782</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-14033190.24475074</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="C161" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="D161" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="E161" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="F161" t="n">
-        <v>58932.6431</v>
+        <v>56244.7866</v>
       </c>
       <c r="G161" t="n">
-        <v>-13974257.60165074</v>
+        <v>4.5005</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6028,9 +6484,11 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K161" t="n">
         <v>4.43</v>
       </c>
-      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,39 +6497,40 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C162" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D162" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E162" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F162" t="n">
-        <v>6108.3885</v>
+        <v>289035.7276</v>
       </c>
       <c r="G162" t="n">
-        <v>-13968149.21315074</v>
+        <v>4.504</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>4.43</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6080,39 +6539,42 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>82671.2687</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K163" t="n">
         <v>4.43</v>
       </c>
-      <c r="C163" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F163" t="n">
-        <v>257974.1378</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-14226123.35095074</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6121,39 +6583,40 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="C164" t="n">
         <v>4.47</v>
       </c>
       <c r="D164" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="E164" t="n">
         <v>4.47</v>
       </c>
       <c r="F164" t="n">
-        <v>20</v>
+        <v>62573.7897</v>
       </c>
       <c r="G164" t="n">
-        <v>-14226103.35095074</v>
+        <v>4.5095</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>4.43</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,1664 +6625,7 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D165" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E165" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F165" t="n">
-        <v>481928.357</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-13744174.99395074</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F166" t="n">
-        <v>15112</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-13729062.99395074</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C167" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E167" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F167" t="n">
-        <v>492187.777</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-13236875.21695074</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D168" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F168" t="n">
-        <v>492158.0842</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-13729033.30115074</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D169" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F169" t="n">
-        <v>216872.8691</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-13512160.43205074</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D170" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F170" t="n">
-        <v>268051.4885</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-13780211.92055074</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C171" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D171" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E171" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F171" t="n">
-        <v>994676.0965</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D172" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E172" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1157557.5942</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C173" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D173" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E173" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6103.1176</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C174" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D174" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E174" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F174" t="n">
-        <v>154673.5313</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-12940209.35535074</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E176" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F176" t="n">
-        <v>55380</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D177" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F177" t="n">
-        <v>60546.8045</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F178" t="n">
-        <v>315919.5261</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E179" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F179" t="n">
-        <v>208512.3932</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F180" t="n">
-        <v>291688.1849</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-12648511.17045074</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F181" t="n">
-        <v>10320.0668</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-12658831.23725074</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F182" t="n">
-        <v>90020</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-12568811.23725074</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D183" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F183" t="n">
-        <v>80010</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-12648821.23725074</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F184" t="n">
-        <v>100020</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-12548801.23725074</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F185" t="n">
-        <v>86435.61259999999</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-12635236.84985074</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F186" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-12535226.84985074</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F187" t="n">
-        <v>268828.4271</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-12804055.27695074</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F188" t="n">
-        <v>125722</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-12929777.27695074</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>60870</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-12929777.27695074</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-12929767.27695074</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>14651</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-12944418.27695074</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F192" t="n">
-        <v>51857.2996</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-12892560.97735074</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F193" t="n">
-        <v>34893</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-12857667.97735074</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F194" t="n">
-        <v>52893.6403</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-12804774.33705074</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D195" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F195" t="n">
-        <v>80921.10129999999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-12885695.43835074</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E196" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F196" t="n">
-        <v>9723.546200000001</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-12895418.98455074</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F197" t="n">
-        <v>15081.9999</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F198" t="n">
-        <v>24749.9999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F199" t="n">
-        <v>9946.604499999999</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F200" t="n">
-        <v>10</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-12880326.98465074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>91314.4507</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-12971641.43535074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F202" t="n">
-        <v>22075.0551</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-12949566.38025074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F203" t="n">
-        <v>56244.7866</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-12949566.38025074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>289035.7276</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-13238602.10785074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>82671.2687</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-13238602.10785074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F206" t="n">
-        <v>62573.7897</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-13301175.89755074</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52</v>
+        <v>4.33</v>
       </c>
       <c r="C2" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="D2" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="E2" t="n">
-        <v>4.52</v>
+        <v>4.33</v>
       </c>
       <c r="F2" t="n">
-        <v>403955.1347</v>
+        <v>216842.2623</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5505</v>
+        <v>-1214944.2017</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="C3" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="D3" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="E3" t="n">
-        <v>4.52</v>
+        <v>4.33</v>
       </c>
       <c r="F3" t="n">
-        <v>1659555.2119</v>
+        <v>204348.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5575</v>
+        <v>-1214944.2017</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.33</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.56</v>
+        <v>4.33</v>
       </c>
       <c r="C4" t="n">
-        <v>4.59</v>
+        <v>4.33</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59</v>
+        <v>4.33</v>
       </c>
       <c r="E4" t="n">
-        <v>4.56</v>
+        <v>4.33</v>
       </c>
       <c r="F4" t="n">
-        <v>263386.3369</v>
+        <v>551.3215</v>
       </c>
       <c r="G4" t="n">
-        <v>4.563000000000001</v>
+        <v>-1214944.2017</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
       <c r="C5" t="n">
-        <v>4.65</v>
+        <v>4.39</v>
       </c>
       <c r="D5" t="n">
-        <v>4.66</v>
+        <v>4.39</v>
       </c>
       <c r="E5" t="n">
-        <v>4.52</v>
+        <v>4.39</v>
       </c>
       <c r="F5" t="n">
-        <v>904468.9892</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>4.570500000000001</v>
+        <v>-1214933.2017</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="C6" t="n">
-        <v>4.66</v>
+        <v>4.33</v>
       </c>
       <c r="D6" t="n">
-        <v>4.66</v>
+        <v>4.33</v>
       </c>
       <c r="E6" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="F6" t="n">
-        <v>431140.4056</v>
+        <v>57580</v>
       </c>
       <c r="G6" t="n">
-        <v>4.571000000000001</v>
+        <v>-1272513.2017</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.39</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.66</v>
+        <v>4.33</v>
       </c>
       <c r="C7" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="D7" t="n">
-        <v>4.69</v>
+        <v>4.33</v>
       </c>
       <c r="E7" t="n">
-        <v>4.57</v>
+        <v>4.33</v>
       </c>
       <c r="F7" t="n">
-        <v>1253534.6788</v>
+        <v>264.4</v>
       </c>
       <c r="G7" t="n">
-        <v>4.575500000000001</v>
+        <v>-1272513.2017</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="C8" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="D8" t="n">
-        <v>4.69</v>
+        <v>4.33</v>
       </c>
       <c r="E8" t="n">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="F8" t="n">
-        <v>249288.1173</v>
+        <v>596.58</v>
       </c>
       <c r="G8" t="n">
-        <v>4.584500000000001</v>
+        <v>-1272513.2017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +728,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.65</v>
+        <v>4.34</v>
       </c>
       <c r="C9" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="n">
-        <v>4.69</v>
+        <v>4.4</v>
       </c>
       <c r="E9" t="n">
-        <v>4.65</v>
+        <v>4.34</v>
       </c>
       <c r="F9" t="n">
-        <v>186131.8191</v>
+        <v>16500</v>
       </c>
       <c r="G9" t="n">
-        <v>4.592000000000001</v>
+        <v>-1256013.2017</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.33</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +768,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="C10" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="D10" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="E10" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="F10" t="n">
-        <v>120163.4103</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.600000000000001</v>
+        <v>-1266013.2017</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +812,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="C11" t="n">
-        <v>4.69</v>
+        <v>4.34</v>
       </c>
       <c r="D11" t="n">
-        <v>4.69</v>
+        <v>4.34</v>
       </c>
       <c r="E11" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="F11" t="n">
-        <v>79709.91590000001</v>
+        <v>220313.931</v>
       </c>
       <c r="G11" t="n">
-        <v>4.601500000000001</v>
+        <v>-1045699.2707</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +836,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.69</v>
+        <v>4.33</v>
       </c>
       <c r="C12" t="n">
-        <v>4.64</v>
+        <v>4.33</v>
       </c>
       <c r="D12" t="n">
-        <v>4.69</v>
+        <v>4.33</v>
       </c>
       <c r="E12" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="F12" t="n">
-        <v>95218.35679999999</v>
+        <v>2508.2298</v>
       </c>
       <c r="G12" t="n">
-        <v>4.607500000000002</v>
+        <v>-1048207.5005</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +890,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C13" t="n">
-        <v>4.69</v>
+        <v>4.4</v>
       </c>
       <c r="D13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="E13" t="n">
-        <v>4.61</v>
+        <v>4.4</v>
       </c>
       <c r="F13" t="n">
-        <v>52239.7338</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>4.610500000000002</v>
+        <v>-1048197.5005</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +926,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.69</v>
+        <v>4.33</v>
       </c>
       <c r="C14" t="n">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="D14" t="n">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="E14" t="n">
-        <v>4.62</v>
+        <v>4.33</v>
       </c>
       <c r="F14" t="n">
-        <v>184469.6359</v>
+        <v>871000</v>
       </c>
       <c r="G14" t="n">
-        <v>4.615500000000002</v>
+        <v>-1919197.5005</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.63</v>
+        <v>4.33</v>
       </c>
       <c r="C15" t="n">
-        <v>4.72</v>
+        <v>4.33</v>
       </c>
       <c r="D15" t="n">
-        <v>4.72</v>
+        <v>4.33</v>
       </c>
       <c r="E15" t="n">
-        <v>4.63</v>
+        <v>4.33</v>
       </c>
       <c r="F15" t="n">
-        <v>151827.645</v>
+        <v>26513.2762</v>
       </c>
       <c r="G15" t="n">
-        <v>4.617000000000002</v>
+        <v>-1919197.5005</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +998,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.67</v>
+        <v>4.34</v>
       </c>
       <c r="C16" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="D16" t="n">
-        <v>4.67</v>
+        <v>4.34</v>
       </c>
       <c r="E16" t="n">
-        <v>4.57</v>
+        <v>4.33</v>
       </c>
       <c r="F16" t="n">
-        <v>856436.6633</v>
+        <v>62000</v>
       </c>
       <c r="G16" t="n">
-        <v>4.621500000000002</v>
+        <v>-1919197.5005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +1034,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="C17" t="n">
-        <v>4.59</v>
+        <v>4.33</v>
       </c>
       <c r="D17" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="E17" t="n">
-        <v>4.59</v>
+        <v>4.33</v>
       </c>
       <c r="F17" t="n">
-        <v>250000</v>
+        <v>94168.1168</v>
       </c>
       <c r="G17" t="n">
-        <v>4.623000000000002</v>
+        <v>-1919197.5005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,31 +1070,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="C18" t="n">
-        <v>4.61</v>
+        <v>4.32</v>
       </c>
       <c r="D18" t="n">
-        <v>4.66</v>
+        <v>4.32</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="F18" t="n">
-        <v>328044.2178</v>
+        <v>111000</v>
       </c>
       <c r="G18" t="n">
-        <v>4.625000000000002</v>
+        <v>-2030197.5005</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1050,22 +1110,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.64</v>
+        <v>4.32</v>
       </c>
       <c r="C19" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="D19" t="n">
-        <v>4.64</v>
+        <v>4.32</v>
       </c>
       <c r="E19" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="F19" t="n">
-        <v>175653.084</v>
+        <v>544090.9089</v>
       </c>
       <c r="G19" t="n">
-        <v>4.629000000000001</v>
+        <v>-2030197.5005</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1152,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.7</v>
+        <v>4.32</v>
       </c>
       <c r="C20" t="n">
-        <v>4.63</v>
+        <v>4.38</v>
       </c>
       <c r="D20" t="n">
-        <v>4.7</v>
+        <v>4.38</v>
       </c>
       <c r="E20" t="n">
-        <v>4.63</v>
+        <v>4.32</v>
       </c>
       <c r="F20" t="n">
-        <v>347634.5673</v>
+        <v>172023.234</v>
       </c>
       <c r="G20" t="n">
-        <v>4.636000000000001</v>
+        <v>-1858174.2665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1196,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.71</v>
+        <v>4.36</v>
       </c>
       <c r="C21" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="D21" t="n">
-        <v>4.71</v>
+        <v>4.36</v>
       </c>
       <c r="E21" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="F21" t="n">
-        <v>341131.9189</v>
+        <v>48720</v>
       </c>
       <c r="G21" t="n">
-        <v>4.640000000000001</v>
+        <v>-1906894.2665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1220,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1238,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="C22" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7</v>
+        <v>4.36</v>
       </c>
       <c r="E22" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="F22" t="n">
-        <v>277635.7978</v>
+        <v>57713</v>
       </c>
       <c r="G22" t="n">
-        <v>4.649000000000002</v>
+        <v>-1906894.2665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1262,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1280,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.63</v>
+        <v>4.38</v>
       </c>
       <c r="C23" t="n">
-        <v>4.62</v>
+        <v>4.39</v>
       </c>
       <c r="D23" t="n">
-        <v>4.63</v>
+        <v>4.39</v>
       </c>
       <c r="E23" t="n">
-        <v>4.62</v>
+        <v>4.38</v>
       </c>
       <c r="F23" t="n">
-        <v>160000</v>
+        <v>481693.9892</v>
       </c>
       <c r="G23" t="n">
-        <v>4.649500000000002</v>
+        <v>-1425200.2773</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1322,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.62</v>
+        <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D24" t="n">
-        <v>4.62</v>
+        <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1424634.6726</v>
+        <v>310960.6011</v>
       </c>
       <c r="G24" t="n">
-        <v>4.652500000000002</v>
+        <v>-1114239.6762</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1346,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="D25" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="E25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F25" t="n">
-        <v>169523.4968</v>
+        <v>16097.4602</v>
       </c>
       <c r="G25" t="n">
-        <v>4.653</v>
+        <v>-1098142.216</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1406,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="C26" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="D26" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="E26" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="F26" t="n">
-        <v>131395.0867</v>
+        <v>10683.4708</v>
       </c>
       <c r="G26" t="n">
-        <v>4.652500000000001</v>
+        <v>-1098142.216</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1448,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="C27" t="n">
-        <v>4.64</v>
+        <v>4.41</v>
       </c>
       <c r="D27" t="n">
-        <v>4.64</v>
+        <v>4.41</v>
       </c>
       <c r="E27" t="n">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="F27" t="n">
-        <v>187047.1216</v>
+        <v>3677.2353</v>
       </c>
       <c r="G27" t="n">
-        <v>4.649500000000001</v>
+        <v>-1098142.216</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="C28" t="n">
-        <v>4.64</v>
+        <v>4.33</v>
       </c>
       <c r="D28" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="E28" t="n">
-        <v>4.61</v>
+        <v>4.33</v>
       </c>
       <c r="F28" t="n">
-        <v>323444.1924</v>
+        <v>1725928.0153</v>
       </c>
       <c r="G28" t="n">
-        <v>4.6475</v>
+        <v>-2824070.2313</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1514,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1532,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="C29" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="D29" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="E29" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="F29" t="n">
-        <v>279631.2988</v>
+        <v>138420.292</v>
       </c>
       <c r="G29" t="n">
-        <v>4.647</v>
+        <v>-2685649.9393</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1574,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="C30" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D30" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="E30" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="F30" t="n">
-        <v>19689.3105</v>
+        <v>333122.3652</v>
       </c>
       <c r="G30" t="n">
-        <v>4.641999999999999</v>
+        <v>-2352527.5741</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1598,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1616,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="C31" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="D31" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="E31" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="F31" t="n">
-        <v>183612.7364</v>
+        <v>5731.1024</v>
       </c>
       <c r="G31" t="n">
-        <v>4.6435</v>
+        <v>-2352527.5741</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1658,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C32" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="D32" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="E32" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="F32" t="n">
-        <v>67215.3492</v>
+        <v>215444.7546</v>
       </c>
       <c r="G32" t="n">
-        <v>4.641</v>
+        <v>-2567972.3287</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1682,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="C33" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="D33" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="E33" t="n">
-        <v>4.64</v>
+        <v>4.42</v>
       </c>
       <c r="F33" t="n">
-        <v>102599.5214</v>
+        <v>929020.5853</v>
       </c>
       <c r="G33" t="n">
-        <v>4.638</v>
+        <v>-1638951.743400001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1724,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1742,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="C34" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D34" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E34" t="n">
-        <v>4.6</v>
+        <v>4.42</v>
       </c>
       <c r="F34" t="n">
-        <v>137681.2608</v>
+        <v>191126.291</v>
       </c>
       <c r="G34" t="n">
-        <v>4.6335</v>
+        <v>-1447825.452400001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1766,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1784,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C35" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D35" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E35" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F35" t="n">
-        <v>85149.2148</v>
+        <v>95931.87772925</v>
       </c>
       <c r="G35" t="n">
-        <v>4.632</v>
+        <v>-1543757.33012925</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1808,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="C36" t="n">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="D36" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="E36" t="n">
-        <v>4.51</v>
+        <v>4.41</v>
       </c>
       <c r="F36" t="n">
-        <v>493142.2461</v>
+        <v>983678.10043668</v>
       </c>
       <c r="G36" t="n">
-        <v>4.626499999999999</v>
+        <v>-2527435.43056593</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1850,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1868,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="C37" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="D37" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="E37" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>4.629</v>
+        <v>-2527424.43056593</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1892,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1910,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="C38" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="D38" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E38" t="n">
-        <v>4.64</v>
+        <v>4.43</v>
       </c>
       <c r="F38" t="n">
-        <v>107758.6206</v>
+        <v>148963.4649</v>
       </c>
       <c r="G38" t="n">
-        <v>4.631</v>
+        <v>-2378460.96566593</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1952,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.54</v>
+        <v>4.45</v>
       </c>
       <c r="C39" t="n">
-        <v>4.54</v>
+        <v>4.42</v>
       </c>
       <c r="D39" t="n">
-        <v>4.54</v>
+        <v>4.57</v>
       </c>
       <c r="E39" t="n">
-        <v>4.54</v>
+        <v>4.42</v>
       </c>
       <c r="F39" t="n">
-        <v>179339.616</v>
+        <v>474005.7992</v>
       </c>
       <c r="G39" t="n">
-        <v>4.626</v>
+        <v>-2852466.76486593</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1976,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1994,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="C40" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="D40" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="E40" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="F40" t="n">
-        <v>902338.1677</v>
+        <v>575809.0198</v>
       </c>
       <c r="G40" t="n">
-        <v>4.618</v>
+        <v>-2276657.74506593</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2036,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C41" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="D41" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="E41" t="n">
-        <v>4.5</v>
+        <v>4.41</v>
       </c>
       <c r="F41" t="n">
-        <v>84900</v>
+        <v>342074.3305</v>
       </c>
       <c r="G41" t="n">
-        <v>4.608500000000001</v>
+        <v>-2618732.07556593</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2060,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2078,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="C42" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="D42" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="E42" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="F42" t="n">
-        <v>775487.0324</v>
+        <v>593725.49332456</v>
       </c>
       <c r="G42" t="n">
-        <v>4.5985</v>
+        <v>-2025006.58224137</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2120,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="C43" t="n">
-        <v>4.49</v>
+        <v>4.79</v>
       </c>
       <c r="D43" t="n">
-        <v>4.59</v>
+        <v>4.8</v>
       </c>
       <c r="E43" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="F43" t="n">
-        <v>340299.6269</v>
+        <v>1326190.00846563</v>
       </c>
       <c r="G43" t="n">
-        <v>4.596500000000001</v>
+        <v>-698816.5737757403</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2144,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2162,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.5</v>
+        <v>4.79</v>
       </c>
       <c r="C44" t="n">
-        <v>4.59</v>
+        <v>4.76</v>
       </c>
       <c r="D44" t="n">
-        <v>4.59</v>
+        <v>4.8</v>
       </c>
       <c r="E44" t="n">
-        <v>4.49</v>
+        <v>4.41</v>
       </c>
       <c r="F44" t="n">
-        <v>455144.9756</v>
+        <v>954273.47426937</v>
       </c>
       <c r="G44" t="n">
-        <v>4.5905</v>
+        <v>-1653090.04804511</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2204,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="C45" t="n">
-        <v>4.59</v>
+        <v>4.76</v>
       </c>
       <c r="D45" t="n">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="E45" t="n">
-        <v>4.59</v>
+        <v>4.36</v>
       </c>
       <c r="F45" t="n">
-        <v>11226.3834</v>
+        <v>1133775.55648535</v>
       </c>
       <c r="G45" t="n">
-        <v>4.590000000000002</v>
+        <v>-1653090.04804511</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2228,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2246,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.53</v>
+        <v>4.45</v>
       </c>
       <c r="C46" t="n">
-        <v>4.51</v>
+        <v>4.67</v>
       </c>
       <c r="D46" t="n">
-        <v>4.53</v>
+        <v>4.7</v>
       </c>
       <c r="E46" t="n">
-        <v>4.51</v>
+        <v>4.4</v>
       </c>
       <c r="F46" t="n">
-        <v>408947.1966</v>
+        <v>466786.52457687</v>
       </c>
       <c r="G46" t="n">
-        <v>4.586000000000001</v>
+        <v>-2119876.572621981</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2288,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C47" t="n">
         <v>4.49</v>
       </c>
-      <c r="C47" t="n">
-        <v>4.58</v>
-      </c>
       <c r="D47" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E47" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="F47" t="n">
-        <v>260403.7329</v>
+        <v>15116.2457</v>
       </c>
       <c r="G47" t="n">
-        <v>4.580500000000002</v>
+        <v>-2134992.818321981</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2312,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2330,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="C48" t="n">
-        <v>4.49</v>
+        <v>4.67</v>
       </c>
       <c r="D48" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="E48" t="n">
-        <v>4.49</v>
+        <v>4.4</v>
       </c>
       <c r="F48" t="n">
-        <v>96995.1744</v>
+        <v>2331369.0903</v>
       </c>
       <c r="G48" t="n">
-        <v>4.574500000000001</v>
+        <v>196376.2719780193</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2354,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2372,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.56</v>
+        <v>4.67</v>
       </c>
       <c r="C49" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="D49" t="n">
-        <v>4.59</v>
+        <v>4.7</v>
       </c>
       <c r="E49" t="n">
-        <v>4.56</v>
+        <v>4.67</v>
       </c>
       <c r="F49" t="n">
-        <v>810010</v>
+        <v>209045.91968</v>
       </c>
       <c r="G49" t="n">
-        <v>4.570500000000001</v>
+        <v>405422.1916580193</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2396,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2414,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C50" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="D50" t="n">
-        <v>4.6</v>
+        <v>4.68</v>
       </c>
       <c r="E50" t="n">
-        <v>4.59</v>
+        <v>4.4</v>
       </c>
       <c r="F50" t="n">
-        <v>168211.186</v>
+        <v>1118051.4848</v>
       </c>
       <c r="G50" t="n">
-        <v>4.570000000000002</v>
+        <v>-712629.2931419807</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2456,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="C51" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="D51" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="E51" t="n">
-        <v>4.62</v>
+        <v>4.46</v>
       </c>
       <c r="F51" t="n">
-        <v>31505.6277</v>
+        <v>3058916.5944</v>
       </c>
       <c r="G51" t="n">
-        <v>4.569500000000002</v>
+        <v>2346287.301258019</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2498,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="C52" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="D52" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E52" t="n">
-        <v>4.62</v>
+        <v>4.48</v>
       </c>
       <c r="F52" t="n">
-        <v>96458</v>
+        <v>1832959.9473</v>
       </c>
       <c r="G52" t="n">
-        <v>4.568500000000002</v>
+        <v>513327.3539580191</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2540,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C53" t="n">
-        <v>4.62</v>
+        <v>4.48</v>
       </c>
       <c r="D53" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="E53" t="n">
-        <v>4.62</v>
+        <v>4.45</v>
       </c>
       <c r="F53" t="n">
-        <v>9297.8441</v>
+        <v>468778.8666</v>
       </c>
       <c r="G53" t="n">
-        <v>4.567500000000003</v>
+        <v>44548.48735801905</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2582,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.56</v>
+        <v>4.48</v>
       </c>
       <c r="C54" t="n">
-        <v>4.56</v>
+        <v>4.48</v>
       </c>
       <c r="D54" t="n">
-        <v>4.56</v>
+        <v>4.48</v>
       </c>
       <c r="E54" t="n">
-        <v>4.56</v>
+        <v>4.48</v>
       </c>
       <c r="F54" t="n">
-        <v>20162.5677</v>
+        <v>6691.0675</v>
       </c>
       <c r="G54" t="n">
-        <v>4.565500000000003</v>
+        <v>44548.48735801905</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2606,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2624,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.54</v>
+        <v>4.45</v>
       </c>
       <c r="C55" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="D55" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="E55" t="n">
-        <v>4.49</v>
+        <v>4.44</v>
       </c>
       <c r="F55" t="n">
-        <v>910278.3734</v>
+        <v>832141.6939</v>
       </c>
       <c r="G55" t="n">
-        <v>4.562500000000004</v>
+        <v>-787593.2065419808</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2666,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="C56" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D56" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="F56" t="n">
-        <v>85743.1868</v>
+        <v>319193.2589</v>
       </c>
       <c r="G56" t="n">
-        <v>4.564500000000003</v>
+        <v>-468399.9476419808</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2708,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C57" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D57" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="E57" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="F57" t="n">
-        <v>74889.37089999999</v>
+        <v>3830.387</v>
       </c>
       <c r="G57" t="n">
-        <v>4.561500000000003</v>
+        <v>-472230.3346419808</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2753,19 @@
         <v>4.57</v>
       </c>
       <c r="C58" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D58" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E58" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="F58" t="n">
-        <v>387000</v>
+        <v>1272468.1175</v>
       </c>
       <c r="G58" t="n">
-        <v>4.558000000000003</v>
+        <v>800237.7828580191</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2774,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2792,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="C59" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D59" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E59" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="F59" t="n">
-        <v>261747.6657</v>
+        <v>261812.4139</v>
       </c>
       <c r="G59" t="n">
-        <v>4.560000000000003</v>
+        <v>538425.3689580191</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2816,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2834,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.62</v>
+        <v>4.5</v>
       </c>
       <c r="C60" t="n">
-        <v>4.68</v>
+        <v>4.56</v>
       </c>
       <c r="D60" t="n">
-        <v>4.68</v>
+        <v>4.57</v>
       </c>
       <c r="E60" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="F60" t="n">
-        <v>351693.2559</v>
+        <v>1389422.4122</v>
       </c>
       <c r="G60" t="n">
-        <v>4.564000000000003</v>
+        <v>-850997.0432419808</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2858,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2876,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.68</v>
+        <v>4.54</v>
       </c>
       <c r="C61" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="D61" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="E61" t="n">
-        <v>4.61</v>
+        <v>4.49</v>
       </c>
       <c r="F61" t="n">
-        <v>905165.6731</v>
+        <v>368974.6914</v>
       </c>
       <c r="G61" t="n">
-        <v>4.572000000000004</v>
+        <v>-482022.3518419808</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2918,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="C62" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="D62" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="E62" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="F62" t="n">
-        <v>192315.478</v>
+        <v>100914.4763</v>
       </c>
       <c r="G62" t="n">
-        <v>4.578000000000004</v>
+        <v>-582936.8281419808</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2960,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="C63" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D63" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E63" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="F63" t="n">
-        <v>257572.7195</v>
+        <v>371506.0088</v>
       </c>
       <c r="G63" t="n">
-        <v>4.579500000000004</v>
+        <v>-211430.8193419808</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +3002,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C64" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="D64" t="n">
-        <v>4.62</v>
+        <v>4.77</v>
       </c>
       <c r="E64" t="n">
         <v>4.58</v>
       </c>
       <c r="F64" t="n">
-        <v>250197.4084</v>
+        <v>546045.3628999999</v>
       </c>
       <c r="G64" t="n">
-        <v>4.585500000000004</v>
+        <v>334614.5435580192</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3044,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C65" t="n">
-        <v>4.64</v>
+        <v>4.74</v>
       </c>
       <c r="D65" t="n">
-        <v>4.64</v>
+        <v>4.74</v>
       </c>
       <c r="E65" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="F65" t="n">
-        <v>110</v>
+        <v>634048.368</v>
       </c>
       <c r="G65" t="n">
-        <v>4.588000000000004</v>
+        <v>968662.9115580192</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3068,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C66" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="D66" t="n">
-        <v>4.64</v>
+        <v>4.72</v>
       </c>
       <c r="E66" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="F66" t="n">
-        <v>1050651.5086</v>
+        <v>839895.6296</v>
       </c>
       <c r="G66" t="n">
-        <v>4.593500000000004</v>
+        <v>128767.2819580192</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +3128,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="C67" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="D67" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E67" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="F67" t="n">
-        <v>139133.5951</v>
+        <v>1407913.387</v>
       </c>
       <c r="G67" t="n">
-        <v>4.600000000000004</v>
+        <v>-1279146.105041981</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3170,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.69</v>
+        <v>4.57</v>
       </c>
       <c r="C68" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="D68" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="E68" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F68" t="n">
-        <v>868143.6902</v>
+        <v>414988.1921</v>
       </c>
       <c r="G68" t="n">
-        <v>4.610000000000005</v>
+        <v>-864157.9129419808</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2838,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +3212,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="C69" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D69" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="E69" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F69" t="n">
-        <v>46979.0248</v>
+        <v>205479.9797</v>
       </c>
       <c r="G69" t="n">
-        <v>4.614000000000004</v>
+        <v>-1069637.892641981</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3254,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C70" t="n">
-        <v>4.57</v>
+        <v>4.52</v>
       </c>
       <c r="D70" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E70" t="n">
-        <v>4.57</v>
+        <v>4.51</v>
       </c>
       <c r="F70" t="n">
-        <v>890485.2751</v>
+        <v>1267805.1304</v>
       </c>
       <c r="G70" t="n">
-        <v>4.613500000000004</v>
+        <v>-2337443.02304198</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2910,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3296,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C71" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D71" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="E71" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F71" t="n">
-        <v>50952.0807</v>
+        <v>57736.2763</v>
       </c>
       <c r="G71" t="n">
-        <v>4.611500000000004</v>
+        <v>-2279706.74674198</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2946,8 +3320,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3338,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D72" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E72" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>882826.4365</v>
       </c>
       <c r="G72" t="n">
-        <v>4.612500000000003</v>
+        <v>-1396880.31024198</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2982,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,32 +3380,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.64</v>
+        <v>4.52</v>
       </c>
       <c r="C73" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D73" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="E73" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="F73" t="n">
-        <v>263620.571</v>
+        <v>403955.1347</v>
       </c>
       <c r="G73" t="n">
-        <v>4.613500000000004</v>
+        <v>-992925.1755419804</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3422,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="C74" t="n">
-        <v>4.67</v>
+        <v>4.58</v>
       </c>
       <c r="D74" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="E74" t="n">
-        <v>4.67</v>
+        <v>4.52</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1659555.2119</v>
       </c>
       <c r="G74" t="n">
-        <v>4.619000000000003</v>
+        <v>-2652480.387441981</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3464,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.68</v>
+        <v>4.56</v>
       </c>
       <c r="C75" t="n">
-        <v>4.68</v>
+        <v>4.59</v>
       </c>
       <c r="D75" t="n">
-        <v>4.68</v>
+        <v>4.59</v>
       </c>
       <c r="E75" t="n">
-        <v>4.68</v>
+        <v>4.56</v>
       </c>
       <c r="F75" t="n">
-        <v>99</v>
+        <v>263386.3369</v>
       </c>
       <c r="G75" t="n">
-        <v>4.626000000000003</v>
+        <v>-2389094.050541981</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3090,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,32 +3506,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="C76" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="D76" t="n">
-        <v>4.61</v>
+        <v>4.66</v>
       </c>
       <c r="E76" t="n">
-        <v>4.61</v>
+        <v>4.52</v>
       </c>
       <c r="F76" t="n">
-        <v>1229.727</v>
+        <v>904468.9892</v>
       </c>
       <c r="G76" t="n">
-        <v>4.626500000000003</v>
+        <v>-1484625.061341981</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,32 +3548,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="C77" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="D77" t="n">
         <v>4.66</v>
       </c>
       <c r="E77" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F77" t="n">
-        <v>310373.1333</v>
+        <v>431140.4056</v>
       </c>
       <c r="G77" t="n">
-        <v>4.627500000000003</v>
+        <v>-1053484.655741981</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3590,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="C78" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D78" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="E78" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F78" t="n">
-        <v>320394.033</v>
+        <v>1253534.6788</v>
       </c>
       <c r="G78" t="n">
-        <v>4.629000000000002</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3198,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3213,29 +3635,35 @@
         <v>4.65</v>
       </c>
       <c r="C79" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="D79" t="n">
-        <v>4.65</v>
+        <v>4.69</v>
       </c>
       <c r="E79" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F79" t="n">
-        <v>392420.6399</v>
+        <v>249288.1173</v>
       </c>
       <c r="G79" t="n">
-        <v>4.632500000000002</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,32 +3674,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="C80" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="D80" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
       <c r="E80" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="F80" t="n">
-        <v>198118.6147</v>
+        <v>186131.8191</v>
       </c>
       <c r="G80" t="n">
-        <v>4.635000000000002</v>
+        <v>-2307019.334541981</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,32 +3716,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="C81" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="E81" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="F81" t="n">
-        <v>513021.6013</v>
+        <v>120163.4103</v>
       </c>
       <c r="G81" t="n">
-        <v>4.632000000000002</v>
+        <v>-2427182.744841981</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,32 +3758,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C82" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="D82" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="E82" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="F82" t="n">
-        <v>153502.9847</v>
+        <v>79709.91590000001</v>
       </c>
       <c r="G82" t="n">
-        <v>4.630500000000002</v>
+        <v>-2347472.828941981</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,32 +3800,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="C83" t="n">
-        <v>4.67</v>
+        <v>4.64</v>
       </c>
       <c r="D83" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
       <c r="E83" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="F83" t="n">
-        <v>171659.4766</v>
+        <v>95218.35679999999</v>
       </c>
       <c r="G83" t="n">
-        <v>4.632500000000002</v>
+        <v>-2442691.185741981</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3842,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C84" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="D84" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="E84" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F84" t="n">
-        <v>1530918.8352</v>
+        <v>52239.7338</v>
       </c>
       <c r="G84" t="n">
-        <v>4.631500000000001</v>
+        <v>-2390451.451941981</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,8 +3866,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,32 +3884,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="C85" t="n">
-        <v>4.56</v>
+        <v>4.76</v>
       </c>
       <c r="D85" t="n">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="E85" t="n">
-        <v>4.55</v>
+        <v>4.62</v>
       </c>
       <c r="F85" t="n">
-        <v>2073312.46600876</v>
+        <v>184469.6359</v>
       </c>
       <c r="G85" t="n">
-        <v>4.632500000000001</v>
+        <v>-2205981.816041981</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,32 +3926,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.77</v>
+        <v>4.63</v>
       </c>
       <c r="C86" t="n">
-        <v>4.71</v>
+        <v>4.72</v>
       </c>
       <c r="D86" t="n">
-        <v>4.77</v>
+        <v>4.72</v>
       </c>
       <c r="E86" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="F86" t="n">
-        <v>566490.2601</v>
+        <v>151827.645</v>
       </c>
       <c r="G86" t="n">
-        <v>4.639000000000001</v>
+        <v>-2357809.461041981</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3968,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.61</v>
+        <v>4.67</v>
       </c>
       <c r="C87" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="D87" t="n">
-        <v>4.69</v>
+        <v>4.67</v>
       </c>
       <c r="E87" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F87" t="n">
-        <v>102504.9494</v>
+        <v>856436.6633</v>
       </c>
       <c r="G87" t="n">
-        <v>4.638500000000001</v>
+        <v>-3214246.124341981</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,32 +4010,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C88" t="n">
-        <v>4.69</v>
+        <v>4.59</v>
       </c>
       <c r="D88" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="E88" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="F88" t="n">
-        <v>78898.2552</v>
+        <v>250000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.6355</v>
+        <v>-2964246.124341981</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3570,32 +4052,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C89" t="n">
-        <v>4.69</v>
+        <v>4.61</v>
       </c>
       <c r="D89" t="n">
-        <v>4.69</v>
+        <v>4.66</v>
       </c>
       <c r="E89" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="F89" t="n">
-        <v>698624.2373</v>
+        <v>328044.2178</v>
       </c>
       <c r="G89" t="n">
-        <v>4.635</v>
+        <v>-2636201.906541982</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3612,26 +4100,32 @@
         <v>4.63</v>
       </c>
       <c r="D90" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="E90" t="n">
         <v>4.63</v>
       </c>
       <c r="F90" t="n">
-        <v>311512.138</v>
+        <v>175653.084</v>
       </c>
       <c r="G90" t="n">
-        <v>4.638</v>
+        <v>-2460548.822541982</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3642,32 +4136,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="C91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="D91" t="n">
-        <v>4.69</v>
+        <v>4.7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="F91" t="n">
-        <v>47643.6589</v>
+        <v>347634.5673</v>
       </c>
       <c r="G91" t="n">
-        <v>4.643</v>
+        <v>-2460548.822541982</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3678,32 +4178,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
       <c r="C92" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="D92" t="n">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
       <c r="E92" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="F92" t="n">
-        <v>13</v>
+        <v>341131.9189</v>
       </c>
       <c r="G92" t="n">
-        <v>4.6455</v>
+        <v>-2119416.903641982</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,32 +4220,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
       <c r="C93" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="D93" t="n">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
       <c r="E93" t="n">
         <v>4.63</v>
       </c>
       <c r="F93" t="n">
-        <v>148567.9265</v>
+        <v>277635.7978</v>
       </c>
       <c r="G93" t="n">
-        <v>4.645</v>
+        <v>-2119416.903641982</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3753,29 +4265,35 @@
         <v>4.63</v>
       </c>
       <c r="C94" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="D94" t="n">
-        <v>4.69</v>
+        <v>4.63</v>
       </c>
       <c r="E94" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="F94" t="n">
-        <v>516318.2797</v>
+        <v>160000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.642999999999999</v>
+        <v>-2279416.903641982</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3798,20 +4316,26 @@
         <v>4.6</v>
       </c>
       <c r="F95" t="n">
-        <v>307283.8301</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G95" t="n">
-        <v>4.639999999999999</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,32 +4346,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C96" t="n">
         <v>4.6</v>
       </c>
       <c r="D96" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="E96" t="n">
         <v>4.6</v>
       </c>
       <c r="F96" t="n">
-        <v>46927.8951</v>
+        <v>169523.4968</v>
       </c>
       <c r="G96" t="n">
-        <v>4.640999999999999</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3858,32 +4388,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="C97" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="n">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="E97" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="F97" t="n">
-        <v>12</v>
+        <v>131395.0867</v>
       </c>
       <c r="G97" t="n">
-        <v>4.644499999999999</v>
+        <v>-3704051.576241982</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,32 +4430,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="C98" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="D98" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E98" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>187047.1216</v>
       </c>
       <c r="G98" t="n">
-        <v>4.646999999999999</v>
+        <v>-3517004.454641982</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3930,32 +4472,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="C99" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="D99" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E99" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F99" t="n">
-        <v>69265.1439</v>
+        <v>323444.1924</v>
       </c>
       <c r="G99" t="n">
-        <v>4.644499999999999</v>
+        <v>-3517004.454641982</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +4514,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="C100" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="D100" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="E100" t="n">
-        <v>4.55</v>
+        <v>4.64</v>
       </c>
       <c r="F100" t="n">
-        <v>720000.8847000001</v>
+        <v>279631.2988</v>
       </c>
       <c r="G100" t="n">
-        <v>4.640499999999999</v>
+        <v>-3237373.155841982</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3990,34 +4538,42 @@
         <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1.068903002309469</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C101" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E101" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>19689.3105</v>
       </c>
       <c r="G101" t="n">
-        <v>4.641499999999999</v>
+        <v>-3257062.466341982</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4594,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="C102" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="D102" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="E102" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F102" t="n">
-        <v>257748.5422</v>
+        <v>183612.7364</v>
       </c>
       <c r="G102" t="n">
-        <v>4.642499999999998</v>
+        <v>-3073449.729941982</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4630,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C103" t="n">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="D103" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E103" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="F103" t="n">
-        <v>15102</v>
+        <v>67215.3492</v>
       </c>
       <c r="G103" t="n">
-        <v>4.640499999999999</v>
+        <v>-3140665.079141982</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,28 +4666,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="C104" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="D104" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="E104" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="F104" t="n">
-        <v>242413.5138</v>
+        <v>102599.5214</v>
       </c>
       <c r="G104" t="n">
-        <v>4.639999999999999</v>
+        <v>-3140665.079141982</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4702,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="C105" t="n">
-        <v>4.46</v>
+        <v>4.6</v>
       </c>
       <c r="D105" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="E105" t="n">
-        <v>4.46</v>
+        <v>4.6</v>
       </c>
       <c r="F105" t="n">
-        <v>273417.1912</v>
+        <v>137681.2608</v>
       </c>
       <c r="G105" t="n">
-        <v>4.631499999999999</v>
+        <v>-3278346.339941982</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4738,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="C106" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D106" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="E106" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F106" t="n">
-        <v>31473.4845</v>
+        <v>85149.2148</v>
       </c>
       <c r="G106" t="n">
-        <v>4.617499999999999</v>
+        <v>-3278346.339941982</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,28 +4774,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="C107" t="n">
-        <v>4.6</v>
+        <v>4.51</v>
       </c>
       <c r="D107" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E107" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="F107" t="n">
-        <v>5038.5738</v>
+        <v>493142.2461</v>
       </c>
       <c r="G107" t="n">
-        <v>4.611499999999999</v>
+        <v>-3771488.586041982</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4810,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="D108" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="E108" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="F108" t="n">
-        <v>450089.1954</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>4.604499999999999</v>
+        <v>-3771388.586041982</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,28 +4846,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="C109" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="D109" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="E109" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="F109" t="n">
-        <v>8502.590099999999</v>
+        <v>107758.6206</v>
       </c>
       <c r="G109" t="n">
-        <v>4.597499999999998</v>
+        <v>-3879147.206641982</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,28 +4882,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C110" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D110" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="E110" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F110" t="n">
-        <v>596809.9054</v>
+        <v>179339.616</v>
       </c>
       <c r="G110" t="n">
-        <v>4.592999999999998</v>
+        <v>-4058486.822641982</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4362,28 +4918,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C111" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="D111" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E111" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="F111" t="n">
-        <v>17558.6492</v>
+        <v>902338.1677</v>
       </c>
       <c r="G111" t="n">
-        <v>4.586499999999998</v>
+        <v>-4960824.990341982</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,28 +4954,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="C112" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D112" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="E112" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F112" t="n">
-        <v>25342.7292</v>
+        <v>84900</v>
       </c>
       <c r="G112" t="n">
-        <v>4.579499999999998</v>
+        <v>-5045724.990341982</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4434,22 +4990,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="C113" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D113" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="E113" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F113" t="n">
-        <v>216000.4204</v>
+        <v>775487.0324</v>
       </c>
       <c r="G113" t="n">
-        <v>4.575499999999998</v>
+        <v>-5045724.990341982</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +5026,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="C114" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="D114" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="E114" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="F114" t="n">
-        <v>20300.6894</v>
+        <v>340299.6269</v>
       </c>
       <c r="G114" t="n">
-        <v>4.571499999999999</v>
+        <v>-5386024.617241981</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +5062,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="C115" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="D115" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="E115" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="F115" t="n">
-        <v>29855.7268</v>
+        <v>455144.9756</v>
       </c>
       <c r="G115" t="n">
-        <v>4.567499999999998</v>
+        <v>-4930879.641641982</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +5098,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="C116" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="D116" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="E116" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="F116" t="n">
-        <v>1289193.1886</v>
+        <v>11226.3834</v>
       </c>
       <c r="G116" t="n">
-        <v>4.562999999999999</v>
+        <v>-4930879.641641982</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,28 +5134,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="C117" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D117" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E117" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="F117" t="n">
-        <v>70619.02340000001</v>
+        <v>408947.1966</v>
       </c>
       <c r="G117" t="n">
-        <v>4.556499999999998</v>
+        <v>-5339826.838241982</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,22 +5170,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="C118" t="n">
-        <v>4.43</v>
+        <v>4.58</v>
       </c>
       <c r="D118" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="E118" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="F118" t="n">
-        <v>464094.8782</v>
+        <v>260403.7329</v>
       </c>
       <c r="G118" t="n">
-        <v>4.547499999999998</v>
+        <v>-5079423.105341982</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,35 +5206,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.46</v>
+        <v>4.49</v>
       </c>
       <c r="C119" t="n">
-        <v>4.46</v>
+        <v>4.49</v>
       </c>
       <c r="D119" t="n">
-        <v>4.46</v>
+        <v>4.49</v>
       </c>
       <c r="E119" t="n">
-        <v>4.46</v>
+        <v>4.49</v>
       </c>
       <c r="F119" t="n">
-        <v>58932.6431</v>
+        <v>96995.1744</v>
       </c>
       <c r="G119" t="n">
-        <v>4.540499999999998</v>
+        <v>-5176418.279741982</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -4690,40 +5242,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="C120" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="D120" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="E120" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="F120" t="n">
-        <v>6108.3885</v>
+        <v>810010</v>
       </c>
       <c r="G120" t="n">
-        <v>4.537499999999998</v>
+        <v>-4366408.279741982</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K120" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4734,40 +5278,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="C121" t="n">
-        <v>4.42</v>
+        <v>4.6</v>
       </c>
       <c r="D121" t="n">
-        <v>4.43</v>
+        <v>4.6</v>
       </c>
       <c r="E121" t="n">
-        <v>4.42</v>
+        <v>4.59</v>
       </c>
       <c r="F121" t="n">
-        <v>257974.1378</v>
+        <v>168211.186</v>
       </c>
       <c r="G121" t="n">
-        <v>4.526999999999997</v>
+        <v>-4198197.093741982</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K121" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4778,40 +5314,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C122" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="D122" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="E122" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>31505.6277</v>
       </c>
       <c r="G122" t="n">
-        <v>4.519999999999998</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4822,40 +5350,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C123" t="n">
-        <v>4.48</v>
+        <v>4.62</v>
       </c>
       <c r="D123" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="E123" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F123" t="n">
-        <v>481928.357</v>
+        <v>96458</v>
       </c>
       <c r="G123" t="n">
-        <v>4.512499999999998</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4866,40 +5386,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="C124" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="D124" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="E124" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="F124" t="n">
-        <v>15112</v>
+        <v>9297.8441</v>
       </c>
       <c r="G124" t="n">
-        <v>4.507499999999997</v>
+        <v>-4166691.466041982</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5422,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="C125" t="n">
         <v>4.56</v>
@@ -4919,13 +5431,13 @@
         <v>4.56</v>
       </c>
       <c r="E125" t="n">
-        <v>4.47</v>
+        <v>4.56</v>
       </c>
       <c r="F125" t="n">
-        <v>492187.777</v>
+        <v>20162.5677</v>
       </c>
       <c r="G125" t="n">
-        <v>4.508499999999997</v>
+        <v>-4186854.033741982</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4934,14 +5446,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4952,22 +5458,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C126" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="D126" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="E126" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="F126" t="n">
-        <v>492158.0842</v>
+        <v>910278.3734</v>
       </c>
       <c r="G126" t="n">
-        <v>4.508999999999998</v>
+        <v>-5097132.407141983</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4976,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4994,22 +5494,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="C127" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D127" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="E127" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="F127" t="n">
-        <v>216872.8691</v>
+        <v>85743.1868</v>
       </c>
       <c r="G127" t="n">
-        <v>4.510999999999997</v>
+        <v>-5011389.220341982</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5018,14 +5518,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +5530,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.44</v>
+        <v>4.59</v>
       </c>
       <c r="C128" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="D128" t="n">
-        <v>4.44</v>
+        <v>4.59</v>
       </c>
       <c r="E128" t="n">
-        <v>4.43</v>
+        <v>4.58</v>
       </c>
       <c r="F128" t="n">
-        <v>268051.4885</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G128" t="n">
-        <v>4.508499999999998</v>
+        <v>-5086278.591241983</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5060,14 +5554,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5078,40 +5566,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="C129" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="D129" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="E129" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="F129" t="n">
-        <v>994676.0965</v>
+        <v>387000</v>
       </c>
       <c r="G129" t="n">
-        <v>4.507499999999999</v>
+        <v>-5086278.591241983</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5122,40 +5602,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="C130" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="D130" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="E130" t="n">
-        <v>4.4</v>
+        <v>4.58</v>
       </c>
       <c r="F130" t="n">
-        <v>1157557.5942</v>
+        <v>261747.6657</v>
       </c>
       <c r="G130" t="n">
-        <v>4.500499999999998</v>
+        <v>-5348026.256941983</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5166,40 +5638,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.41</v>
+        <v>4.62</v>
       </c>
       <c r="C131" t="n">
-        <v>4.47</v>
+        <v>4.68</v>
       </c>
       <c r="D131" t="n">
-        <v>4.47</v>
+        <v>4.68</v>
       </c>
       <c r="E131" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F131" t="n">
-        <v>6103.1176</v>
+        <v>351693.2559</v>
       </c>
       <c r="G131" t="n">
-        <v>4.493499999999998</v>
+        <v>-4996333.001041982</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K131" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5210,40 +5674,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="C132" t="n">
-        <v>4.42</v>
+        <v>4.61</v>
       </c>
       <c r="D132" t="n">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="E132" t="n">
-        <v>4.42</v>
+        <v>4.61</v>
       </c>
       <c r="F132" t="n">
-        <v>154673.5313</v>
+        <v>905165.6731</v>
       </c>
       <c r="G132" t="n">
-        <v>4.486999999999998</v>
+        <v>-5901498.674141983</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5254,40 +5710,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C133" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="D133" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="E133" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>192315.478</v>
       </c>
       <c r="G133" t="n">
-        <v>4.482999999999999</v>
+        <v>-5709183.196141982</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K133" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5298,40 +5746,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C134" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="D134" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="E134" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F134" t="n">
-        <v>55380</v>
+        <v>257572.7195</v>
       </c>
       <c r="G134" t="n">
-        <v>4.478999999999998</v>
+        <v>-5709183.196141982</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5342,40 +5782,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C135" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="D135" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="E135" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="F135" t="n">
-        <v>60546.8045</v>
+        <v>250197.4084</v>
       </c>
       <c r="G135" t="n">
-        <v>4.475499999999998</v>
+        <v>-5959380.604541983</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K135" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5386,40 +5818,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="C136" t="n">
-        <v>4.47</v>
+        <v>4.64</v>
       </c>
       <c r="D136" t="n">
-        <v>4.47</v>
+        <v>4.64</v>
       </c>
       <c r="E136" t="n">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="F136" t="n">
-        <v>315919.5261</v>
+        <v>110</v>
       </c>
       <c r="G136" t="n">
-        <v>4.469499999999998</v>
+        <v>-5959270.604541983</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5430,40 +5854,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="C137" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="D137" t="n">
-        <v>4.47</v>
+        <v>4.64</v>
       </c>
       <c r="E137" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="F137" t="n">
-        <v>208512.3932</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G137" t="n">
-        <v>4.464499999999998</v>
+        <v>-7009922.113141983</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5474,40 +5890,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="C138" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="D138" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="E138" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F138" t="n">
-        <v>291688.1849</v>
+        <v>139133.5951</v>
       </c>
       <c r="G138" t="n">
-        <v>4.464499999999998</v>
+        <v>-6870788.518041983</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5518,40 +5926,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.46</v>
+        <v>4.69</v>
       </c>
       <c r="C139" t="n">
-        <v>4.46</v>
+        <v>4.59</v>
       </c>
       <c r="D139" t="n">
-        <v>4.46</v>
+        <v>4.69</v>
       </c>
       <c r="E139" t="n">
-        <v>4.46</v>
+        <v>4.59</v>
       </c>
       <c r="F139" t="n">
-        <v>10320.0668</v>
+        <v>868143.6902</v>
       </c>
       <c r="G139" t="n">
-        <v>4.464499999999998</v>
+        <v>-7738932.208241983</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="K139" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5562,40 +5962,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="C140" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D140" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="E140" t="n">
-        <v>4.46</v>
+        <v>4.59</v>
       </c>
       <c r="F140" t="n">
-        <v>90020</v>
+        <v>46979.0248</v>
       </c>
       <c r="G140" t="n">
-        <v>4.465999999999998</v>
+        <v>-7738932.208241983</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5606,40 +5998,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="C141" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="D141" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="E141" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="F141" t="n">
-        <v>80010</v>
+        <v>890485.2751</v>
       </c>
       <c r="G141" t="n">
-        <v>4.466499999999998</v>
+        <v>-8629417.483341983</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5650,22 +6034,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="C142" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="D142" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="E142" t="n">
-        <v>4.43</v>
+        <v>4.58</v>
       </c>
       <c r="F142" t="n">
-        <v>100020</v>
+        <v>50952.0807</v>
       </c>
       <c r="G142" t="n">
-        <v>4.464999999999998</v>
+        <v>-8578465.402641982</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5674,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5692,40 +6070,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="C143" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D143" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="E143" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="F143" t="n">
-        <v>86435.61259999999</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>4.463499999999998</v>
+        <v>-8578455.402641982</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5736,22 +6106,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.43</v>
+        <v>4.64</v>
       </c>
       <c r="C144" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="D144" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="E144" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="F144" t="n">
-        <v>100010</v>
+        <v>263620.571</v>
       </c>
       <c r="G144" t="n">
-        <v>4.460499999999998</v>
+        <v>-8842075.973641982</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5760,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5778,40 +6142,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.43</v>
+        <v>4.67</v>
       </c>
       <c r="C145" t="n">
-        <v>4.51</v>
+        <v>4.67</v>
       </c>
       <c r="D145" t="n">
-        <v>4.53</v>
+        <v>4.67</v>
       </c>
       <c r="E145" t="n">
-        <v>4.43</v>
+        <v>4.67</v>
       </c>
       <c r="F145" t="n">
-        <v>268828.4271</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>4.456499999999997</v>
+        <v>-8842065.973641982</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5822,40 +6178,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.43</v>
+        <v>4.68</v>
       </c>
       <c r="C146" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="D146" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="E146" t="n">
-        <v>4.43</v>
+        <v>4.68</v>
       </c>
       <c r="F146" t="n">
-        <v>125722</v>
+        <v>99</v>
       </c>
       <c r="G146" t="n">
-        <v>4.452999999999998</v>
+        <v>-8841966.973641982</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5866,40 +6214,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="C147" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="D147" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="E147" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="F147" t="n">
-        <v>60870</v>
+        <v>1229.727</v>
       </c>
       <c r="G147" t="n">
-        <v>4.451499999999998</v>
+        <v>-8843196.700641982</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K147" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5910,40 +6250,32 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.53</v>
+        <v>4.61</v>
       </c>
       <c r="C148" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="D148" t="n">
-        <v>4.53</v>
+        <v>4.66</v>
       </c>
       <c r="E148" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>310373.1333</v>
       </c>
       <c r="G148" t="n">
-        <v>4.455999999999998</v>
+        <v>-9153569.833941983</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5954,22 +6286,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C149" t="n">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="D149" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E149" t="n">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="F149" t="n">
-        <v>14651</v>
+        <v>320394.033</v>
       </c>
       <c r="G149" t="n">
-        <v>4.457499999999998</v>
+        <v>-9473963.866941983</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5978,14 +6310,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5996,22 +6322,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="C150" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="D150" t="n">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="E150" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F150" t="n">
-        <v>51857.2996</v>
+        <v>392420.6399</v>
       </c>
       <c r="G150" t="n">
-        <v>4.462499999999998</v>
+        <v>-9081543.227041982</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6020,14 +6346,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6038,40 +6358,32 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.53</v>
+        <v>4.67</v>
       </c>
       <c r="C151" t="n">
-        <v>4.53</v>
+        <v>4.62</v>
       </c>
       <c r="D151" t="n">
-        <v>4.53</v>
+        <v>4.67</v>
       </c>
       <c r="E151" t="n">
-        <v>4.53</v>
+        <v>4.62</v>
       </c>
       <c r="F151" t="n">
-        <v>34893</v>
+        <v>198118.6147</v>
       </c>
       <c r="G151" t="n">
-        <v>4.468499999999998</v>
+        <v>-8883424.612341981</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K151" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6082,22 +6394,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C152" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D152" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E152" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F152" t="n">
-        <v>52893.6403</v>
+        <v>513021.6013</v>
       </c>
       <c r="G152" t="n">
-        <v>4.475499999999998</v>
+        <v>-9396446.213641981</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6106,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6124,22 +6430,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="C153" t="n">
-        <v>4.54</v>
+        <v>4.66</v>
       </c>
       <c r="D153" t="n">
-        <v>4.54</v>
+        <v>4.66</v>
       </c>
       <c r="E153" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="F153" t="n">
-        <v>80921.10129999999</v>
+        <v>153502.9847</v>
       </c>
       <c r="G153" t="n">
-        <v>4.478999999999998</v>
+        <v>-9242943.228941981</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6148,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6166,22 +6466,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="C154" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="D154" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="E154" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="F154" t="n">
-        <v>9723.546200000001</v>
+        <v>171659.4766</v>
       </c>
       <c r="G154" t="n">
-        <v>4.480499999999998</v>
+        <v>-9071283.75234198</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6190,14 +6490,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6502,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="C155" t="n">
-        <v>4.51</v>
+        <v>4.66</v>
       </c>
       <c r="D155" t="n">
-        <v>4.51</v>
+        <v>4.67</v>
       </c>
       <c r="E155" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="F155" t="n">
-        <v>15081.9999</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G155" t="n">
-        <v>4.482499999999999</v>
+        <v>-10602202.58754198</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6232,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6250,22 +6538,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.51</v>
+        <v>4.66</v>
       </c>
       <c r="C156" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="D156" t="n">
-        <v>4.51</v>
+        <v>4.79</v>
       </c>
       <c r="E156" t="n">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="F156" t="n">
-        <v>24749.9999</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G156" t="n">
-        <v>4.486999999999999</v>
+        <v>-12675515.05355074</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6274,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6292,22 +6574,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.55</v>
+        <v>4.77</v>
       </c>
       <c r="C157" t="n">
-        <v>4.51</v>
+        <v>4.71</v>
       </c>
       <c r="D157" t="n">
-        <v>4.55</v>
+        <v>4.77</v>
       </c>
       <c r="E157" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="F157" t="n">
-        <v>9946.604499999999</v>
+        <v>566490.2601</v>
       </c>
       <c r="G157" t="n">
-        <v>4.491999999999999</v>
+        <v>-12109024.79345074</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6316,14 +6598,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6334,22 +6610,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.53</v>
+        <v>4.61</v>
       </c>
       <c r="C158" t="n">
-        <v>4.53</v>
+        <v>4.62</v>
       </c>
       <c r="D158" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E158" t="n">
-        <v>4.53</v>
+        <v>4.61</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>102504.9494</v>
       </c>
       <c r="G158" t="n">
-        <v>4.494999999999999</v>
+        <v>-12211529.74285074</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6358,14 +6634,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6376,22 +6646,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="D159" t="n">
-        <v>4.51</v>
+        <v>4.69</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="F159" t="n">
-        <v>91314.4507</v>
+        <v>78898.2552</v>
       </c>
       <c r="G159" t="n">
-        <v>4.4975</v>
+        <v>-12132631.48765074</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6400,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6418,22 +6682,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="C160" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="D160" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E160" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="F160" t="n">
-        <v>22075.0551</v>
+        <v>698624.2373</v>
       </c>
       <c r="G160" t="n">
-        <v>4.496</v>
+        <v>-12132631.48765074</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6442,14 +6706,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6460,40 +6718,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="C161" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="D161" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E161" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="F161" t="n">
-        <v>56244.7866</v>
+        <v>311512.138</v>
       </c>
       <c r="G161" t="n">
-        <v>4.5005</v>
+        <v>-12444143.62565074</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K161" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6504,22 +6754,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.51</v>
+        <v>4.68</v>
       </c>
       <c r="C162" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D162" t="n">
-        <v>4.51</v>
+        <v>4.69</v>
       </c>
       <c r="E162" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F162" t="n">
-        <v>289035.7276</v>
+        <v>47643.6589</v>
       </c>
       <c r="G162" t="n">
-        <v>4.504</v>
+        <v>-12491787.28455074</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6528,14 +6778,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6546,40 +6790,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="C163" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="D163" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="E163" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="F163" t="n">
-        <v>82671.2687</v>
+        <v>13</v>
       </c>
       <c r="G163" t="n">
-        <v>4.507</v>
+        <v>-12491774.28455074</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K163" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6590,42 +6826,2592 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F164" t="n">
+        <v>148567.9265</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-12640342.21105074</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F165" t="n">
+        <v>516318.2797</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-13156660.49075074</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>307283.8301</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-13463944.32085074</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>46927.8951</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-13463944.32085074</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-13463932.32085074</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F169" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-13463942.32085074</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F170" t="n">
+        <v>69265.1439</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-13533207.46475074</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F171" t="n">
+        <v>720000.8847000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-14253208.34945074</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-14253188.34945074</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F173" t="n">
+        <v>257748.5422</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-14510936.89165074</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15102</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-14495834.89165074</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F175" t="n">
+        <v>242413.5138</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-14738248.40545074</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F176" t="n">
+        <v>273417.1912</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-15011665.59665074</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F177" t="n">
+        <v>31473.4845</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-14980192.11215074</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5038.5738</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-14975153.53835074</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F179" t="n">
+        <v>450089.1954</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-15425242.73375074</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8502.590099999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-15425242.73375074</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F181" t="n">
+        <v>596809.9054</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-14828432.82835074</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F182" t="n">
+        <v>17558.6492</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-14828432.82835074</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F183" t="n">
+        <v>25342.7292</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-14828432.82835074</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F184" t="n">
+        <v>216000.4204</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-14828432.82835074</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F185" t="n">
+        <v>20300.6894</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-14828432.82835074</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F186" t="n">
+        <v>29855.7268</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-14858288.55515074</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1289193.1886</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-13569095.36655074</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F188" t="n">
+        <v>70619.02340000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-13569095.36655074</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F189" t="n">
+        <v>464094.8782</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-14033190.24475074</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F190" t="n">
+        <v>58932.6431</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-13974257.60165074</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6108.3885</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-13968149.21315074</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F192" t="n">
+        <v>257974.1378</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-14226123.35095074</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-14226103.35095074</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C194" t="n">
         <v>4.48</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D194" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E194" t="n">
         <v>4.47</v>
       </c>
-      <c r="D164" t="n">
+      <c r="F194" t="n">
+        <v>481928.357</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-13744174.99395074</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F195" t="n">
+        <v>15112</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-13729062.99395074</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F196" t="n">
+        <v>492187.777</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-13236875.21695074</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F197" t="n">
+        <v>492158.0842</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-13729033.30115074</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E198" t="n">
         <v>4.48</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F198" t="n">
+        <v>216872.8691</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-13512160.43205074</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F199" t="n">
+        <v>268051.4885</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-13780211.92055074</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>4.47</v>
       </c>
-      <c r="F164" t="n">
+      <c r="C200" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F200" t="n">
+        <v>994676.0965</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-12785535.82405074</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1157557.5942</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-12785535.82405074</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F202" t="n">
+        <v>6103.1176</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-12785535.82405074</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F203" t="n">
+        <v>154673.5313</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-12940209.35535074</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F205" t="n">
+        <v>55380</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F206" t="n">
+        <v>60546.8045</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F207" t="n">
+        <v>315919.5261</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F208" t="n">
+        <v>208512.3932</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F209" t="n">
+        <v>291688.1849</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-12648511.17045074</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10320.0668</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-12658831.23725074</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F211" t="n">
+        <v>90020</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-12568811.23725074</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F212" t="n">
+        <v>80010</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-12648821.23725074</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100020</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-12548801.23725074</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F214" t="n">
+        <v>86435.61259999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-12635236.84985074</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-12535226.84985074</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F216" t="n">
+        <v>268828.4271</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-12804055.27695074</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F217" t="n">
+        <v>125722</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-12929777.27695074</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>60870</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-12929777.27695074</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-12929767.27695074</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>14651</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-12944418.27695074</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F221" t="n">
+        <v>51857.2996</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-12892560.97735074</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F222" t="n">
+        <v>34893</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-12857667.97735074</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F223" t="n">
+        <v>52893.6403</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-12804774.33705074</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F224" t="n">
+        <v>80921.10129999999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-12885695.43835074</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>9723.546200000001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-12895418.98455074</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15081.9999</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F227" t="n">
+        <v>24749.9999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F228" t="n">
+        <v>9946.604499999999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-12880336.98465074</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-12880326.98465074</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>91314.4507</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-12971641.43535074</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F231" t="n">
+        <v>22075.0551</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-12949566.38025074</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F232" t="n">
+        <v>56244.7866</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-12949566.38025074</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>289035.7276</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-13238602.10785074</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>82671.2687</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-13238602.10785074</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F235" t="n">
         <v>62573.7897</v>
       </c>
-      <c r="G164" t="n">
-        <v>4.5095</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>-13301175.89755074</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N235"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>4.33</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,23 @@
         <v>-1214933.2017</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +601,19 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="J6" t="n">
         <v>4.39</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +638,23 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.39</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,26 +679,23 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K8" t="n">
         <v>4.39</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,22 +720,19 @@
         <v>-1256013.2017</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,26 +757,21 @@
         <v>-1266013.2017</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K10" t="n">
         <v>4.33</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,24 +796,23 @@
         <v>-1045699.2707</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
         <v>4.33</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,16 +839,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,16 +872,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -946,16 +905,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,16 +938,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,16 +971,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1054,16 +1004,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,22 +1035,15 @@
         <v>-2030197.5005</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1130,22 +1070,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,2630 +1101,2437 @@
         <v>-1858174.2665</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F21" t="n">
+        <v>48720</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1906894.2665</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F22" t="n">
+        <v>57713</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1906894.2665</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>481693.9892</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1425200.2773</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.36</v>
       </c>
-      <c r="C21" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F21" t="n">
-        <v>48720</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1906894.2665</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J23" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F22" t="n">
-        <v>57713</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1906894.2665</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>310960.6011</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1114239.6762</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16097.4602</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1098142.216</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J25" t="n">
         <v>4.38</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F23" t="n">
-        <v>481693.9892</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1425200.2773</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>310960.6011</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1114239.6762</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10683.4708</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1098142.216</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>4.41</v>
       </c>
-      <c r="D25" t="n">
+      <c r="C27" t="n">
         <v>4.41</v>
       </c>
-      <c r="E25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16097.4602</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3677.2353</v>
+      </c>
+      <c r="G27" t="n">
         <v>-1098142.216</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10683.4708</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1098142.216</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C28" t="n">
         <v>4.33</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="D28" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1725928.0153</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2824070.2313</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3677.2353</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1098142.216</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F29" t="n">
+        <v>138420.292</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2685649.9393</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>4.45</v>
       </c>
-      <c r="E28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1725928.0153</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-2824070.2313</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F30" t="n">
+        <v>333122.3652</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2352527.5741</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F29" t="n">
-        <v>138420.292</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-2685649.9393</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5731.1024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2352527.5741</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>4.49</v>
       </c>
-      <c r="D30" t="n">
+      <c r="C32" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D32" t="n">
         <v>4.49</v>
       </c>
-      <c r="E30" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F30" t="n">
-        <v>333122.3652</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-2352527.5741</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E32" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>215444.7546</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2567972.3287</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5731.1024</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-2352527.5741</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>929020.5853</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1638951.743400001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F32" t="n">
-        <v>215444.7546</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-2567972.3287</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F34" t="n">
+        <v>191126.291</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1447825.452400001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F33" t="n">
-        <v>929020.5853</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1638951.743400001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>95931.87772925</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1543757.33012925</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F34" t="n">
-        <v>191126.291</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1447825.452400001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>983678.10043668</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2527435.43056593</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F35" t="n">
-        <v>95931.87772925</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1543757.33012925</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2527424.43056593</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D38" t="n">
         <v>4.58</v>
       </c>
-      <c r="C36" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F36" t="n">
-        <v>983678.10043668</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-2527435.43056593</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E38" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>148963.4649</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-2378460.96566593</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F37" t="n">
-        <v>11</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-2527424.43056593</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F39" t="n">
+        <v>474005.7992</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2852466.76486593</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F38" t="n">
-        <v>148963.4649</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-2378460.96566593</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F40" t="n">
+        <v>575809.0198</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2276657.74506593</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F39" t="n">
-        <v>474005.7992</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-2852466.76486593</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F41" t="n">
+        <v>342074.3305</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-2618732.07556593</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F40" t="n">
-        <v>575809.0198</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-2276657.74506593</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F42" t="n">
+        <v>593725.49332456</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-2025006.58224137</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F41" t="n">
-        <v>342074.3305</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-2618732.07556593</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1326190.00846563</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-698816.5737757403</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F42" t="n">
-        <v>593725.49332456</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-2025006.58224137</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F44" t="n">
+        <v>954273.47426937</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1653090.04804511</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>4.79</v>
       </c>
-      <c r="D43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1326190.00846563</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-698816.5737757403</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1133775.55648535</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1653090.04804511</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F44" t="n">
-        <v>954273.47426937</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1653090.04804511</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>466786.52457687</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-2119876.572621981</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1133775.55648535</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1653090.04804511</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15116.2457</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-2134992.818321981</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C48" t="n">
         <v>4.67</v>
       </c>
-      <c r="D46" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D48" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E48" t="n">
         <v>4.4</v>
       </c>
-      <c r="F46" t="n">
-        <v>466786.52457687</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-2119876.572621981</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="F48" t="n">
+        <v>2331369.0903</v>
+      </c>
+      <c r="G48" t="n">
+        <v>196376.2719780193</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F47" t="n">
-        <v>15116.2457</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-2134992.818321981</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F49" t="n">
+        <v>209045.91968</v>
+      </c>
+      <c r="G49" t="n">
+        <v>405422.1916580193</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E50" t="n">
         <v>4.4</v>
       </c>
-      <c r="F48" t="n">
-        <v>2331369.0903</v>
-      </c>
-      <c r="G48" t="n">
-        <v>196376.2719780193</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="F50" t="n">
+        <v>1118051.4848</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-712629.2931419807</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="F49" t="n">
-        <v>209045.91968</v>
-      </c>
-      <c r="G49" t="n">
-        <v>405422.1916580193</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3058916.5944</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2346287.301258019</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1118051.4848</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-712629.2931419807</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1832959.9473</v>
+      </c>
+      <c r="G52" t="n">
+        <v>513327.3539580191</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3058916.5944</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2346287.301258019</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F53" t="n">
+        <v>468778.8666</v>
+      </c>
+      <c r="G53" t="n">
+        <v>44548.48735801905</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>4.48</v>
       </c>
-      <c r="F52" t="n">
-        <v>1832959.9473</v>
-      </c>
-      <c r="G52" t="n">
-        <v>513327.3539580191</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="C54" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6691.0675</v>
+      </c>
+      <c r="G54" t="n">
+        <v>44548.48735801905</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>4.45</v>
       </c>
-      <c r="F53" t="n">
-        <v>468778.8666</v>
-      </c>
-      <c r="G53" t="n">
-        <v>44548.48735801905</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F55" t="n">
+        <v>832141.6939</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-787593.2065419808</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6691.0675</v>
-      </c>
-      <c r="G54" t="n">
-        <v>44548.48735801905</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F56" t="n">
+        <v>319193.2589</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-468399.9476419808</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F55" t="n">
-        <v>832141.6939</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-787593.2065419808</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3830.387</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-472230.3346419808</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E58" t="n">
         <v>4.44</v>
       </c>
-      <c r="C56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F56" t="n">
-        <v>319193.2589</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-468399.9476419808</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="F58" t="n">
+        <v>1272468.1175</v>
+      </c>
+      <c r="G58" t="n">
+        <v>800237.7828580191</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3830.387</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-472230.3346419808</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F59" t="n">
+        <v>261812.4139</v>
+      </c>
+      <c r="G59" t="n">
+        <v>538425.3689580191</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D60" t="n">
         <v>4.57</v>
       </c>
-      <c r="C58" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1272468.1175</v>
-      </c>
-      <c r="G58" t="n">
-        <v>800237.7828580191</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E60" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1389422.4122</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-850997.0432419808</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F59" t="n">
-        <v>261812.4139</v>
-      </c>
-      <c r="G59" t="n">
-        <v>538425.3689580191</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F61" t="n">
+        <v>368974.6914</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-482022.3518419808</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>4.57</v>
       </c>
-      <c r="E60" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1389422.4122</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-850997.0432419808</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="C62" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100914.4763</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-582936.8281419808</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F61" t="n">
-        <v>368974.6914</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-482022.3518419808</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F63" t="n">
+        <v>371506.0088</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-211430.8193419808</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100914.4763</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-582936.8281419808</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F64" t="n">
+        <v>546045.3628999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>334614.5435580192</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F63" t="n">
-        <v>371506.0088</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-211430.8193419808</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F65" t="n">
+        <v>634048.368</v>
+      </c>
+      <c r="G65" t="n">
+        <v>968662.9115580192</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C66" t="n">
         <v>4.69</v>
       </c>
-      <c r="D64" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F64" t="n">
-        <v>546045.3628999999</v>
-      </c>
-      <c r="G64" t="n">
-        <v>334614.5435580192</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="D66" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F66" t="n">
+        <v>839895.6296</v>
+      </c>
+      <c r="G66" t="n">
+        <v>128767.2819580192</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="F65" t="n">
-        <v>634048.368</v>
-      </c>
-      <c r="G65" t="n">
-        <v>968662.9115580192</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1407913.387</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1279146.105041981</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F66" t="n">
-        <v>839895.6296</v>
-      </c>
-      <c r="G66" t="n">
-        <v>128767.2819580192</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F68" t="n">
+        <v>414988.1921</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-864157.9129419808</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>4.56</v>
       </c>
-      <c r="F67" t="n">
-        <v>1407913.387</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1279146.105041981</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="C69" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F69" t="n">
+        <v>205479.9797</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1069637.892641981</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D70" t="n">
         <v>4.64</v>
       </c>
-      <c r="D68" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F68" t="n">
-        <v>414988.1921</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-864157.9129419808</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E70" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1267805.1304</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2337443.02304198</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>4.56</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C71" t="n">
         <v>4.56</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D71" t="n">
         <v>4.56</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E71" t="n">
         <v>4.56</v>
       </c>
-      <c r="F69" t="n">
-        <v>205479.9797</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1069637.892641981</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="F71" t="n">
+        <v>57736.2763</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2279706.74674198</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E72" t="n">
         <v>4.51</v>
       </c>
-      <c r="F70" t="n">
-        <v>1267805.1304</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2337443.02304198</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="F72" t="n">
+        <v>882826.4365</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1396880.31024198</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F71" t="n">
-        <v>57736.2763</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-2279706.74674198</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F73" t="n">
+        <v>403955.1347</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-992925.1755419804</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C74" t="n">
         <v>4.58</v>
       </c>
-      <c r="D72" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F72" t="n">
-        <v>882826.4365</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1396880.31024198</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="D74" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1659555.2119</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2652480.387441981</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F73" t="n">
-        <v>403955.1347</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-992925.1755419804</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F75" t="n">
+        <v>263386.3369</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2389094.050541981</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C76" t="n">
         <v>4.65</v>
       </c>
-      <c r="E74" t="n">
+      <c r="D76" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E76" t="n">
         <v>4.52</v>
       </c>
-      <c r="F74" t="n">
-        <v>1659555.2119</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-2652480.387441981</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="F76" t="n">
+        <v>904468.9892</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1484625.061341981</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F75" t="n">
-        <v>263386.3369</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-2389094.050541981</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F77" t="n">
+        <v>431140.4056</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1053484.655741981</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C78" t="n">
         <v>4.65</v>
       </c>
-      <c r="D76" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F76" t="n">
-        <v>904468.9892</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1484625.061341981</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="D78" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1253534.6788</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2307019.334541981</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F77" t="n">
-        <v>431140.4056</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1053484.655741981</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F79" t="n">
+        <v>249288.1173</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-2307019.334541981</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>4.65</v>
       </c>
-      <c r="D78" t="n">
+      <c r="C80" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D80" t="n">
         <v>4.69</v>
       </c>
-      <c r="E78" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1253534.6788</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="E80" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F80" t="n">
+        <v>186131.8191</v>
+      </c>
+      <c r="G80" t="n">
         <v>-2307019.334541981</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F79" t="n">
-        <v>249288.1173</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-2307019.334541981</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>120163.4103</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2427182.744841981</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C82" t="n">
         <v>4.69</v>
       </c>
-      <c r="E80" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F80" t="n">
-        <v>186131.8191</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-2307019.334541981</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="D82" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>79709.91590000001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2347472.828941981</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F81" t="n">
-        <v>120163.4103</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2427182.744841981</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F82" t="n">
-        <v>79709.91590000001</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2347472.828941981</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3818,24 +3556,23 @@
         <v>-2442691.185741981</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L83" t="n">
+        <v>1.054360730593607</v>
+      </c>
       <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3860,24 +3597,15 @@
         <v>-2390451.451941981</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3902,24 +3630,15 @@
         <v>-2205981.816041981</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3946,22 +3665,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3986,24 +3696,15 @@
         <v>-3214246.124341981</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4030,22 +3731,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4070,24 +3762,15 @@
         <v>-2636201.906541982</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4114,22 +3797,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4154,24 +3828,15 @@
         <v>-2460548.822541982</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4196,24 +3861,15 @@
         <v>-2119416.903641982</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4240,22 +3896,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4282,22 +3929,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4322,24 +3960,15 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4366,22 +3995,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4408,22 +4028,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4450,22 +4061,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4490,24 +4092,15 @@
         <v>-3517004.454641982</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4532,26 +4125,15 @@
         <v>-3237373.155841982</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1.068903002309469</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1.018518518518519</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4578,16 +4160,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4614,16 +4193,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4648,18 +4224,15 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4686,16 +4259,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4722,16 +4292,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4758,16 +4325,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4792,18 +4356,15 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4830,16 +4391,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4864,18 +4422,15 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4902,16 +4457,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4936,18 +4488,15 @@
         <v>-4960824.990341982</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4974,16 +4523,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5008,18 +4554,15 @@
         <v>-5045724.990341982</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5046,16 +4589,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5082,16 +4622,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5116,18 +4653,15 @@
         <v>-4930879.641641982</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5152,18 +4686,15 @@
         <v>-5339826.838241982</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5190,16 +4721,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5226,16 +4754,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5262,16 +4787,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5298,16 +4820,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5334,16 +4853,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5370,16 +4886,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5406,16 +4919,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5442,16 +4952,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5476,18 +4983,15 @@
         <v>-5097132.407141983</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5514,16 +5018,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5550,16 +5051,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5586,16 +5084,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5620,18 +5115,15 @@
         <v>-5348026.256941983</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5656,18 +5148,15 @@
         <v>-4996333.001041982</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5694,16 +5183,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5730,16 +5216,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5764,18 +5247,15 @@
         <v>-5709183.196141982</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5800,18 +5280,15 @@
         <v>-5959380.604541983</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5838,16 +5315,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5874,16 +5348,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5908,18 +5379,15 @@
         <v>-6870788.518041983</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5944,18 +5412,15 @@
         <v>-7738932.208241983</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5980,18 +5445,15 @@
         <v>-7738932.208241983</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6016,18 +5478,15 @@
         <v>-8629417.483341983</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6052,18 +5511,15 @@
         <v>-8578465.402641982</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6088,18 +5544,15 @@
         <v>-8578455.402641982</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6124,18 +5577,15 @@
         <v>-8842075.973641982</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6162,16 +5612,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6198,16 +5645,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6232,18 +5676,15 @@
         <v>-8843196.700641982</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6270,16 +5711,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6304,18 +5742,15 @@
         <v>-9473963.866941983</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6340,18 +5775,15 @@
         <v>-9081543.227041982</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6378,16 +5810,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6414,16 +5843,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6450,16 +5876,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6486,16 +5909,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6522,16 +5942,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6558,16 +5975,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6594,16 +6008,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6628,18 +6039,15 @@
         <v>-12211529.74285074</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6666,16 +6074,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6702,16 +6107,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6738,16 +6140,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6774,16 +6173,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6810,16 +6206,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6844,18 +6237,15 @@
         <v>-12640342.21105074</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6880,18 +6270,15 @@
         <v>-13156660.49075074</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6918,16 +6305,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6954,16 +6338,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6990,16 +6371,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7026,16 +6404,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7062,16 +6437,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7098,16 +6470,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7134,16 +6503,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7170,16 +6536,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7206,16 +6569,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7242,16 +6602,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7278,16 +6635,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7314,16 +6668,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7350,16 +6701,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7386,16 +6734,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7422,16 +6767,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7458,16 +6800,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7494,16 +6833,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7530,16 +6866,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7566,16 +6899,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7602,16 +6932,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7638,16 +6965,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7674,16 +6998,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7710,16 +7031,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7746,16 +7064,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7782,16 +7097,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7818,16 +7130,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7854,16 +7163,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7890,16 +7196,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7926,16 +7229,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7962,16 +7262,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7998,16 +7295,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8034,16 +7328,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8070,16 +7361,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8106,16 +7394,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8142,16 +7427,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8178,16 +7460,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8214,16 +7493,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8250,16 +7526,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8286,16 +7559,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8322,16 +7592,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8358,16 +7625,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8394,16 +7658,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8430,16 +7691,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8466,16 +7724,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8502,16 +7757,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8538,16 +7790,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8574,16 +7823,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8610,16 +7856,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8646,16 +7889,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8682,16 +7922,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8718,16 +7955,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8754,16 +7988,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8790,16 +8021,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8826,16 +8054,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8862,16 +8087,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8898,16 +8120,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8934,16 +8153,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8970,16 +8186,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9006,16 +8219,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9042,16 +8252,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9078,16 +8285,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9114,16 +8318,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9150,16 +8351,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9186,16 +8384,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9222,16 +8417,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9258,16 +8450,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9294,16 +8483,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9330,16 +8516,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9366,16 +8549,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9402,18 +8582,15 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,7 +550,7 @@
         <v>-1214933.2017</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.33</v>
@@ -568,11 +558,7 @@
       <c r="J5" t="n">
         <v>4.33</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,15 +587,17 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,13 +626,11 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,19 +665,11 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,7 +698,7 @@
         <v>-1256013.2017</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.33</v>
@@ -796,11 +774,9 @@
         <v>-1045699.2707</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>4.33</v>
       </c>
@@ -870,10 +846,14 @@
         <v>-1048197.5005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -906,8 +886,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -939,8 +925,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,10 +994,14 @@
         <v>-1919197.5005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.33</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1038,8 +1034,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1068,11 +1070,19 @@
         <v>-2030197.5005</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1101,11 +1111,19 @@
         <v>-1858174.2665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1134,15 +1152,19 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.38</v>
       </c>
       <c r="J21" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1171,15 +1193,17 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.36</v>
+      </c>
       <c r="J22" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1210,13 +1234,13 @@
         <v>-1425200.2773</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4.36</v>
       </c>
       <c r="J23" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1251,13 +1275,13 @@
         <v>-1114239.6762</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4.39</v>
       </c>
       <c r="J24" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1292,13 +1316,13 @@
         <v>-1098142.216</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1333,11 +1357,13 @@
         <v>-1098142.216</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.41</v>
+      </c>
       <c r="J26" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1376,7 +1402,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1415,7 +1441,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1454,7 +1480,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1493,7 +1519,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1532,7 +1558,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1571,7 +1597,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1610,7 +1636,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1649,7 +1675,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1688,7 +1714,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1727,7 +1753,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1766,7 +1792,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1805,7 +1831,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1844,7 +1870,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1883,7 +1909,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1922,7 +1948,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1961,7 +1987,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2000,7 +2026,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2039,7 +2065,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2078,7 +2104,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2117,7 +2143,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2156,7 +2182,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2195,7 +2221,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2234,7 +2260,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2273,7 +2299,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2312,7 +2338,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2351,7 +2377,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2390,7 +2416,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2429,7 +2455,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2468,7 +2494,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2507,7 +2533,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2546,7 +2572,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2585,7 +2611,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2624,7 +2650,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2663,7 +2689,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2698,21 +2724,23 @@
         <v>-482022.3518419808</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>1.052736720554273</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2737,17 +2765,11 @@
         <v>-582936.8281419808</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2776,17 +2798,11 @@
         <v>-211430.8193419808</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2815,17 +2831,11 @@
         <v>334614.5435580192</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2854,17 +2864,11 @@
         <v>968662.9115580192</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2893,17 +2897,11 @@
         <v>128767.2819580192</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2932,17 +2930,11 @@
         <v>-1279146.105041981</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2971,17 +2963,11 @@
         <v>-864157.9129419808</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2996,11 @@
         <v>-1069637.892641981</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3049,17 +3029,11 @@
         <v>-2337443.02304198</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +3062,11 @@
         <v>-2279706.74674198</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3127,17 +3095,11 @@
         <v>-1396880.31024198</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3166,17 +3128,11 @@
         <v>-992925.1755419804</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +3164,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3247,14 +3197,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +3230,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3325,14 +3263,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +3296,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +3329,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3395,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3428,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3556,23 +3458,15 @@
         <v>-2442691.185741981</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.054360730593607</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3597,7 +3491,7 @@
         <v>-2390451.451941981</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3630,7 +3524,7 @@
         <v>-2205981.816041981</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3663,7 +3557,7 @@
         <v>-2357809.461041981</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3696,7 +3590,7 @@
         <v>-3214246.124341981</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3729,7 +3623,7 @@
         <v>-2964246.124341981</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3762,7 +3656,7 @@
         <v>-2636201.906541982</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3795,7 +3689,7 @@
         <v>-2460548.822541982</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3828,7 +3722,7 @@
         <v>-2460548.822541982</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3861,7 +3755,7 @@
         <v>-2119416.903641982</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3894,7 +3788,7 @@
         <v>-2119416.903641982</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3927,7 +3821,7 @@
         <v>-2279416.903641982</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3960,7 +3854,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3993,7 +3887,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4026,7 +3920,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4092,7 +3986,7 @@
         <v>-3517004.454641982</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4125,7 +4019,7 @@
         <v>-3237373.155841982</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4158,7 +4052,7 @@
         <v>-3257062.466341982</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4191,7 +4085,7 @@
         <v>-3073449.729941982</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4224,7 +4118,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4257,7 +4151,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4290,7 +4184,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4323,7 +4217,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4356,7 +4250,7 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4389,7 +4283,7 @@
         <v>-3771388.586041982</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4422,7 +4316,7 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4455,7 +4349,7 @@
         <v>-4058486.822641982</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4488,7 +4382,7 @@
         <v>-4960824.990341982</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4521,7 +4415,7 @@
         <v>-5045724.990341982</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4554,7 +4448,7 @@
         <v>-5045724.990341982</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4587,7 +4481,7 @@
         <v>-5386024.617241981</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4620,7 +4514,7 @@
         <v>-4930879.641641982</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4653,7 +4547,7 @@
         <v>-4930879.641641982</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4686,7 +4580,7 @@
         <v>-5339826.838241982</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4719,7 +4613,7 @@
         <v>-5079423.105341982</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4752,7 +4646,7 @@
         <v>-5176418.279741982</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4785,7 +4679,7 @@
         <v>-4366408.279741982</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4818,7 +4712,7 @@
         <v>-4198197.093741982</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4851,7 +4745,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4884,7 +4778,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4983,7 +4877,7 @@
         <v>-5097132.407141983</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5016,7 +4910,7 @@
         <v>-5011389.220341982</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5049,7 +4943,7 @@
         <v>-5086278.591241983</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5082,7 +4976,7 @@
         <v>-5086278.591241983</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5115,7 +5009,7 @@
         <v>-5348026.256941983</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5148,7 +5042,7 @@
         <v>-4996333.001041982</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5181,7 +5075,7 @@
         <v>-5901498.674141983</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5247,7 +5141,7 @@
         <v>-5709183.196141982</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5280,7 +5174,7 @@
         <v>-5959380.604541983</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5379,7 +5273,7 @@
         <v>-6870788.518041983</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5412,7 +5306,7 @@
         <v>-7738932.208241983</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5445,7 +5339,7 @@
         <v>-7738932.208241983</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5478,7 +5372,7 @@
         <v>-8629417.483341983</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5511,7 +5405,7 @@
         <v>-8578465.402641982</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5544,7 +5438,7 @@
         <v>-8578455.402641982</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5577,7 +5471,7 @@
         <v>-8842075.973641982</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5676,7 +5570,7 @@
         <v>-8843196.700641982</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5742,7 +5636,7 @@
         <v>-9473963.866941983</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5775,7 +5669,7 @@
         <v>-9081543.227041982</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6039,7 +5933,7 @@
         <v>-12211529.74285074</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6237,7 +6131,7 @@
         <v>-12640342.21105074</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6270,7 +6164,7 @@
         <v>-13156660.49075074</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7623,10 +7517,14 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="J206" t="n">
+        <v>4.47</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7659,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +7593,19 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +7634,19 @@
         <v>-12648511.17045074</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="J209" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7758,8 +7678,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7788,11 +7714,19 @@
         <v>-12568811.23725074</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J211" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +7758,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7857,8 +7797,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7890,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7923,8 +7875,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7956,8 +7914,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7950,19 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J217" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +7991,19 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J218" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +8032,19 @@
         <v>-12929767.27695074</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J219" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8088,8 +8076,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8121,8 +8115,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8154,8 +8154,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8187,8 +8193,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8220,8 +8232,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8253,8 +8271,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8286,8 +8310,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +8346,19 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J227" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8352,8 +8390,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +8426,19 @@
         <v>-12880326.98465074</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J229" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +8467,19 @@
         <v>-12971641.43535074</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J230" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +8508,19 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J231" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +8549,19 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J232" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +8590,19 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J233" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +8631,19 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J234" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8580,17 +8672,25 @@
         <v>-13301175.89755074</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-1214933.2017</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -629,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -698,14 +682,10 @@
         <v>-1256013.2017</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -738,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -777,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +814,10 @@
         <v>-1048197.5005</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -886,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -925,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +946,10 @@
         <v>-1919197.5005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1034,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1070,19 +1012,11 @@
         <v>-2030197.5005</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1111,19 +1045,11 @@
         <v>-1858174.2665</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,19 +1078,11 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,19 +1111,11 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,19 +1144,11 @@
         <v>-1425200.2773</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,19 +1177,11 @@
         <v>-1114239.6762</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,19 +1210,11 @@
         <v>-1098142.216</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1357,19 +1243,11 @@
         <v>-1098142.216</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1401,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1440,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1479,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1518,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1557,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1635,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1713,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1752,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1791,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1830,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1869,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1908,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1947,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1986,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2025,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2064,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2103,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2142,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2181,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2220,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2259,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2298,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2415,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2454,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2493,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2532,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2571,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2610,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2646,17 +2332,11 @@
         <v>538425.3689580191</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2688,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2724,23 +2398,15 @@
         <v>-482022.3518419808</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.052736720554273</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2765,7 +2431,7 @@
         <v>-582936.8281419808</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2798,7 +2464,7 @@
         <v>-211430.8193419808</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2831,7 +2497,7 @@
         <v>334614.5435580192</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2864,7 +2530,7 @@
         <v>968662.9115580192</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2897,7 +2563,7 @@
         <v>128767.2819580192</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2930,7 +2596,7 @@
         <v>-1279146.105041981</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2996,7 +2662,7 @@
         <v>-1069637.892641981</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3161,7 +2827,7 @@
         <v>-2652480.387441981</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3194,7 +2860,7 @@
         <v>-2389094.050541981</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3227,7 +2893,7 @@
         <v>-1484625.061341981</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3260,7 +2926,7 @@
         <v>-1053484.655741981</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3293,7 +2959,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3326,7 +2992,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3359,7 +3025,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3557,7 +3223,7 @@
         <v>-2357809.461041981</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3623,7 +3289,7 @@
         <v>-2964246.124341981</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3656,7 +3322,7 @@
         <v>-2636201.906541982</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3689,7 +3355,7 @@
         <v>-2460548.822541982</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3722,7 +3388,7 @@
         <v>-2460548.822541982</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3755,7 +3421,7 @@
         <v>-2119416.903641982</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3788,7 +3454,7 @@
         <v>-2119416.903641982</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3821,7 +3487,7 @@
         <v>-2279416.903641982</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3854,7 +3520,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3887,7 +3553,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3920,7 +3586,7 @@
         <v>-3704051.576241982</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4019,7 +3685,7 @@
         <v>-3237373.155841982</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4052,7 +3718,7 @@
         <v>-3257062.466341982</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4085,7 +3751,7 @@
         <v>-3073449.729941982</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4118,7 +3784,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4151,7 +3817,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4184,7 +3850,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4217,7 +3883,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4250,7 +3916,7 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4283,7 +3949,7 @@
         <v>-3771388.586041982</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4316,7 +3982,7 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4349,7 +4015,7 @@
         <v>-4058486.822641982</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4382,7 +4048,7 @@
         <v>-4960824.990341982</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4415,7 +4081,7 @@
         <v>-5045724.990341982</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4448,7 +4114,7 @@
         <v>-5045724.990341982</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4481,7 +4147,7 @@
         <v>-5386024.617241981</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4514,7 +4180,7 @@
         <v>-4930879.641641982</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4547,7 +4213,7 @@
         <v>-4930879.641641982</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4580,7 +4246,7 @@
         <v>-5339826.838241982</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4613,7 +4279,7 @@
         <v>-5079423.105341982</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4646,7 +4312,7 @@
         <v>-5176418.279741982</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4679,7 +4345,7 @@
         <v>-4366408.279741982</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4712,7 +4378,7 @@
         <v>-4198197.093741982</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4745,7 +4411,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4778,7 +4444,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4877,7 +4543,7 @@
         <v>-5097132.407141983</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4910,7 +4576,7 @@
         <v>-5011389.220341982</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4943,7 +4609,7 @@
         <v>-5086278.591241983</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4976,7 +4642,7 @@
         <v>-5086278.591241983</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5009,7 +4675,7 @@
         <v>-5348026.256941983</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5042,7 +4708,7 @@
         <v>-4996333.001041982</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5075,7 +4741,7 @@
         <v>-5901498.674141983</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5372,7 +5038,7 @@
         <v>-8629417.483341983</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7517,14 +7183,10 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7557,55 +7219,47 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C208" t="n">
         <v>4.47</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="D208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F208" t="n">
+        <v>208512.3932</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-12940199.35535074</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F208" t="n">
-        <v>208512.3932</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="J208" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +7288,10 @@
         <v>-12648511.17045074</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,9 +7328,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,14 +7362,10 @@
         <v>-12568811.23725074</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="J211" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,9 +7402,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,9 +7439,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,9 +7476,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7875,9 +7513,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,9 +7550,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,14 +7584,10 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J217" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7991,14 +7621,10 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J218" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,14 +7658,10 @@
         <v>-12929767.27695074</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J219" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8076,9 +7698,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,9 +7735,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,9 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,9 +7809,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,9 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,9 +7883,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8310,9 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8346,14 +7954,10 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,9 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,14 +8028,10 @@
         <v>-12880326.98465074</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,14 +8065,10 @@
         <v>-12971641.43535074</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J230" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8508,14 +8102,10 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J231" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,14 +8139,10 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,14 +8176,10 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8631,14 +8213,10 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J234" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,14 +8250,10 @@
         <v>-13301175.89755074</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J235" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8691,6 +8265,6 @@
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -2332,7 +2332,7 @@
         <v>538425.3689580191</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-864157.9129419808</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2337443.02304198</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2279706.74674198</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1396880.31024198</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-992925.1755419804</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2652480.387441981</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2389094.050541981</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1484625.061341981</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1053484.655741981</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3257062.466341982</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3073449.729941982</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3771388.586041982</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4058486.822641982</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4960824.990341982</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4186854.033741982</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-8843196.700641982</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7249,350 +7249,314 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
         <v>4.47</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+      <c r="C209" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F209" t="n">
+        <v>291688.1849</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-12648511.17045074</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10320.0668</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-12658831.23725074</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F211" t="n">
+        <v>90020</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-12568811.23725074</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F212" t="n">
+        <v>80010</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-12648821.23725074</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100020</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-12548801.23725074</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F214" t="n">
+        <v>86435.61259999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-12635236.84985074</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-12535226.84985074</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F216" t="n">
+        <v>268828.4271</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-12804055.27695074</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F217" t="n">
+        <v>125722</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-12929777.27695074</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F209" t="n">
-        <v>291688.1849</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12648511.17045074</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10320.0668</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-12658831.23725074</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F211" t="n">
-        <v>90020</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-12568811.23725074</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F212" t="n">
-        <v>80010</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-12648821.23725074</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D213" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F213" t="n">
-        <v>100020</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-12548801.23725074</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F214" t="n">
-        <v>86435.61259999999</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-12635236.84985074</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F215" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-12535226.84985074</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F216" t="n">
-        <v>268828.4271</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-12804055.27695074</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F217" t="n">
-        <v>125722</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-12929777.27695074</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7621,9 +7585,11 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7917,9 +7883,11 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7954,9 +7922,11 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7991,9 +7961,11 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8028,9 +8000,11 @@
         <v>-12880326.98465074</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8065,9 +8039,11 @@
         <v>-12971641.43535074</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8102,9 +8078,11 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8139,9 +8117,11 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8176,9 +8156,11 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8213,9 +8195,11 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8250,9 +8234,11 @@
         <v>-13301175.89755074</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest XVG.xlsx
+++ b/BackTest/2019-10-30 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>216842.2623</v>
       </c>
       <c r="G2" t="n">
-        <v>-1214944.2017</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>204348.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>-1214944.2017</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>551.3215</v>
       </c>
       <c r="G4" t="n">
-        <v>-1214944.2017</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>-1214933.2017</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>57580</v>
       </c>
       <c r="G6" t="n">
-        <v>-1272513.2017</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>264.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-1272513.2017</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>596.58</v>
       </c>
       <c r="G8" t="n">
-        <v>-1272513.2017</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>16500</v>
       </c>
       <c r="G9" t="n">
-        <v>-1256013.2017</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1266013.2017</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>220313.931</v>
       </c>
       <c r="G11" t="n">
-        <v>-1045699.2707</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,19 @@
         <v>2508.2298</v>
       </c>
       <c r="G12" t="n">
-        <v>-1048207.5005</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>4.34</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +777,23 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-1048197.5005</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +815,21 @@
         <v>871000</v>
       </c>
       <c r="G14" t="n">
-        <v>-1919197.5005</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>26513.2762</v>
       </c>
       <c r="G15" t="n">
-        <v>-1919197.5005</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>62000</v>
       </c>
       <c r="G16" t="n">
-        <v>-1919197.5005</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,19 @@
         <v>94168.1168</v>
       </c>
       <c r="G17" t="n">
-        <v>-1919197.5005</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +945,21 @@
         <v>111000</v>
       </c>
       <c r="G18" t="n">
-        <v>-2030197.5005</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,23 @@
         <v>544090.9089</v>
       </c>
       <c r="G19" t="n">
-        <v>-2030197.5005</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>4.32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,23 @@
         <v>172023.234</v>
       </c>
       <c r="G20" t="n">
-        <v>-1858174.2665</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>4.32</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1057,23 @@
         <v>48720</v>
       </c>
       <c r="G21" t="n">
-        <v>-1906894.2665</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>4.38</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1095,21 @@
         <v>57713</v>
       </c>
       <c r="G22" t="n">
-        <v>-1906894.2665</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1131,21 @@
         <v>481693.9892</v>
       </c>
       <c r="G23" t="n">
-        <v>-1425200.2773</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1167,21 @@
         <v>310960.6011</v>
       </c>
       <c r="G24" t="n">
-        <v>-1114239.6762</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1203,21 @@
         <v>16097.4602</v>
       </c>
       <c r="G25" t="n">
-        <v>-1098142.216</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1239,21 @@
         <v>10683.4708</v>
       </c>
       <c r="G26" t="n">
-        <v>-1098142.216</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1275,21 @@
         <v>3677.2353</v>
       </c>
       <c r="G27" t="n">
-        <v>-1098142.216</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1311,21 @@
         <v>1725928.0153</v>
       </c>
       <c r="G28" t="n">
-        <v>-2824070.2313</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1347,21 @@
         <v>138420.292</v>
       </c>
       <c r="G29" t="n">
-        <v>-2685649.9393</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1383,21 @@
         <v>333122.3652</v>
       </c>
       <c r="G30" t="n">
-        <v>-2352527.5741</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1419,21 @@
         <v>5731.1024</v>
       </c>
       <c r="G31" t="n">
-        <v>-2352527.5741</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1455,21 @@
         <v>215444.7546</v>
       </c>
       <c r="G32" t="n">
-        <v>-2567972.3287</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1491,21 @@
         <v>929020.5853</v>
       </c>
       <c r="G33" t="n">
-        <v>-1638951.743400001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1527,21 @@
         <v>191126.291</v>
       </c>
       <c r="G34" t="n">
-        <v>-1447825.452400001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1563,21 @@
         <v>95931.87772925</v>
       </c>
       <c r="G35" t="n">
-        <v>-1543757.33012925</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1599,21 @@
         <v>983678.10043668</v>
       </c>
       <c r="G36" t="n">
-        <v>-2527435.43056593</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1635,21 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-2527424.43056593</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1671,21 @@
         <v>148963.4649</v>
       </c>
       <c r="G38" t="n">
-        <v>-2378460.96566593</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1707,21 @@
         <v>474005.7992</v>
       </c>
       <c r="G39" t="n">
-        <v>-2852466.76486593</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1743,21 @@
         <v>575809.0198</v>
       </c>
       <c r="G40" t="n">
-        <v>-2276657.74506593</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1779,21 @@
         <v>342074.3305</v>
       </c>
       <c r="G41" t="n">
-        <v>-2618732.07556593</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1815,21 @@
         <v>593725.49332456</v>
       </c>
       <c r="G42" t="n">
-        <v>-2025006.58224137</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1851,23 @@
         <v>1326190.00846563</v>
       </c>
       <c r="G43" t="n">
-        <v>-698816.5737757403</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1.101235565819862</v>
+      </c>
       <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1889,15 @@
         <v>954273.47426937</v>
       </c>
       <c r="G44" t="n">
-        <v>-1653090.04804511</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1919,15 @@
         <v>1133775.55648535</v>
       </c>
       <c r="G45" t="n">
-        <v>-1653090.04804511</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1949,15 @@
         <v>466786.52457687</v>
       </c>
       <c r="G46" t="n">
-        <v>-2119876.572621981</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1979,15 @@
         <v>15116.2457</v>
       </c>
       <c r="G47" t="n">
-        <v>-2134992.818321981</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2009,15 @@
         <v>2331369.0903</v>
       </c>
       <c r="G48" t="n">
-        <v>196376.2719780193</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2039,15 @@
         <v>209045.91968</v>
       </c>
       <c r="G49" t="n">
-        <v>405422.1916580193</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2069,15 @@
         <v>1118051.4848</v>
       </c>
       <c r="G50" t="n">
-        <v>-712629.2931419807</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2099,15 @@
         <v>3058916.5944</v>
       </c>
       <c r="G51" t="n">
-        <v>2346287.301258019</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2129,15 @@
         <v>1832959.9473</v>
       </c>
       <c r="G52" t="n">
-        <v>513327.3539580191</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2159,15 @@
         <v>468778.8666</v>
       </c>
       <c r="G53" t="n">
-        <v>44548.48735801905</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2189,15 @@
         <v>6691.0675</v>
       </c>
       <c r="G54" t="n">
-        <v>44548.48735801905</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2219,15 @@
         <v>832141.6939</v>
       </c>
       <c r="G55" t="n">
-        <v>-787593.2065419808</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2249,15 @@
         <v>319193.2589</v>
       </c>
       <c r="G56" t="n">
-        <v>-468399.9476419808</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2279,15 @@
         <v>3830.387</v>
       </c>
       <c r="G57" t="n">
-        <v>-472230.3346419808</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2309,15 @@
         <v>1272468.1175</v>
       </c>
       <c r="G58" t="n">
-        <v>800237.7828580191</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2339,15 @@
         <v>261812.4139</v>
       </c>
       <c r="G59" t="n">
-        <v>538425.3689580191</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2369,15 @@
         <v>1389422.4122</v>
       </c>
       <c r="G60" t="n">
-        <v>-850997.0432419808</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2399,15 @@
         <v>368974.6914</v>
       </c>
       <c r="G61" t="n">
-        <v>-482022.3518419808</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2429,15 @@
         <v>100914.4763</v>
       </c>
       <c r="G62" t="n">
-        <v>-582936.8281419808</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2459,15 @@
         <v>371506.0088</v>
       </c>
       <c r="G63" t="n">
-        <v>-211430.8193419808</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2489,15 @@
         <v>546045.3628999999</v>
       </c>
       <c r="G64" t="n">
-        <v>334614.5435580192</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2519,15 @@
         <v>634048.368</v>
       </c>
       <c r="G65" t="n">
-        <v>968662.9115580192</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2549,15 @@
         <v>839895.6296</v>
       </c>
       <c r="G66" t="n">
-        <v>128767.2819580192</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2579,15 @@
         <v>1407913.387</v>
       </c>
       <c r="G67" t="n">
-        <v>-1279146.105041981</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2609,15 @@
         <v>414988.1921</v>
       </c>
       <c r="G68" t="n">
-        <v>-864157.9129419808</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2639,15 @@
         <v>205479.9797</v>
       </c>
       <c r="G69" t="n">
-        <v>-1069637.892641981</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2669,15 @@
         <v>1267805.1304</v>
       </c>
       <c r="G70" t="n">
-        <v>-2337443.02304198</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2699,15 @@
         <v>57736.2763</v>
       </c>
       <c r="G71" t="n">
-        <v>-2279706.74674198</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2729,15 @@
         <v>882826.4365</v>
       </c>
       <c r="G72" t="n">
-        <v>-1396880.31024198</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2759,15 @@
         <v>403955.1347</v>
       </c>
       <c r="G73" t="n">
-        <v>-992925.1755419804</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2789,15 @@
         <v>1659555.2119</v>
       </c>
       <c r="G74" t="n">
-        <v>-2652480.387441981</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2819,15 @@
         <v>263386.3369</v>
       </c>
       <c r="G75" t="n">
-        <v>-2389094.050541981</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2849,15 @@
         <v>904468.9892</v>
       </c>
       <c r="G76" t="n">
-        <v>-1484625.061341981</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2879,15 @@
         <v>431140.4056</v>
       </c>
       <c r="G77" t="n">
-        <v>-1053484.655741981</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2909,15 @@
         <v>1253534.6788</v>
       </c>
       <c r="G78" t="n">
-        <v>-2307019.334541981</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2939,15 @@
         <v>249288.1173</v>
       </c>
       <c r="G79" t="n">
-        <v>-2307019.334541981</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2969,15 @@
         <v>186131.8191</v>
       </c>
       <c r="G80" t="n">
-        <v>-2307019.334541981</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2999,15 @@
         <v>120163.4103</v>
       </c>
       <c r="G81" t="n">
-        <v>-2427182.744841981</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3029,15 @@
         <v>79709.91590000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-2347472.828941981</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3059,15 @@
         <v>95218.35679999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-2442691.185741981</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3089,15 @@
         <v>52239.7338</v>
       </c>
       <c r="G84" t="n">
-        <v>-2390451.451941981</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3119,15 @@
         <v>184469.6359</v>
       </c>
       <c r="G85" t="n">
-        <v>-2205981.816041981</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3149,15 @@
         <v>151827.645</v>
       </c>
       <c r="G86" t="n">
-        <v>-2357809.461041981</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3179,15 @@
         <v>856436.6633</v>
       </c>
       <c r="G87" t="n">
-        <v>-3214246.124341981</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3209,15 @@
         <v>250000</v>
       </c>
       <c r="G88" t="n">
-        <v>-2964246.124341981</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3239,15 @@
         <v>328044.2178</v>
       </c>
       <c r="G89" t="n">
-        <v>-2636201.906541982</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3269,15 @@
         <v>175653.084</v>
       </c>
       <c r="G90" t="n">
-        <v>-2460548.822541982</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3299,15 @@
         <v>347634.5673</v>
       </c>
       <c r="G91" t="n">
-        <v>-2460548.822541982</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3329,15 @@
         <v>341131.9189</v>
       </c>
       <c r="G92" t="n">
-        <v>-2119416.903641982</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3359,15 @@
         <v>277635.7978</v>
       </c>
       <c r="G93" t="n">
-        <v>-2119416.903641982</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3389,15 @@
         <v>160000</v>
       </c>
       <c r="G94" t="n">
-        <v>-2279416.903641982</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3419,15 @@
         <v>1424634.6726</v>
       </c>
       <c r="G95" t="n">
-        <v>-3704051.576241982</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3449,15 @@
         <v>169523.4968</v>
       </c>
       <c r="G96" t="n">
-        <v>-3704051.576241982</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3479,15 @@
         <v>131395.0867</v>
       </c>
       <c r="G97" t="n">
-        <v>-3704051.576241982</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3509,15 @@
         <v>187047.1216</v>
       </c>
       <c r="G98" t="n">
-        <v>-3517004.454641982</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3539,15 @@
         <v>323444.1924</v>
       </c>
       <c r="G99" t="n">
-        <v>-3517004.454641982</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3569,15 @@
         <v>279631.2988</v>
       </c>
       <c r="G100" t="n">
-        <v>-3237373.155841982</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3599,15 @@
         <v>19689.3105</v>
       </c>
       <c r="G101" t="n">
-        <v>-3257062.466341982</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3629,15 @@
         <v>183612.7364</v>
       </c>
       <c r="G102" t="n">
-        <v>-3073449.729941982</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3659,15 @@
         <v>67215.3492</v>
       </c>
       <c r="G103" t="n">
-        <v>-3140665.079141982</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3689,15 @@
         <v>102599.5214</v>
       </c>
       <c r="G104" t="n">
-        <v>-3140665.079141982</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3719,15 @@
         <v>137681.2608</v>
       </c>
       <c r="G105" t="n">
-        <v>-3278346.339941982</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3749,15 @@
         <v>85149.2148</v>
       </c>
       <c r="G106" t="n">
-        <v>-3278346.339941982</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3779,15 @@
         <v>493142.2461</v>
       </c>
       <c r="G107" t="n">
-        <v>-3771488.586041982</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3809,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>-3771388.586041982</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3839,15 @@
         <v>107758.6206</v>
       </c>
       <c r="G109" t="n">
-        <v>-3879147.206641982</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3869,15 @@
         <v>179339.616</v>
       </c>
       <c r="G110" t="n">
-        <v>-4058486.822641982</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3899,15 @@
         <v>902338.1677</v>
       </c>
       <c r="G111" t="n">
-        <v>-4960824.990341982</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3929,15 @@
         <v>84900</v>
       </c>
       <c r="G112" t="n">
-        <v>-5045724.990341982</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3959,15 @@
         <v>775487.0324</v>
       </c>
       <c r="G113" t="n">
-        <v>-5045724.990341982</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3989,15 @@
         <v>340299.6269</v>
       </c>
       <c r="G114" t="n">
-        <v>-5386024.617241981</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4019,15 @@
         <v>455144.9756</v>
       </c>
       <c r="G115" t="n">
-        <v>-4930879.641641982</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4049,15 @@
         <v>11226.3834</v>
       </c>
       <c r="G116" t="n">
-        <v>-4930879.641641982</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4079,15 @@
         <v>408947.1966</v>
       </c>
       <c r="G117" t="n">
-        <v>-5339826.838241982</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4109,15 @@
         <v>260403.7329</v>
       </c>
       <c r="G118" t="n">
-        <v>-5079423.105341982</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4139,15 @@
         <v>96995.1744</v>
       </c>
       <c r="G119" t="n">
-        <v>-5176418.279741982</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4169,15 @@
         <v>810010</v>
       </c>
       <c r="G120" t="n">
-        <v>-4366408.279741982</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4199,15 @@
         <v>168211.186</v>
       </c>
       <c r="G121" t="n">
-        <v>-4198197.093741982</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4229,15 @@
         <v>31505.6277</v>
       </c>
       <c r="G122" t="n">
-        <v>-4166691.466041982</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4259,15 @@
         <v>96458</v>
       </c>
       <c r="G123" t="n">
-        <v>-4166691.466041982</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4289,15 @@
         <v>9297.8441</v>
       </c>
       <c r="G124" t="n">
-        <v>-4166691.466041982</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4319,15 @@
         <v>20162.5677</v>
       </c>
       <c r="G125" t="n">
-        <v>-4186854.033741982</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4349,15 @@
         <v>910278.3734</v>
       </c>
       <c r="G126" t="n">
-        <v>-5097132.407141983</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4379,15 @@
         <v>85743.1868</v>
       </c>
       <c r="G127" t="n">
-        <v>-5011389.220341982</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4409,15 @@
         <v>74889.37089999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-5086278.591241983</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4439,15 @@
         <v>387000</v>
       </c>
       <c r="G129" t="n">
-        <v>-5086278.591241983</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4469,15 @@
         <v>261747.6657</v>
       </c>
       <c r="G130" t="n">
-        <v>-5348026.256941983</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4499,15 @@
         <v>351693.2559</v>
       </c>
       <c r="G131" t="n">
-        <v>-4996333.001041982</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4529,15 @@
         <v>905165.6731</v>
       </c>
       <c r="G132" t="n">
-        <v>-5901498.674141983</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4559,15 @@
         <v>192315.478</v>
       </c>
       <c r="G133" t="n">
-        <v>-5709183.196141982</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4589,15 @@
         <v>257572.7195</v>
       </c>
       <c r="G134" t="n">
-        <v>-5709183.196141982</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4619,15 @@
         <v>250197.4084</v>
       </c>
       <c r="G135" t="n">
-        <v>-5959380.604541983</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4649,15 @@
         <v>110</v>
       </c>
       <c r="G136" t="n">
-        <v>-5959270.604541983</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4679,15 @@
         <v>1050651.5086</v>
       </c>
       <c r="G137" t="n">
-        <v>-7009922.113141983</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4709,15 @@
         <v>139133.5951</v>
       </c>
       <c r="G138" t="n">
-        <v>-6870788.518041983</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4739,15 @@
         <v>868143.6902</v>
       </c>
       <c r="G139" t="n">
-        <v>-7738932.208241983</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4769,15 @@
         <v>46979.0248</v>
       </c>
       <c r="G140" t="n">
-        <v>-7738932.208241983</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4799,15 @@
         <v>890485.2751</v>
       </c>
       <c r="G141" t="n">
-        <v>-8629417.483341983</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4829,15 @@
         <v>50952.0807</v>
       </c>
       <c r="G142" t="n">
-        <v>-8578465.402641982</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4859,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-8578455.402641982</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4889,15 @@
         <v>263620.571</v>
       </c>
       <c r="G144" t="n">
-        <v>-8842075.973641982</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4919,15 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>-8842065.973641982</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4949,15 @@
         <v>99</v>
       </c>
       <c r="G146" t="n">
-        <v>-8841966.973641982</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4979,15 @@
         <v>1229.727</v>
       </c>
       <c r="G147" t="n">
-        <v>-8843196.700641982</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5009,15 @@
         <v>310373.1333</v>
       </c>
       <c r="G148" t="n">
-        <v>-9153569.833941983</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5039,15 @@
         <v>320394.033</v>
       </c>
       <c r="G149" t="n">
-        <v>-9473963.866941983</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5069,15 @@
         <v>392420.6399</v>
       </c>
       <c r="G150" t="n">
-        <v>-9081543.227041982</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5099,15 @@
         <v>198118.6147</v>
       </c>
       <c r="G151" t="n">
-        <v>-8883424.612341981</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5129,15 @@
         <v>513021.6013</v>
       </c>
       <c r="G152" t="n">
-        <v>-9396446.213641981</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5159,15 @@
         <v>153502.9847</v>
       </c>
       <c r="G153" t="n">
-        <v>-9242943.228941981</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5189,15 @@
         <v>171659.4766</v>
       </c>
       <c r="G154" t="n">
-        <v>-9071283.75234198</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5219,15 @@
         <v>1530918.8352</v>
       </c>
       <c r="G155" t="n">
-        <v>-10602202.58754198</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5249,15 @@
         <v>2073312.46600876</v>
       </c>
       <c r="G156" t="n">
-        <v>-12675515.05355074</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5279,15 @@
         <v>566490.2601</v>
       </c>
       <c r="G157" t="n">
-        <v>-12109024.79345074</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5309,15 @@
         <v>102504.9494</v>
       </c>
       <c r="G158" t="n">
-        <v>-12211529.74285074</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5339,15 @@
         <v>78898.2552</v>
       </c>
       <c r="G159" t="n">
-        <v>-12132631.48765074</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5369,15 @@
         <v>698624.2373</v>
       </c>
       <c r="G160" t="n">
-        <v>-12132631.48765074</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5399,15 @@
         <v>311512.138</v>
       </c>
       <c r="G161" t="n">
-        <v>-12444143.62565074</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5429,15 @@
         <v>47643.6589</v>
       </c>
       <c r="G162" t="n">
-        <v>-12491787.28455074</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5459,15 @@
         <v>13</v>
       </c>
       <c r="G163" t="n">
-        <v>-12491774.28455074</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5489,15 @@
         <v>148567.9265</v>
       </c>
       <c r="G164" t="n">
-        <v>-12640342.21105074</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5519,15 @@
         <v>516318.2797</v>
       </c>
       <c r="G165" t="n">
-        <v>-13156660.49075074</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5549,15 @@
         <v>307283.8301</v>
       </c>
       <c r="G166" t="n">
-        <v>-13463944.32085074</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5579,15 @@
         <v>46927.8951</v>
       </c>
       <c r="G167" t="n">
-        <v>-13463944.32085074</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5609,15 @@
         <v>12</v>
       </c>
       <c r="G168" t="n">
-        <v>-13463932.32085074</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5639,15 @@
         <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>-13463942.32085074</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5669,15 @@
         <v>69265.1439</v>
       </c>
       <c r="G170" t="n">
-        <v>-13533207.46475074</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5699,15 @@
         <v>720000.8847000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-14253208.34945074</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5729,15 @@
         <v>20</v>
       </c>
       <c r="G172" t="n">
-        <v>-14253188.34945074</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5759,15 @@
         <v>257748.5422</v>
       </c>
       <c r="G173" t="n">
-        <v>-14510936.89165074</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5789,15 @@
         <v>15102</v>
       </c>
       <c r="G174" t="n">
-        <v>-14495834.89165074</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5819,15 @@
         <v>242413.5138</v>
       </c>
       <c r="G175" t="n">
-        <v>-14738248.40545074</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5849,15 @@
         <v>273417.1912</v>
       </c>
       <c r="G176" t="n">
-        <v>-15011665.59665074</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5879,15 @@
         <v>31473.4845</v>
       </c>
       <c r="G177" t="n">
-        <v>-14980192.11215074</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5909,15 @@
         <v>5038.5738</v>
       </c>
       <c r="G178" t="n">
-        <v>-14975153.53835074</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5939,15 @@
         <v>450089.1954</v>
       </c>
       <c r="G179" t="n">
-        <v>-15425242.73375074</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5969,15 @@
         <v>8502.590099999999</v>
       </c>
       <c r="G180" t="n">
-        <v>-15425242.73375074</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5999,15 @@
         <v>596809.9054</v>
       </c>
       <c r="G181" t="n">
-        <v>-14828432.82835074</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6029,15 @@
         <v>17558.6492</v>
       </c>
       <c r="G182" t="n">
-        <v>-14828432.82835074</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6059,15 @@
         <v>25342.7292</v>
       </c>
       <c r="G183" t="n">
-        <v>-14828432.82835074</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6089,15 @@
         <v>216000.4204</v>
       </c>
       <c r="G184" t="n">
-        <v>-14828432.82835074</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6119,15 @@
         <v>20300.6894</v>
       </c>
       <c r="G185" t="n">
-        <v>-14828432.82835074</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6149,15 @@
         <v>29855.7268</v>
       </c>
       <c r="G186" t="n">
-        <v>-14858288.55515074</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6179,15 @@
         <v>1289193.1886</v>
       </c>
       <c r="G187" t="n">
-        <v>-13569095.36655074</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6209,15 @@
         <v>70619.02340000001</v>
       </c>
       <c r="G188" t="n">
-        <v>-13569095.36655074</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6239,15 @@
         <v>464094.8782</v>
       </c>
       <c r="G189" t="n">
-        <v>-14033190.24475074</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6269,15 @@
         <v>58932.6431</v>
       </c>
       <c r="G190" t="n">
-        <v>-13974257.60165074</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6299,15 @@
         <v>6108.3885</v>
       </c>
       <c r="G191" t="n">
-        <v>-13968149.21315074</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6329,15 @@
         <v>257974.1378</v>
       </c>
       <c r="G192" t="n">
-        <v>-14226123.35095074</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6359,15 @@
         <v>20</v>
       </c>
       <c r="G193" t="n">
-        <v>-14226103.35095074</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6389,15 @@
         <v>481928.357</v>
       </c>
       <c r="G194" t="n">
-        <v>-13744174.99395074</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6419,15 @@
         <v>15112</v>
       </c>
       <c r="G195" t="n">
-        <v>-13729062.99395074</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6449,15 @@
         <v>492187.777</v>
       </c>
       <c r="G196" t="n">
-        <v>-13236875.21695074</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6479,15 @@
         <v>492158.0842</v>
       </c>
       <c r="G197" t="n">
-        <v>-13729033.30115074</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6509,15 @@
         <v>216872.8691</v>
       </c>
       <c r="G198" t="n">
-        <v>-13512160.43205074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6539,15 @@
         <v>268051.4885</v>
       </c>
       <c r="G199" t="n">
-        <v>-13780211.92055074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6569,15 @@
         <v>994676.0965</v>
       </c>
       <c r="G200" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6599,15 @@
         <v>1157557.5942</v>
       </c>
       <c r="G201" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6629,15 @@
         <v>6103.1176</v>
       </c>
       <c r="G202" t="n">
-        <v>-12785535.82405074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6659,15 @@
         <v>154673.5313</v>
       </c>
       <c r="G203" t="n">
-        <v>-12940209.35535074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6689,15 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6719,15 @@
         <v>55380</v>
       </c>
       <c r="G205" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6749,15 @@
         <v>60546.8045</v>
       </c>
       <c r="G206" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6779,15 @@
         <v>315919.5261</v>
       </c>
       <c r="G207" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6809,15 @@
         <v>208512.3932</v>
       </c>
       <c r="G208" t="n">
-        <v>-12940199.35535074</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6839,15 @@
         <v>291688.1849</v>
       </c>
       <c r="G209" t="n">
-        <v>-12648511.17045074</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6869,15 @@
         <v>10320.0668</v>
       </c>
       <c r="G210" t="n">
-        <v>-12658831.23725074</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6899,15 @@
         <v>90020</v>
       </c>
       <c r="G211" t="n">
-        <v>-12568811.23725074</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6929,15 @@
         <v>80010</v>
       </c>
       <c r="G212" t="n">
-        <v>-12648821.23725074</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6959,15 @@
         <v>100020</v>
       </c>
       <c r="G213" t="n">
-        <v>-12548801.23725074</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6989,15 @@
         <v>86435.61259999999</v>
       </c>
       <c r="G214" t="n">
-        <v>-12635236.84985074</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7019,15 @@
         <v>100010</v>
       </c>
       <c r="G215" t="n">
-        <v>-12535226.84985074</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7049,15 @@
         <v>268828.4271</v>
       </c>
       <c r="G216" t="n">
-        <v>-12804055.27695074</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,24 +7079,15 @@
         <v>125722</v>
       </c>
       <c r="G217" t="n">
-        <v>-12929777.27695074</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7582,24 +7109,15 @@
         <v>60870</v>
       </c>
       <c r="G218" t="n">
-        <v>-12929777.27695074</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7621,22 +7139,15 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>-12929767.27695074</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7658,22 +7169,15 @@
         <v>14651</v>
       </c>
       <c r="G220" t="n">
-        <v>-12944418.27695074</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7695,22 +7199,15 @@
         <v>51857.2996</v>
       </c>
       <c r="G221" t="n">
-        <v>-12892560.97735074</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7732,22 +7229,15 @@
         <v>34893</v>
       </c>
       <c r="G222" t="n">
-        <v>-12857667.97735074</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7769,22 +7259,15 @@
         <v>52893.6403</v>
       </c>
       <c r="G223" t="n">
-        <v>-12804774.33705074</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7806,22 +7289,15 @@
         <v>80921.10129999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-12885695.43835074</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7843,22 +7319,15 @@
         <v>9723.546200000001</v>
       </c>
       <c r="G225" t="n">
-        <v>-12895418.98455074</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7880,24 +7349,15 @@
         <v>15081.9999</v>
       </c>
       <c r="G226" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7919,24 +7379,15 @@
         <v>24749.9999</v>
       </c>
       <c r="G227" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7958,24 +7409,15 @@
         <v>9946.604499999999</v>
       </c>
       <c r="G228" t="n">
-        <v>-12880336.98465074</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7997,24 +7439,15 @@
         <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>-12880326.98465074</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8036,24 +7469,15 @@
         <v>91314.4507</v>
       </c>
       <c r="G230" t="n">
-        <v>-12971641.43535074</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8075,24 +7499,15 @@
         <v>22075.0551</v>
       </c>
       <c r="G231" t="n">
-        <v>-12949566.38025074</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8114,24 +7529,15 @@
         <v>56244.7866</v>
       </c>
       <c r="G232" t="n">
-        <v>-12949566.38025074</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8153,24 +7559,15 @@
         <v>289035.7276</v>
       </c>
       <c r="G233" t="n">
-        <v>-13238602.10785074</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8192,24 +7589,15 @@
         <v>82671.2687</v>
       </c>
       <c r="G234" t="n">
-        <v>-13238602.10785074</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8231,24 +7619,15 @@
         <v>62573.7897</v>
       </c>
       <c r="G235" t="n">
-        <v>-13301175.89755074</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
